--- a/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0008678474283462037</v>
+        <v>0.0008021874661235709</v>
       </c>
       <c r="F2">
         <v>0.5905513628895194</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>103</v>
       </c>
       <c r="E4">
-        <v>0.001727013164281431</v>
+        <v>0.001712497033928857</v>
       </c>
       <c r="F4">
         <v>0.512202049115194</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>103</v>
       </c>
       <c r="E5">
-        <v>0.001854508793952392</v>
+        <v>0.001840892073265899</v>
       </c>
       <c r="F5">
         <v>0.5214933277316857</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>112</v>
       </c>
       <c r="E2">
-        <v>0.0008678474283462037</v>
+        <v>0.0008021874661235709</v>
       </c>
       <c r="F2">
         <v>0.7053131034042794</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>111</v>
       </c>
       <c r="E4">
-        <v>0.001727013164281431</v>
+        <v>0.001712497033928857</v>
       </c>
       <c r="F4">
         <v>0.7039711308465147</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>111</v>
       </c>
       <c r="E5">
-        <v>0.001854508793952392</v>
+        <v>0.001840892073265899</v>
       </c>
       <c r="F5">
         <v>0.7060172734136977</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0008678474283462037</v>
+        <v>0.0008021874661235709</v>
       </c>
       <c r="F2">
         <v>0.8052515799022626</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.001727013164281431</v>
+        <v>0.001712497033928857</v>
       </c>
       <c r="F4">
         <v>0.805124684229978</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.001854508793952392</v>
+        <v>0.001840892073265899</v>
       </c>
       <c r="F5">
         <v>0.819082078905402</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.0008678474283462037</v>
+        <v>0.0008021874661235709</v>
       </c>
       <c r="F2">
         <v>0.9060332102467868</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.001727013164281431</v>
+        <v>0.001712497033928857</v>
       </c>
       <c r="F4">
         <v>0.9011491756601712</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.001854508793952392</v>
+        <v>0.001840892073265899</v>
       </c>
       <c r="F5">
         <v>0.9009430370290585</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>59</v>

--- a/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.620410088702597E-05</v>
+        <v>2.262076100226829E-05</v>
       </c>
       <c r="C2">
-        <v>1.660952556224332E-05</v>
+        <v>1.301984940060831E-05</v>
       </c>
       <c r="D2">
-        <v>1.335471845206597E-05</v>
+        <v>9.762892809257042E-06</v>
       </c>
       <c r="E2">
-        <v>9.870949334138099E-06</v>
+        <v>6.276823003183987E-06</v>
       </c>
       <c r="F2">
-        <v>9.870949334138099E-06</v>
+        <v>6.276823003183987E-06</v>
       </c>
       <c r="G2">
-        <v>8.326136281845165E-06</v>
+        <v>4.730989753238558E-06</v>
       </c>
       <c r="H2">
-        <v>3.598268821803756E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.598268821803756E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.09846740488515E-08</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.707899457813515E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.30883214585679E-06</v>
+        <v>7.110325815040068E-07</v>
       </c>
       <c r="M2">
-        <v>1.142486238673907E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.687469657121953E-05</v>
+        <v>1.328519552905316E-05</v>
       </c>
       <c r="O2">
-        <v>6.325967914138157E-06</v>
+        <v>2.729500470311226E-06</v>
       </c>
       <c r="P2">
-        <v>1.030939634897982E-05</v>
+        <v>6.715559569317768E-06</v>
       </c>
       <c r="Q2">
-        <v>1.292602443755439E-05</v>
+        <v>9.333915684354478E-06</v>
       </c>
       <c r="R2">
-        <v>1.763511959696035E-05</v>
+        <v>1.404612073969242E-05</v>
       </c>
       <c r="S2">
-        <v>4.938310867165057E-06</v>
+        <v>1.34092701182821E-06</v>
       </c>
       <c r="T2">
-        <v>3.178575607596866E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>6.021057503816739E-07</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.385171148440914E-06</v>
+        <v>7.874219985192589E-07</v>
       </c>
       <c r="W2">
-        <v>8.849548599563015E-07</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3.301358111753134E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.631860089090188E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.259374910331975E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.432123285432895E-06</v>
+        <v>4.837046750857019E-06</v>
       </c>
       <c r="AB2">
-        <v>8.972111303711842E-06</v>
+        <v>5.3773913783113E-06</v>
       </c>
       <c r="AC2">
-        <v>1.660952556224332E-05</v>
+        <v>1.301984940060831E-05</v>
       </c>
       <c r="AD2">
-        <v>6.912704733999582E-06</v>
+        <v>3.316624772350748E-06</v>
       </c>
       <c r="AE2">
-        <v>8.220819278280115E-06</v>
+        <v>4.625603198112142E-06</v>
       </c>
       <c r="AF2">
-        <v>1.472628149849427E-05</v>
+        <v>1.113536163868488E-05</v>
       </c>
       <c r="AG2">
-        <v>9.642217326395371E-06</v>
+        <v>6.047939940362457E-06</v>
       </c>
       <c r="AH2">
-        <v>8.220819278280115E-06</v>
+        <v>4.625603198112142E-06</v>
       </c>
       <c r="AI2">
-        <v>2.124408971912635E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.602997257366436E-06</v>
+        <v>4.007373166290956E-06</v>
       </c>
       <c r="AK2">
-        <v>2.287526577434273E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.874822397314621E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>8.508459688016931E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.890579433250626E-06</v>
+        <v>3.294484860008595E-06</v>
       </c>
       <c r="AO2">
-        <v>4.857279864422103E-06</v>
+        <v>1.259842496047769E-06</v>
       </c>
       <c r="AP2">
-        <v>7.579793656580979E-06</v>
+        <v>3.984154241800785E-06</v>
       </c>
       <c r="AQ2">
-        <v>9.616083325510717E-06</v>
+        <v>6.021788680530959E-06</v>
       </c>
       <c r="AR2">
-        <v>2.001692967758618E-05</v>
+        <v>1.642950377249478E-05</v>
       </c>
       <c r="AS2">
-        <v>1.872786063395035E-05</v>
+        <v>1.513958342506509E-05</v>
       </c>
       <c r="AT2">
-        <v>2.768066893700877E-05</v>
+        <v>2.409830418076655E-05</v>
       </c>
       <c r="AU2">
-        <v>1.526075751658663E-05</v>
+        <v>1.167019062581654E-05</v>
       </c>
       <c r="AV2">
-        <v>2.56022018666513E-05</v>
+        <v>2.201846448656775E-05</v>
       </c>
       <c r="AW2">
-        <v>1.627842555103537E-05</v>
+        <v>1.26885307302858E-05</v>
       </c>
       <c r="AX2">
-        <v>1.114876037739284E-05</v>
+        <v>7.555477915426451E-06</v>
       </c>
       <c r="AY2">
-        <v>1.176841539836857E-05</v>
+        <v>8.175542157826621E-06</v>
       </c>
       <c r="AZ2">
-        <v>3.582312421263621E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.906449064534549E-09</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>4.52154415305723E-08</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.631860089090188E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>4.715498159622701E-06</v>
+        <v>1.117967158324831E-06</v>
       </c>
       <c r="BE2">
-        <v>1.543720052255934E-05</v>
+        <v>1.184675015510593E-05</v>
       </c>
       <c r="BF2">
-        <v>1.797967260862369E-05</v>
+        <v>1.439090129485893E-05</v>
       </c>
       <c r="BG2">
-        <v>2.155749372973528E-05</v>
+        <v>1.797108521624812E-05</v>
       </c>
       <c r="BH2">
-        <v>1.972802866780669E-05</v>
+        <v>1.61404119719063E-05</v>
       </c>
       <c r="BI2">
-        <v>2.189883774129E-05</v>
+        <v>1.831265465207587E-05</v>
       </c>
       <c r="BJ2">
-        <v>2.207051074710124E-05</v>
+        <v>1.848444103108607E-05</v>
       </c>
       <c r="BK2">
-        <v>2.293895577649867E-05</v>
+        <v>1.935345958333081E-05</v>
       </c>
       <c r="BL2">
-        <v>1.142305738667797E-05</v>
+        <v>7.829956071009217E-06</v>
       </c>
       <c r="BM2">
-        <v>7.908892267721181E-06</v>
+        <v>4.313470190326911E-06</v>
       </c>
       <c r="BN2">
-        <v>7.806257264246921E-06</v>
+        <v>4.210767406489549E-06</v>
       </c>
       <c r="BO2">
-        <v>2.456676883160121E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.631860089090188E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>5.140914674023328E-08</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.487476084202694E-08</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>6.903559533690011E-07</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>7.680934260004653E-06</v>
+        <v>4.085361638682757E-06</v>
       </c>
       <c r="BU2">
-        <v>6.325967914138157E-06</v>
+        <v>2.729500470311226E-06</v>
       </c>
       <c r="BV2">
-        <v>1.427593548324976E-05</v>
+        <v>1.068471821402447E-05</v>
       </c>
       <c r="BW2">
-        <v>1.554816852631569E-05</v>
+        <v>1.195779144235555E-05</v>
       </c>
       <c r="BX2">
-        <v>1.21482524112263E-05</v>
+        <v>8.555630015813008E-06</v>
       </c>
       <c r="BY2">
-        <v>1.090559036916138E-05</v>
+        <v>7.31214731723157E-06</v>
       </c>
       <c r="BZ2">
-        <v>1.345794445556023E-05</v>
+        <v>9.866186983412017E-06</v>
       </c>
       <c r="CA2">
-        <v>1.279472043310966E-05</v>
+        <v>9.202524966480642E-06</v>
       </c>
       <c r="CB2">
-        <v>7.88522526692004E-06</v>
+        <v>4.289787559790751E-06</v>
       </c>
       <c r="CC2">
-        <v>4.938310867165057E-06</v>
+        <v>1.34092701182821E-06</v>
       </c>
       <c r="CD2">
-        <v>1.827887261875181E-08</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>2.199060074439624E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>8.012197271218123E-06</v>
+        <v>4.416843416656319E-06</v>
       </c>
       <c r="CG2">
-        <v>4.957042767799143E-06</v>
+        <v>1.359671283047219E-06</v>
       </c>
       <c r="CH2">
-        <v>1.231426641684598E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>8.220819278280115E-06</v>
+        <v>4.625603198112142E-06</v>
       </c>
       <c r="CJ2">
-        <v>8.116172774737764E-06</v>
+        <v>4.520887585807992E-06</v>
       </c>
       <c r="CK2">
-        <v>9.192798311182243E-06</v>
+        <v>5.598224127926114E-06</v>
       </c>
       <c r="CL2">
-        <v>1.48671245032619E-05</v>
+        <v>1.127629765645665E-05</v>
       </c>
       <c r="CM2">
-        <v>6.565996222263272E-05</v>
+        <v>6.210267906820368E-05</v>
       </c>
       <c r="CN2">
-        <v>0.0144115174878393</v>
+        <v>0.01441743423790135</v>
       </c>
       <c r="CO2">
-        <v>0.05926262200607856</v>
+        <v>0.05929815851593833</v>
       </c>
       <c r="CP2">
-        <v>0.1721954658289293</v>
+        <v>0.1723055834164066</v>
       </c>
       <c r="CQ2">
-        <v>0.04047010136993943</v>
+        <v>0.04049322726130462</v>
       </c>
       <c r="CR2">
-        <v>0.006703887226930973</v>
+        <v>0.006704713842438023</v>
       </c>
       <c r="CS2">
-        <v>0.003759919327275731</v>
+        <v>0.003758801740449826</v>
       </c>
       <c r="CT2">
-        <v>0.004392966748704801</v>
+        <v>0.004392267227671582</v>
       </c>
       <c r="CU2">
-        <v>0.003143642906414371</v>
+        <v>0.003142118329398346</v>
       </c>
       <c r="CV2">
-        <v>0.04283116944986314</v>
+        <v>0.0428558545953458</v>
       </c>
       <c r="CW2">
-        <v>0.01296829443898526</v>
+        <v>0.01297325808163778</v>
       </c>
       <c r="CX2">
-        <v>0.08256429679485551</v>
+        <v>0.08261522177769809</v>
       </c>
       <c r="CY2">
-        <v>9.18102031078355E-05</v>
+        <v>8.827018962517913E-05</v>
       </c>
       <c r="CZ2">
-        <v>0.0389147213172888</v>
+        <v>0.03893682003253317</v>
       </c>
       <c r="DA2">
-        <v>0.003923306832806506</v>
+        <v>0.003922297147418475</v>
       </c>
       <c r="DB2">
-        <v>0.1040497935221537</v>
+        <v>0.1041149075703277</v>
       </c>
       <c r="DC2">
-        <v>0.008546040289289059</v>
+        <v>0.008548083466390384</v>
       </c>
       <c r="DD2">
-        <v>0.01934535065485279</v>
+        <v>0.01935452571827988</v>
       </c>
       <c r="DE2">
-        <v>8.568173290038277E-05</v>
+        <v>8.213767216365269E-05</v>
       </c>
       <c r="DF2">
-        <v>0.007963959269585236</v>
+        <v>0.007965618039208269</v>
       </c>
       <c r="DG2">
-        <v>0.01208329540902746</v>
+        <v>0.01208767459653735</v>
       </c>
       <c r="DH2">
-        <v>0.0004577109154938142</v>
+        <v>0.0004544125435788986</v>
       </c>
       <c r="DI2">
-        <v>0.06627970224361132</v>
+        <v>0.06631987284739919</v>
       </c>
       <c r="DJ2">
-        <v>0.003104758305098102</v>
+        <v>0.003103208048613016</v>
       </c>
       <c r="DK2">
-        <v>0.003971616134441807</v>
+        <v>0.003970638352613918</v>
       </c>
       <c r="DL2">
-        <v>2.791811594504651E-05</v>
+        <v>2.433590799928684E-05</v>
       </c>
       <c r="DM2">
-        <v>0.006334386214423122</v>
+        <v>0.006334968810716976</v>
       </c>
       <c r="DN2">
-        <v>0.002135794872298055</v>
+        <v>0.002133604710409511</v>
       </c>
       <c r="DO2">
-        <v>0.0008225700878445361</v>
+        <v>0.0008195126696622232</v>
       </c>
       <c r="DP2">
-        <v>0.000592311170050121</v>
+        <v>0.0005891016884145305</v>
       </c>
       <c r="DQ2">
-        <v>0.01003327933963308</v>
+        <v>0.0100363046924</v>
       </c>
       <c r="DR2">
-        <v>7.10380024046829E-05</v>
+        <v>6.74842709188267E-05</v>
       </c>
       <c r="DS2">
-        <v>0.0003307376111956847</v>
+        <v>0.0003273553858547625</v>
       </c>
       <c r="DT2">
-        <v>0.01176345439820063</v>
+        <v>0.01176762236206249</v>
       </c>
       <c r="DU2">
-        <v>0.004724174859916413</v>
+        <v>0.004723694069387214</v>
       </c>
       <c r="DV2">
-        <v>0.007506728854107687</v>
+        <v>0.007508085667843031</v>
       </c>
       <c r="DW2">
-        <v>0.0006518640620660253</v>
+        <v>0.0006486939092803199</v>
       </c>
       <c r="DX2">
-        <v>0.01007818434115314</v>
+        <v>0.01008123934927355</v>
       </c>
       <c r="DY2">
-        <v>0.007223933744534888</v>
+        <v>0.007225103799810045</v>
       </c>
       <c r="DZ2">
-        <v>0.0002498373584571582</v>
+        <v>0.0002464017064263154</v>
       </c>
       <c r="EA2">
-        <v>0.02444134082735539</v>
+        <v>0.0244538812929607</v>
       </c>
       <c r="EB2">
-        <v>0.005874548198857303</v>
+        <v>0.005874827117199116</v>
       </c>
       <c r="EC2">
-        <v>0.01062489135965953</v>
+        <v>0.01062830741419656</v>
       </c>
       <c r="ED2">
-        <v>0.00424379354365519</v>
+        <v>0.004242995508336777</v>
       </c>
       <c r="EE2">
-        <v>5.140045473993905E-05</v>
+        <v>4.783375457803587E-05</v>
       </c>
       <c r="EF2">
-        <v>0.009359984316841598</v>
+        <v>0.009362565024218797</v>
       </c>
       <c r="EG2">
-        <v>0.001114307737720047</v>
+        <v>0.001111442983669556</v>
       </c>
       <c r="EH2">
-        <v>0.0135671379592565</v>
+        <v>0.01357249707937646</v>
       </c>
       <c r="EI2">
-        <v>0.005482180685575406</v>
+        <v>0.005482200483620837</v>
       </c>
       <c r="EJ2">
-        <v>0.003411415115478636</v>
+        <v>0.003410067375769032</v>
       </c>
       <c r="EK2">
-        <v>0.008691421294210301</v>
+        <v>0.008693560481220216</v>
       </c>
       <c r="EL2">
-        <v>0.002356101379755574</v>
+        <v>0.002354056708728468</v>
       </c>
       <c r="EM2">
-        <v>0.0006462671618765667</v>
+        <v>0.0006430933128866985</v>
       </c>
       <c r="EN2">
-        <v>0.0007476971253100373</v>
+        <v>0.0007445902608723994</v>
       </c>
       <c r="EO2">
-        <v>0.003459120717093502</v>
+        <v>0.00345780448225933</v>
       </c>
       <c r="EP2">
-        <v>0.002979555700859911</v>
+        <v>0.002977922760322707</v>
       </c>
       <c r="EQ2">
-        <v>0.0004178835541456319</v>
+        <v>0.0004145588801610308</v>
       </c>
       <c r="ER2">
-        <v>0.0005092174572373444</v>
+        <v>0.0005059531003463806</v>
       </c>
       <c r="ES2">
-        <v>0.004023076636183779</v>
+        <v>0.004022132838974932</v>
       </c>
       <c r="ET2">
-        <v>0.008991732304376027</v>
+        <v>0.008994069817382174</v>
       </c>
       <c r="EU2">
-        <v>0.001797136560834249</v>
+        <v>0.001794722748314426</v>
       </c>
       <c r="EV2">
-        <v>0.002429532482241265</v>
+        <v>0.002427536305262202</v>
       </c>
       <c r="EW2">
-        <v>0.0006847732831800241</v>
+        <v>0.0006816248637102535</v>
       </c>
       <c r="EX2">
-        <v>0.0006537350221293586</v>
+        <v>0.0006505661049294489</v>
       </c>
       <c r="EY2">
-        <v>0.01453926849216376</v>
+        <v>0.01454526960924647</v>
       </c>
       <c r="EZ2">
-        <v>0.02600404488025395</v>
+        <v>0.0260176173587646</v>
       </c>
       <c r="FA2">
-        <v>3.312623112134461E-05</v>
+        <v>2.95474626253416E-05</v>
       </c>
       <c r="FB2">
-        <v>0.004013792735869512</v>
+        <v>0.004012842807554191</v>
       </c>
       <c r="FC2">
-        <v>1.466587649644952E-08</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.000143959844873135</v>
+        <v>0.0001404542711189807</v>
       </c>
       <c r="FE2">
-        <v>0.005000474569269339</v>
+        <v>0.005000176247624935</v>
       </c>
       <c r="FF2">
-        <v>0.004251501143916098</v>
+        <v>0.004250708198712427</v>
       </c>
       <c r="FG2">
-        <v>0.001949235465982897</v>
+        <v>0.00194692209988651</v>
       </c>
       <c r="FH2">
-        <v>0.001737110958802343</v>
+        <v>0.001734657505253989</v>
       </c>
       <c r="FI2">
-        <v>0.0004269135944513048</v>
+        <v>0.0004235948839235168</v>
       </c>
       <c r="FJ2">
-        <v>3.44505211661727E-06</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>8.594290890922375E-05</v>
+        <v>8.239902065365616E-05</v>
       </c>
       <c r="FL2">
-        <v>0.000785990226606284</v>
+        <v>0.0007829086510099018</v>
       </c>
       <c r="FM2">
-        <v>0.003545293920010521</v>
+        <v>0.003544034594133192</v>
       </c>
       <c r="FN2">
-        <v>0.003775651427808273</v>
+        <v>0.003774544230493259</v>
       </c>
       <c r="FO2">
-        <v>0.002467579783529191</v>
+        <v>0.002465608733064563</v>
       </c>
       <c r="FP2">
-        <v>2.112152571497748E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0007954934269279734</v>
+        <v>0.0007924181272642324</v>
       </c>
       <c r="FR2">
-        <v>0.0002137584272358627</v>
+        <v>0.0002102989486061432</v>
       </c>
       <c r="FS2">
-        <v>0.0005739475194284993</v>
+        <v>0.0005707259104010361</v>
       </c>
       <c r="FT2">
-        <v>0.0002486812084180218</v>
+        <v>0.0002452447928633635</v>
       </c>
       <c r="FU2">
-        <v>5.379015182083186E-05</v>
+        <v>5.022502981969609E-05</v>
       </c>
       <c r="FV2">
-        <v>0.0006678530226072622</v>
+        <v>0.0006646934289633156</v>
       </c>
       <c r="FW2">
-        <v>0.001794033560729211</v>
+        <v>0.001791617698981866</v>
       </c>
       <c r="FX2">
-        <v>0.002906065298372213</v>
+        <v>0.002904383824625125</v>
       </c>
       <c r="FY2">
-        <v>2.81119169516068E-05</v>
+        <v>2.452983699242237E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.001467342749670513</v>
+        <v>0.001464711140653271</v>
       </c>
       <c r="GA2">
-        <v>0.004656470557624578</v>
+        <v>0.004655945055037723</v>
       </c>
       <c r="GB2">
-        <v>0.00403416213655903</v>
+        <v>0.004033225660236967</v>
       </c>
       <c r="GC2">
-        <v>0.001457541149338722</v>
+        <v>0.001454903067324871</v>
       </c>
       <c r="GD2">
-        <v>0.0006888322233174217</v>
+        <v>0.0006856864843798967</v>
       </c>
       <c r="GE2">
-        <v>0.003379901714411886</v>
+        <v>0.003378533163188719</v>
       </c>
       <c r="GF2">
-        <v>0.002941703099578576</v>
+        <v>0.002940045161107214</v>
       </c>
       <c r="GG2">
-        <v>0.00173863725885401</v>
+        <v>0.001736184813277284</v>
       </c>
       <c r="GH2">
-        <v>9.72996032936553E-06</v>
+        <v>6.135740888988577E-06</v>
       </c>
       <c r="GI2">
-        <v>0.0001033800334994818</v>
+        <v>9.984766075612905E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.0007617794557867334</v>
+        <v>0.0007586818913485179</v>
       </c>
       <c r="GK2">
-        <v>0.0007852000265795351</v>
+        <v>0.0007821179291334631</v>
       </c>
       <c r="GL2">
-        <v>0.0004606688855939435</v>
+        <v>0.0004573724671284422</v>
       </c>
       <c r="GM2">
-        <v>0.0005131662173710125</v>
+        <v>0.0005099044682491976</v>
       </c>
       <c r="GN2">
-        <v>0.0002229557975471997</v>
+        <v>0.0002195023928793663</v>
       </c>
       <c r="GO2">
-        <v>0.0001285789043524801</v>
+        <v>0.0001250631729942137</v>
       </c>
       <c r="GP2">
-        <v>0.004375995148130301</v>
+        <v>0.004375284419017866</v>
       </c>
       <c r="GQ2">
-        <v>0.004043469836874101</v>
+        <v>0.004042539507376082</v>
       </c>
       <c r="GR2">
-        <v>0.0001448398149029226</v>
+        <v>0.0001413348222827491</v>
       </c>
       <c r="GS2">
-        <v>0.0005445106884320434</v>
+        <v>0.0005412696392620756</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.228014701135084E-05</v>
+        <v>6.38857280869746E-06</v>
       </c>
       <c r="C3">
-        <v>2.034042919061771E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.098221956299771E-05</v>
+        <v>5.089311588845593E-06</v>
       </c>
       <c r="E3">
-        <v>1.606720536065698E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.196971752370339E-05</v>
+        <v>6.0778243186254E-06</v>
       </c>
       <c r="G3">
-        <v>2.045368918611089E-05</v>
+        <v>1.45705142492333E-05</v>
       </c>
       <c r="H3">
-        <v>1.6549339341472E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.975435762226654E-06</v>
+        <v>7.73827350576781E-08</v>
       </c>
       <c r="J3">
-        <v>5.898132465302692E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.265162249656917E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.975006603076532E-06</v>
+        <v>4.081063600394267E-06</v>
       </c>
       <c r="M3">
-        <v>1.230128101050988E-05</v>
+        <v>6.409728525500093E-06</v>
       </c>
       <c r="N3">
-        <v>8.621480656935766E-06</v>
+        <v>2.726146748828044E-06</v>
       </c>
       <c r="O3">
-        <v>1.196971752370339E-05</v>
+        <v>6.0778243186254E-06</v>
       </c>
       <c r="P3">
-        <v>8.493173262041348E-07</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.495701340483351E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.27353422994838E-05</v>
+        <v>3.687506435419467E-05</v>
       </c>
       <c r="S3">
-        <v>4.377865825796838E-05</v>
+        <v>3.791945244124189E-05</v>
       </c>
       <c r="T3">
-        <v>2.979539881438745E-05</v>
+        <v>2.392182357128896E-05</v>
       </c>
       <c r="U3">
-        <v>5.946134963392586E-05</v>
+        <v>5.361825960765228E-05</v>
       </c>
       <c r="V3">
-        <v>8.2033006735759E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5.730594771969319E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>8.903217645724943E-06</v>
+        <v>3.008173255160181E-06</v>
       </c>
       <c r="Y3">
-        <v>1.228014701135084E-05</v>
+        <v>6.38857280869746E-06</v>
       </c>
       <c r="Z3">
-        <v>0.0001187369452752432</v>
+        <v>0.0001129547678216542</v>
       </c>
       <c r="AA3">
-        <v>3.593831856994962E-05</v>
+        <v>3.007105589177869E-05</v>
       </c>
       <c r="AB3">
-        <v>3.863403846268207E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001030441858996863</v>
+        <v>9.724588230960315E-05</v>
       </c>
       <c r="AD3">
-        <v>3.884790445417195E-05</v>
+        <v>3.298363171409844E-05</v>
       </c>
       <c r="AE3">
-        <v>3.926016543776735E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.100402816421191E-05</v>
+        <v>1.51214187646797E-05</v>
       </c>
       <c r="AG3">
-        <v>1.647972634424203E-05</v>
+        <v>1.05924676980768E-05</v>
       </c>
       <c r="AH3">
-        <v>3.16202257417743E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.643243294820591E-05</v>
+        <v>2.055540186631672E-05</v>
       </c>
       <c r="AJ3">
-        <v>1.635118234935702E-05</v>
+        <v>1.046379160927782E-05</v>
       </c>
       <c r="AK3">
-        <v>6.274573750323416E-06</v>
+        <v>3.768281222492187E-07</v>
       </c>
       <c r="AL3">
-        <v>3.681324853513458E-08</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.354862906295766E-05</v>
+        <v>1.766863453697537E-05</v>
       </c>
       <c r="AN3">
-        <v>2.623018895625357E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.121368555378727E-05</v>
+        <v>5.321015437877403E-06</v>
       </c>
       <c r="AP3">
-        <v>2.250505710448327E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>6.520986740518199E-07</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.1427178545292E-05</v>
+        <v>5.534727818276026E-06</v>
       </c>
       <c r="AS3">
-        <v>4.028271539707825E-05</v>
+        <v>3.441991709222386E-05</v>
       </c>
       <c r="AT3">
-        <v>3.190980873025127E-05</v>
+        <v>2.603840628940456E-05</v>
       </c>
       <c r="AU3">
-        <v>5.680066273979938E-05</v>
+        <v>5.095483854810618E-05</v>
       </c>
       <c r="AV3">
-        <v>3.084354377267987E-05</v>
+        <v>2.497104562050329E-05</v>
       </c>
       <c r="AW3">
-        <v>2.266261309821383E-05</v>
+        <v>1.678170808771817E-05</v>
       </c>
       <c r="AX3">
-        <v>9.551856619914431E-05</v>
+        <v>8.971252915902917E-05</v>
       </c>
       <c r="AY3">
-        <v>4.763878110436715E-05</v>
+        <v>4.178354201308488E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.11739879636949E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.8294221476204E-05</v>
+        <v>3.242937976243609E-05</v>
       </c>
       <c r="BB3">
-        <v>4.27353422994838E-05</v>
+        <v>3.687506435419467E-05</v>
       </c>
       <c r="BC3">
-        <v>3.169689273872359E-05</v>
+        <v>2.58252715019176E-05</v>
       </c>
       <c r="BD3">
-        <v>4.146114435018643E-05</v>
+        <v>3.559955701822036E-05</v>
       </c>
       <c r="BE3">
-        <v>1.438036642777934E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>5.536441379695031E-07</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.786545849326525E-05</v>
+        <v>3.200017617563532E-05</v>
       </c>
       <c r="BH3">
-        <v>9.364388627374119E-06</v>
+        <v>3.469818143661507E-06</v>
       </c>
       <c r="BI3">
-        <v>6.054391759084853E-09</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.55904883796264E-05</v>
+        <v>9.702315937967982E-06</v>
       </c>
       <c r="BK3">
-        <v>5.536441379695031E-07</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.509583060347372E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>5.77502877020121E-07</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>4.394885825119582E-05</v>
+        <v>3.808982733476929E-05</v>
       </c>
       <c r="BO3">
-        <v>2.057008118147944E-05</v>
+        <v>1.468702585092215E-05</v>
       </c>
       <c r="BP3">
-        <v>1.814090727814064E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.7296327311748E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.354862906295766E-05</v>
+        <v>1.766863453697537E-05</v>
       </c>
       <c r="BS3">
-        <v>1.046280758366605E-05</v>
+        <v>4.569365853258899E-06</v>
       </c>
       <c r="BT3">
-        <v>3.846227046951702E-07</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>4.315224628289445E-08</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>4.592731817246934E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.031720579362381E-05</v>
+        <v>2.444416676792147E-05</v>
       </c>
       <c r="BX3">
-        <v>2.498477900581067E-05</v>
+        <v>1.910626029102578E-05</v>
       </c>
       <c r="BY3">
-        <v>2.281390209219377E-05</v>
+        <v>1.693315254874559E-05</v>
       </c>
       <c r="BZ3">
-        <v>3.244973670876656E-05</v>
+        <v>2.657888910675158E-05</v>
       </c>
       <c r="CA3">
-        <v>1.110769455800484E-05</v>
+        <v>5.214915524012167E-06</v>
       </c>
       <c r="CB3">
-        <v>4.457752622617999E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>7.19538471368269E-06</v>
+        <v>1.298585326032187E-06</v>
       </c>
       <c r="CD3">
-        <v>1.952967422287911E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>2.323774807532817E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>9.088018038371403E-07</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.975006603076532E-06</v>
+        <v>4.081063600394267E-06</v>
       </c>
       <c r="CH3">
-        <v>2.25118291042138E-05</v>
+        <v>1.663076914561691E-05</v>
       </c>
       <c r="CI3">
-        <v>6.365900746689349E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>5.77502877020121E-07</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001312142747787478</v>
+        <v>0.0001254449192332656</v>
       </c>
       <c r="CL3">
-        <v>0.06908440325100723</v>
+        <v>0.06914949132152222</v>
       </c>
       <c r="CM3">
-        <v>0.0006742786731692379</v>
+        <v>0.0006690673794919065</v>
       </c>
       <c r="CN3">
-        <v>0.1890246624783684</v>
+        <v>0.1892130031232177</v>
       </c>
       <c r="CO3">
-        <v>0.001650607634319351</v>
+        <v>0.001646399632269318</v>
       </c>
       <c r="CP3">
-        <v>0.006527150240272943</v>
+        <v>0.006527953453255347</v>
       </c>
       <c r="CQ3">
-        <v>0.001276123249220759</v>
+        <v>0.001271530420884634</v>
       </c>
       <c r="CR3">
-        <v>0.0089116576453891</v>
+        <v>0.008914911217225928</v>
       </c>
       <c r="CS3">
-        <v>0.01524393739341629</v>
+        <v>0.0152536981196096</v>
       </c>
       <c r="CT3">
-        <v>0.0306661597797383</v>
+        <v>0.03069176863418575</v>
       </c>
       <c r="CU3">
-        <v>0.05121428796209129</v>
+        <v>0.05126101240952262</v>
       </c>
       <c r="CV3">
-        <v>0.04440624123299573</v>
+        <v>0.04444596962013041</v>
       </c>
       <c r="CW3">
-        <v>0.000363523765534735</v>
+        <v>0.0003579931350258869</v>
       </c>
       <c r="CX3">
-        <v>0.05000806401008911</v>
+        <v>0.05005354892203615</v>
       </c>
       <c r="CY3">
-        <v>0.006081812757993723</v>
+        <v>0.006082158334887194</v>
       </c>
       <c r="CZ3">
-        <v>0.1047163058331497</v>
+        <v>0.1048180098302098</v>
       </c>
       <c r="DA3">
-        <v>0.0001530650139092676</v>
+        <v>0.0001473181125411091</v>
       </c>
       <c r="DB3">
-        <v>0.01504407390136922</v>
+        <v>0.01505362924456545</v>
       </c>
       <c r="DC3">
-        <v>0.002625566895523967</v>
+        <v>0.002622360777575141</v>
       </c>
       <c r="DD3">
-        <v>0.007562852199060497</v>
+        <v>0.00756471971633477</v>
       </c>
       <c r="DE3">
-        <v>0.01998186920488546</v>
+        <v>0.01999649870738912</v>
       </c>
       <c r="DF3">
-        <v>0.005580426777944773</v>
+        <v>0.005580257122395241</v>
       </c>
       <c r="DG3">
-        <v>0.07446551703688303</v>
+        <v>0.074536134828037</v>
       </c>
       <c r="DH3">
-        <v>1.164268403671664E-05</v>
+        <v>5.75045476667244E-06</v>
       </c>
       <c r="DI3">
-        <v>0.005426991084050255</v>
+        <v>0.005426663755469257</v>
       </c>
       <c r="DJ3">
-        <v>0.0005920923164395808</v>
+        <v>0.0005867965667163201</v>
       </c>
       <c r="DK3">
-        <v>0.004680930813737337</v>
+        <v>0.00467983682140626</v>
       </c>
       <c r="DL3">
-        <v>0.000436416722634193</v>
+        <v>0.0004309609981216403</v>
       </c>
       <c r="DM3">
-        <v>0.0003989417041253914</v>
+        <v>0.0003934474696701873</v>
       </c>
       <c r="DN3">
-        <v>0.003770661149958605</v>
+        <v>0.003768631749615891</v>
       </c>
       <c r="DO3">
-        <v>0.00676248773090844</v>
+        <v>0.006763532780549736</v>
       </c>
       <c r="DP3">
-        <v>5.211906092608875E-05</v>
+        <v>4.626842584371327E-05</v>
       </c>
       <c r="DQ3">
-        <v>0.002327009507404103</v>
+        <v>0.00232349658699454</v>
       </c>
       <c r="DR3">
-        <v>0.01829251727210781</v>
+        <v>0.01830541076890319</v>
       </c>
       <c r="DS3">
-        <v>0.0008491137662122348</v>
+        <v>0.0008440821359393377</v>
       </c>
       <c r="DT3">
-        <v>0.01082960856907038</v>
+        <v>0.01083483305868172</v>
       </c>
       <c r="DU3">
-        <v>7.205335713286721E-05</v>
+        <v>6.622320685968637E-05</v>
       </c>
       <c r="DV3">
-        <v>0.01544436838544078</v>
+        <v>0.01545433507780344</v>
       </c>
       <c r="DW3">
-        <v>0.0003123466875711631</v>
+        <v>0.0003067634666590046</v>
       </c>
       <c r="DX3">
-        <v>1.765927029730585E-05</v>
+        <v>1.177322376982114E-05</v>
       </c>
       <c r="DY3">
-        <v>0.03596051256906647</v>
+        <v>0.03599156198713219</v>
       </c>
       <c r="DZ3">
-        <v>7.098014317557234E-05</v>
+        <v>6.514889005015572E-05</v>
       </c>
       <c r="EA3">
-        <v>0.01396295444438891</v>
+        <v>0.01397139881152844</v>
       </c>
       <c r="EB3">
-        <v>0.00261713619585944</v>
+        <v>0.00261392141438559</v>
       </c>
       <c r="EC3">
-        <v>0.002562547498031622</v>
+        <v>0.002559276620318027</v>
       </c>
       <c r="ED3">
-        <v>0.006899340225462833</v>
+        <v>0.006900525906968413</v>
       </c>
       <c r="EE3">
-        <v>0.003049136278669379</v>
+        <v>0.003046365427554376</v>
       </c>
       <c r="EF3">
-        <v>0.00969176161434736</v>
+        <v>0.009695816833796438</v>
       </c>
       <c r="EG3">
-        <v>0.003043882678878429</v>
+        <v>0.003041106429078256</v>
       </c>
       <c r="EH3">
-        <v>0.00154636583846732</v>
+        <v>0.001542050715840971</v>
       </c>
       <c r="EI3">
-        <v>0.005987687761739125</v>
+        <v>0.005987936614245203</v>
       </c>
       <c r="EJ3">
-        <v>0.0002633074095225242</v>
+        <v>0.0002576737950452532</v>
       </c>
       <c r="EK3">
-        <v>0.0004465425522312681</v>
+        <v>0.0004410972331870139</v>
       </c>
       <c r="EL3">
-        <v>0.002473397101579077</v>
+        <v>0.002470034611458301</v>
       </c>
       <c r="EM3">
-        <v>0.007273214110585719</v>
+        <v>0.007274783991017619</v>
       </c>
       <c r="EN3">
-        <v>0.001269546749482449</v>
+        <v>0.001264947163027507</v>
       </c>
       <c r="EO3">
-        <v>1.241280850607201E-05</v>
+        <v>6.521370628542852E-06</v>
       </c>
       <c r="EP3">
-        <v>0.0008650803055768974</v>
+        <v>0.0008600650827812942</v>
       </c>
       <c r="EQ3">
-        <v>0.008294342669953174</v>
+        <v>0.008296961878813068</v>
       </c>
       <c r="ER3">
-        <v>0.005701954273108976</v>
+        <v>0.005701909501203416</v>
       </c>
       <c r="ES3">
-        <v>9.801529609979493E-05</v>
+        <v>9.22118247402082E-05</v>
       </c>
       <c r="ET3">
-        <v>0.004663581814427685</v>
+        <v>0.004662469993980838</v>
       </c>
       <c r="EU3">
-        <v>0.0006636111735937168</v>
+        <v>0.0006583889178191475</v>
       </c>
       <c r="EV3">
-        <v>8.673795654854058E-05</v>
+        <v>8.092289641017109E-05</v>
       </c>
       <c r="EW3">
-        <v>0.02267726909763064</v>
+        <v>0.0226946684371997</v>
       </c>
       <c r="EX3">
-        <v>0.02147531214545867</v>
+        <v>0.02149147633438233</v>
       </c>
       <c r="EY3">
-        <v>0.0003516391260076462</v>
+        <v>0.0003460962826486159</v>
       </c>
       <c r="EZ3">
-        <v>0.003776878449711208</v>
+        <v>0.003774855438367524</v>
       </c>
       <c r="FA3">
-        <v>0.000818879137415325</v>
+        <v>0.0008138164375428017</v>
       </c>
       <c r="FB3">
-        <v>4.892954805300521E-07</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.00674733913151123</v>
+        <v>0.006748368614203737</v>
       </c>
       <c r="FD3">
-        <v>0.003276033869640715</v>
+        <v>0.003273496182205511</v>
       </c>
       <c r="FE3">
-        <v>0.0008118038176968648</v>
+        <v>0.0008067338471099445</v>
       </c>
       <c r="FF3">
-        <v>0.001256017650020797</v>
+        <v>0.001251404160841716</v>
       </c>
       <c r="FG3">
-        <v>7.124768716492627E-05</v>
+        <v>6.541670897209399E-05</v>
       </c>
       <c r="FH3">
-        <v>2.100402816421191E-05</v>
+        <v>1.51214187646797E-05</v>
       </c>
       <c r="FI3">
-        <v>7.254164711343728E-05</v>
+        <v>6.671199861503594E-05</v>
       </c>
       <c r="FJ3">
-        <v>0.0006409240044964801</v>
+        <v>0.0006356784350154572</v>
       </c>
       <c r="FK3">
-        <v>0.002755250190363635</v>
+        <v>0.002752177337092075</v>
       </c>
       <c r="FL3">
-        <v>0.003330390867477752</v>
+        <v>0.00332790903818359</v>
       </c>
       <c r="FM3">
-        <v>0.001314948847675818</v>
+        <v>0.001310395917160413</v>
       </c>
       <c r="FN3">
-        <v>0.0007333441708189154</v>
+        <v>0.0007281935738141321</v>
       </c>
       <c r="FO3">
-        <v>0.0008090941378046878</v>
+        <v>0.0008040213827063409</v>
       </c>
       <c r="FP3">
-        <v>0.0005032104499763504</v>
+        <v>0.000497823363791723</v>
       </c>
       <c r="FQ3">
-        <v>0.0005276993390018935</v>
+        <v>0.0005223374180006201</v>
       </c>
       <c r="FR3">
-        <v>2.527264299435604E-05</v>
+        <v>1.939442009331939E-05</v>
       </c>
       <c r="FS3">
-        <v>0.0002422225403615291</v>
+        <v>0.0002365672587274557</v>
       </c>
       <c r="FT3">
-        <v>0.0008753754651672346</v>
+        <v>0.0008703708218462037</v>
       </c>
       <c r="FU3">
-        <v>0.002421601303640125</v>
+        <v>0.00241818558730926</v>
       </c>
       <c r="FV3">
-        <v>0.001989997120814433</v>
+        <v>0.001986137880958028</v>
       </c>
       <c r="FW3">
-        <v>6.365900746689349E-08</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002224101111499013</v>
+        <v>0.002220482440736753</v>
       </c>
       <c r="FY3">
-        <v>0.006143352755544935</v>
+        <v>0.006143761571947571</v>
       </c>
       <c r="FZ3">
-        <v>0.002939764083021496</v>
+        <v>0.002936880839247339</v>
       </c>
       <c r="GA3">
-        <v>0.0003055489678416565</v>
+        <v>0.0002999587614813953</v>
       </c>
       <c r="GB3">
-        <v>0.001834638726996423</v>
+        <v>0.001830619838310627</v>
       </c>
       <c r="GC3">
-        <v>0.001903215124267644</v>
+        <v>0.001899266705810584</v>
       </c>
       <c r="GD3">
-        <v>0.00179544102855617</v>
+        <v>0.001791381859673618</v>
       </c>
       <c r="GE3">
-        <v>0.0005364814186524387</v>
+        <v>0.0005311285222600157</v>
       </c>
       <c r="GF3">
-        <v>0.0007626804696515713</v>
+        <v>0.0007575600191078334</v>
       </c>
       <c r="GG3">
-        <v>1.712999731836657E-05</v>
+        <v>1.124340690130216E-05</v>
       </c>
       <c r="GH3">
-        <v>0.0006450994143303331</v>
+        <v>0.0006398581355688254</v>
       </c>
       <c r="GI3">
-        <v>2.643243294820591E-05</v>
+        <v>2.055540186631672E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.0009577777618882988</v>
+        <v>0.0009528577965166684</v>
       </c>
       <c r="GK3">
-        <v>2.57533989752259E-05</v>
+        <v>1.987567010690728E-05</v>
       </c>
       <c r="GL3">
-        <v>9.775606611011016E-06</v>
+        <v>3.881458701631845E-06</v>
       </c>
       <c r="GM3">
-        <v>0.001057450257922151</v>
+        <v>0.001052632717639524</v>
       </c>
       <c r="GN3">
-        <v>0.003467258162031557</v>
+        <v>0.0034649169798104</v>
       </c>
       <c r="GO3">
-        <v>0.001989728220825133</v>
+        <v>0.001985868704642696</v>
       </c>
       <c r="GP3">
-        <v>7.477162702470236E-05</v>
+        <v>6.894427009017246E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0008009923681270718</v>
+        <v>0.0007959112875175425</v>
       </c>
       <c r="GR3">
-        <v>0.0001840014226782522</v>
+        <v>0.0001782863120703105</v>
       </c>
       <c r="GS3">
-        <v>4.064895838250477E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.324340552355941E-05</v>
+        <v>3.963634981604152E-06</v>
       </c>
       <c r="C4">
-        <v>6.193130244836693E-05</v>
+        <v>5.272905225562494E-05</v>
       </c>
       <c r="D4">
-        <v>2.334472392290083E-05</v>
+        <v>1.408103659216007E-05</v>
       </c>
       <c r="E4">
-        <v>2.194286086748014E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.619208864013145E-07</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>9.28607136711177E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.966413717272994E-05</v>
+        <v>2.041051154423741E-05</v>
       </c>
       <c r="I4">
-        <v>8.44101533370367E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.592410502487303E-05</v>
+        <v>1.666452455716001E-05</v>
       </c>
       <c r="K4">
-        <v>8.606802340257827E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.504719957154955E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.05671976037671E-05</v>
+        <v>3.133093171158465E-05</v>
       </c>
       <c r="N4">
-        <v>6.797598668733502E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.91691035251751E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.645810744132E-10</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.60660906351503E-05</v>
+        <v>6.790814342266989E-06</v>
       </c>
       <c r="R4">
-        <v>4.196976965921581E-05</v>
+        <v>3.273573692727241E-05</v>
       </c>
       <c r="S4">
-        <v>4.576852680939433E-07</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.61994026404206E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3.24627812833704E-05</v>
+        <v>2.3213611626125E-05</v>
       </c>
       <c r="V4">
-        <v>4.574220180835361E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3.600161842327335E-05</v>
+        <v>2.67580832647067E-05</v>
       </c>
       <c r="X4">
-        <v>4.926267794753069E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.440436556945633E-05</v>
+        <v>5.126443495680334E-06</v>
       </c>
       <c r="Z4">
-        <v>1.433010856652069E-05</v>
+        <v>5.052068261538111E-06</v>
       </c>
       <c r="AA4">
-        <v>6.41020425341841E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3.443304136126186E-05</v>
+        <v>2.518700873105863E-05</v>
       </c>
       <c r="AC4">
-        <v>1.355519453588555E-05</v>
+        <v>4.275920421063994E-06</v>
       </c>
       <c r="AD4">
-        <v>6.267239547766501E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>9.941478393022365E-05</v>
+        <v>9.027221453615511E-05</v>
       </c>
       <c r="AF4">
-        <v>8.89482285164431E-05</v>
+        <v>7.978899438468853E-05</v>
       </c>
       <c r="AG4">
-        <v>7.714928304998839E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.184216046816316E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>9.499359375543812E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.733859687146484E-05</v>
+        <v>3.811311232883843E-05</v>
       </c>
       <c r="AK4">
-        <v>1.961499377545119E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.186665946913169E-05</v>
+        <v>2.584696886820242E-06</v>
       </c>
       <c r="AM4">
-        <v>4.092968161809739E-05</v>
+        <v>3.169399286908913E-05</v>
       </c>
       <c r="AN4">
-        <v>4.295216969805361E-05</v>
+        <v>3.371970113295429E-05</v>
       </c>
       <c r="AO4">
-        <v>1.157505345760346E-05</v>
+        <v>2.292626583316504E-06</v>
       </c>
       <c r="AP4">
-        <v>6.78243126813388E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.18097434668816E-08</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.517711699534191E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.386785173425382E-07</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.011350719049515E-07</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.884868114049203E-05</v>
+        <v>1.959375715161879E-05</v>
       </c>
       <c r="AV4">
-        <v>3.331025131687393E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.49321013809915E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>3.663298944823371E-05</v>
+        <v>2.739045955186629E-05</v>
       </c>
       <c r="AY4">
-        <v>6.998186276663452E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.534907900214018E-05</v>
+        <v>1.60885829841384E-05</v>
       </c>
       <c r="BA4">
-        <v>9.723713384413333E-06</v>
+        <v>4.383388262449443E-07</v>
       </c>
       <c r="BB4">
-        <v>3.181892425791642E-05</v>
+        <v>2.256872945839524E-05</v>
       </c>
       <c r="BC4">
-        <v>1.65245336532742E-05</v>
+        <v>7.249987288465506E-06</v>
       </c>
       <c r="BD4">
-        <v>3.801681150294117E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>5.352369211598389E-05</v>
+        <v>4.430805541591295E-05</v>
       </c>
       <c r="BF4">
-        <v>3.819593151002243E-05</v>
+        <v>2.895589011330446E-05</v>
       </c>
       <c r="BG4">
-        <v>2.544781100604342E-05</v>
+        <v>1.618747218808321E-05</v>
       </c>
       <c r="BH4">
-        <v>8.497691335944276E-05</v>
+        <v>7.581135614213199E-05</v>
       </c>
       <c r="BI4">
-        <v>8.868065350586491E-05</v>
+        <v>7.952099334403776E-05</v>
       </c>
       <c r="BJ4">
-        <v>1.273182050333462E-05</v>
+        <v>3.451235421176864E-06</v>
       </c>
       <c r="BK4">
-        <v>2.335707092338895E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1.084154142860509E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.832085872428938E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.757798148559264E-08</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.951182795738048E-05</v>
+        <v>4.028980361006629E-05</v>
       </c>
       <c r="BP4">
-        <v>1.80964347154171E-05</v>
+        <v>8.824391114682486E-06</v>
       </c>
       <c r="BQ4">
-        <v>2.42329829580169E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.044490141292449E-05</v>
+        <v>1.160675122628602E-06</v>
       </c>
       <c r="BS4">
-        <v>4.758207688109049E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.06385144205787E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>5.463863716006167E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>8.858505350208551E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>7.714928304998839E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>2.463936197408252E-05</v>
+        <v>1.537773595221257E-05</v>
       </c>
       <c r="BY4">
-        <v>1.944942076890549E-05</v>
+        <v>1.017953137810747E-05</v>
       </c>
       <c r="BZ4">
-        <v>1.090874443126187E-05</v>
+        <v>1.625256666863235E-06</v>
       </c>
       <c r="CA4">
-        <v>1.348316153303783E-05</v>
+        <v>4.203772728038868E-06</v>
       </c>
       <c r="CB4">
-        <v>2.001465979125143E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>8.646363841821834E-11</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.094073282786242E-05</v>
+        <v>1.167321788818877E-05</v>
       </c>
       <c r="CE4">
-        <v>3.510269138773553E-05</v>
+        <v>2.585772496714868E-05</v>
       </c>
       <c r="CF4">
-        <v>5.779559228486745E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>2.239431988532794E-05</v>
+        <v>1.312911933143441E-05</v>
       </c>
       <c r="CH4">
-        <v>6.104076841316093E-05</v>
+        <v>5.183710032164418E-05</v>
       </c>
       <c r="CI4">
-        <v>7.191184284293356E-05</v>
+        <v>6.272548355995748E-05</v>
       </c>
       <c r="CJ4">
-        <v>1.516855059966731E-05</v>
+        <v>5.891845253130468E-06</v>
       </c>
       <c r="CK4">
-        <v>1.451232557372438E-05</v>
+        <v>5.234575392713534E-06</v>
       </c>
       <c r="CL4">
-        <v>3.80477885041658E-09</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0005404989613678662</v>
+        <v>0.0005320586814877649</v>
       </c>
       <c r="CN4">
-        <v>0.1276035950446286</v>
+        <v>0.1277974632685581</v>
       </c>
       <c r="CO4">
-        <v>0.07629086301605197</v>
+        <v>0.0764030316563645</v>
       </c>
       <c r="CP4">
-        <v>0.1012516540028417</v>
+        <v>0.1014035649478368</v>
       </c>
       <c r="CQ4">
-        <v>0.006058035239495902</v>
+        <v>0.006058379921918403</v>
       </c>
       <c r="CR4">
-        <v>0.005843401631010665</v>
+        <v>0.005843404576095272</v>
       </c>
       <c r="CS4">
-        <v>0.001135494844890192</v>
+        <v>0.001128001911097812</v>
       </c>
       <c r="CT4">
-        <v>0.0008155620622420991</v>
+        <v>0.0008075597348919333</v>
       </c>
       <c r="CU4">
-        <v>0.03892925953901352</v>
+        <v>0.03898194143350953</v>
       </c>
       <c r="CV4">
-        <v>0.002720883007566283</v>
+        <v>0.002715914311865334</v>
       </c>
       <c r="CW4">
-        <v>0.1034435000894933</v>
+        <v>0.1035989008684058</v>
       </c>
       <c r="CX4">
-        <v>0.005232990906878935</v>
+        <v>0.005232021962531323</v>
       </c>
       <c r="CY4">
-        <v>0.006478332256111754</v>
+        <v>0.00647934613095289</v>
       </c>
       <c r="CZ4">
-        <v>0.03413096534931971</v>
+        <v>0.03417600745108062</v>
       </c>
       <c r="DA4">
-        <v>0.05852720031379055</v>
+        <v>0.05861108584016796</v>
       </c>
       <c r="DB4">
-        <v>0.0438127917320771</v>
+        <v>0.04387324913434632</v>
       </c>
       <c r="DC4">
-        <v>0.01634483864617021</v>
+        <v>0.01636156186705382</v>
       </c>
       <c r="DD4">
-        <v>0.005280337208750705</v>
+        <v>0.005279443648678999</v>
       </c>
       <c r="DE4">
-        <v>0.0132466885236892</v>
+        <v>0.01325847890305409</v>
       </c>
       <c r="DF4">
-        <v>0.0006183681744463161</v>
+        <v>0.0006100518770951815</v>
       </c>
       <c r="DG4">
-        <v>0.009427973372721667</v>
+        <v>0.009433683634629316</v>
       </c>
       <c r="DH4">
-        <v>0.04451088375967518</v>
+        <v>0.04457245265661106</v>
       </c>
       <c r="DI4">
-        <v>0.03043244120310376</v>
+        <v>0.03047159455424085</v>
       </c>
       <c r="DJ4">
-        <v>0.006011716237664747</v>
+        <v>0.006011987171467489</v>
       </c>
       <c r="DK4">
-        <v>0.0005431425214723756</v>
+        <v>0.0005347064506404243</v>
       </c>
       <c r="DL4">
-        <v>0.00167120956606892</v>
+        <v>0.001664569591531047</v>
       </c>
       <c r="DM4">
-        <v>0.002788401510235532</v>
+        <v>0.002783540316773042</v>
       </c>
       <c r="DN4">
-        <v>4.044024659874827E-06</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0002098186282948844</v>
+        <v>0.000200851842722057</v>
       </c>
       <c r="DP4">
-        <v>0.008133182321533924</v>
+        <v>0.008136831030965783</v>
       </c>
       <c r="DQ4">
-        <v>0.00216245128548947</v>
+        <v>0.002156593460767935</v>
       </c>
       <c r="DR4">
-        <v>0.0001601185463300615</v>
+        <v>0.0001510726288178162</v>
       </c>
       <c r="DS4">
-        <v>0.006729820966054006</v>
+        <v>0.006731235258531747</v>
       </c>
       <c r="DT4">
-        <v>0.01143829845219704</v>
+        <v>0.01144720953221425</v>
       </c>
       <c r="DU4">
-        <v>0.002167325785682177</v>
+        <v>0.00216147572208776</v>
       </c>
       <c r="DV4">
-        <v>0.005035034599053011</v>
+        <v>0.005033750470787406</v>
       </c>
       <c r="DW4">
-        <v>0.002975381817627535</v>
+        <v>0.002970818332212436</v>
       </c>
       <c r="DX4">
-        <v>0.01127096344558169</v>
+        <v>0.01127960809658947</v>
       </c>
       <c r="DY4">
-        <v>0.001042752141223739</v>
+        <v>0.001035111543489614</v>
       </c>
       <c r="DZ4">
-        <v>0.008377450331190715</v>
+        <v>0.008381487961537345</v>
       </c>
       <c r="EA4">
-        <v>0.01978174278204338</v>
+        <v>0.01980393820496597</v>
       </c>
       <c r="EB4">
-        <v>0.007310144288996273</v>
+        <v>0.007312482566067568</v>
       </c>
       <c r="EC4">
-        <v>0.008443352333796058</v>
+        <v>0.008447494892607018</v>
       </c>
       <c r="ED4">
-        <v>0.0003467282637074142</v>
+        <v>0.000337979464193098</v>
       </c>
       <c r="EE4">
-        <v>0.006348026750960309</v>
+        <v>0.006348833154768564</v>
       </c>
       <c r="EF4">
-        <v>0.001566906161945431</v>
+        <v>0.001560100116642081</v>
       </c>
       <c r="EG4">
-        <v>0.01002148439618529</v>
+        <v>0.01002813964000234</v>
       </c>
       <c r="EH4">
-        <v>0.008576931339076917</v>
+        <v>0.008581286580952684</v>
       </c>
       <c r="EI4">
-        <v>0.001346341253225708</v>
+        <v>0.001339184026831612</v>
       </c>
       <c r="EJ4">
-        <v>0.003179018325678018</v>
+        <v>0.003174779068135012</v>
       </c>
       <c r="EK4">
-        <v>0.004955388795904327</v>
+        <v>0.004953977856442028</v>
       </c>
       <c r="EL4">
-        <v>9.941478393022365E-05</v>
+        <v>9.027221453615511E-05</v>
       </c>
       <c r="EM4">
-        <v>0.001348102553295338</v>
+        <v>0.001340948131224393</v>
       </c>
       <c r="EN4">
-        <v>0.003304605130642916</v>
+        <v>0.003300565831068776</v>
       </c>
       <c r="EO4">
-        <v>0.003621992543190381</v>
+        <v>0.003618458584462953</v>
       </c>
       <c r="EP4">
-        <v>0.0001940856376729027</v>
+        <v>0.000185093802200527</v>
       </c>
       <c r="EQ4">
-        <v>9.219057764462481E-05</v>
+        <v>8.303650594650494E-05</v>
       </c>
       <c r="ER4">
-        <v>0.002669294205526792</v>
+        <v>0.002664243370686505</v>
       </c>
       <c r="ES4">
-        <v>0.009571015378376633</v>
+        <v>0.009576953390237163</v>
       </c>
       <c r="ET4">
-        <v>0.003247725928394277</v>
+        <v>0.003243596066362118</v>
       </c>
       <c r="EU4">
-        <v>0.0005385204812896499</v>
+        <v>0.0005300770512947099</v>
       </c>
       <c r="EV4">
-        <v>0.002464084297414107</v>
+        <v>0.00245870672955096</v>
       </c>
       <c r="EW4">
-        <v>0.0008161215322642169</v>
+        <v>0.0008081200956962419</v>
       </c>
       <c r="EX4">
-        <v>0.001991680878738302</v>
+        <v>0.00198555115519996</v>
       </c>
       <c r="EY4">
-        <v>0.03051824120649574</v>
+        <v>0.03055753116748139</v>
       </c>
       <c r="EZ4">
-        <v>0.003915300754785909</v>
+        <v>0.003912233798258742</v>
       </c>
       <c r="FA4">
-        <v>0.004624700782831041</v>
+        <v>0.004622763325448003</v>
       </c>
       <c r="FB4">
-        <v>0.0005167968204308354</v>
+        <v>0.0005083188022552113</v>
       </c>
       <c r="FC4">
-        <v>0.001940068076697863</v>
+        <v>0.001933856175807638</v>
       </c>
       <c r="FD4">
-        <v>0.001948443477028972</v>
+        <v>0.001942244911361656</v>
       </c>
       <c r="FE4">
-        <v>0.004784384889143927</v>
+        <v>0.004782701679088603</v>
       </c>
       <c r="FF4">
-        <v>0.001003421539668859</v>
+        <v>0.0009957183201712188</v>
       </c>
       <c r="FG4">
-        <v>0.0009545649377373822</v>
+        <v>0.0009467839292802194</v>
       </c>
       <c r="FH4">
-        <v>0.0007935683313726079</v>
+        <v>0.000785530985839173</v>
       </c>
       <c r="FI4">
-        <v>1.833880672499893E-05</v>
+        <v>9.067149026388033E-06</v>
       </c>
       <c r="FJ4">
-        <v>4.696475185668541E-06</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>3.966804156822023E-05</v>
+        <v>3.043034404940621E-05</v>
       </c>
       <c r="FL4">
-        <v>0.001901493675172878</v>
+        <v>0.001895220356532744</v>
       </c>
       <c r="FM4">
-        <v>0.003979519157324692</v>
+        <v>0.003976554448651822</v>
       </c>
       <c r="FN4">
-        <v>0.002338871092463979</v>
+        <v>0.002333294161473917</v>
       </c>
       <c r="FO4">
-        <v>0.000406749716080278</v>
+        <v>0.000398096482081051</v>
       </c>
       <c r="FP4">
-        <v>0.0008136900321680911</v>
+        <v>0.0008056847241916458</v>
       </c>
       <c r="FQ4">
-        <v>1.472945558230831E-05</v>
+        <v>5.452051113376919E-06</v>
       </c>
       <c r="FR4">
-        <v>0.0006634217862274472</v>
+        <v>0.0006551772227555554</v>
       </c>
       <c r="FS4">
-        <v>2.650558004786083E-05</v>
+        <v>1.724692539846586E-05</v>
       </c>
       <c r="FT4">
-        <v>3.857242652490663E-06</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0004327427171078747</v>
+        <v>0.0004241308688871272</v>
       </c>
       <c r="FV4">
-        <v>0.001106681043751078</v>
+        <v>0.001099142232932425</v>
       </c>
       <c r="FW4">
-        <v>0.003735648147683595</v>
+        <v>0.003732295150195137</v>
       </c>
       <c r="FX4">
-        <v>0.00105073474153932</v>
+        <v>0.001043106853616117</v>
       </c>
       <c r="FY4">
-        <v>0.0002038205980577607</v>
+        <v>0.0001948442624852836</v>
       </c>
       <c r="FZ4">
-        <v>0.002730236107936045</v>
+        <v>0.002725282304141559</v>
       </c>
       <c r="GA4">
-        <v>0.003510613638787173</v>
+        <v>0.003506902343758329</v>
       </c>
       <c r="GB4">
-        <v>0.001540394260897321</v>
+        <v>0.001533546003628423</v>
       </c>
       <c r="GC4">
-        <v>0.0001467571458018373</v>
+        <v>0.0001376899544104485</v>
       </c>
       <c r="GD4">
-        <v>0.002989336718179223</v>
+        <v>0.002984795451607662</v>
       </c>
       <c r="GE4">
-        <v>0.001372185954247442</v>
+        <v>0.001365069877510141</v>
       </c>
       <c r="GF4">
-        <v>0.001738841068742636</v>
+        <v>0.001732308776360622</v>
       </c>
       <c r="GG4">
-        <v>2.961621917083557E-05</v>
+        <v>2.036251724781246E-05</v>
       </c>
       <c r="GH4">
-        <v>0.0004635788383269374</v>
+        <v>0.0004550160870488854</v>
       </c>
       <c r="GI4">
-        <v>0.0002360920693335679</v>
+        <v>0.0002271671160528088</v>
       </c>
       <c r="GJ4">
-        <v>0.0009103509359894438</v>
+        <v>0.0009024995304711612</v>
       </c>
       <c r="GK4">
-        <v>4.239574467605614E-05</v>
+        <v>3.316239017698265E-05</v>
       </c>
       <c r="GL4">
-        <v>0.0006127327242235264</v>
+        <v>0.0006044074541687666</v>
       </c>
       <c r="GM4">
-        <v>7.611964300928302E-06</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>2.649329504737516E-06</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.002438780496413757</v>
+        <v>0.002433362640109049</v>
       </c>
       <c r="GP4">
-        <v>0.005344489211286864</v>
+        <v>0.005343697793348079</v>
       </c>
       <c r="GQ4">
-        <v>0.0009382400670920015</v>
+        <v>0.0009304330663502419</v>
       </c>
       <c r="GR4">
-        <v>0.0002073582681976175</v>
+        <v>0.0001983875652657342</v>
       </c>
       <c r="GS4">
-        <v>3.74972614824015E-05</v>
+        <v>2.825610767073142E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.868058295608436E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.905288296224049E-08</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001240300799206929</v>
+        <v>0.0001204354611690334</v>
       </c>
       <c r="E5">
-        <v>6.71463299570654E-05</v>
+        <v>6.351464168623593E-05</v>
       </c>
       <c r="F5">
-        <v>2.914981998136107E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.891434598151163E-05</v>
+        <v>2.525774301599701E-05</v>
       </c>
       <c r="H5">
-        <v>6.089928996105987E-05</v>
+        <v>5.726353067225012E-05</v>
       </c>
       <c r="I5">
-        <v>7.338138595307857E-07</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.602531995778218E-08</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.627755397680346E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.681740398285245E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001077798299310836</v>
+        <v>0.0001041746213544936</v>
       </c>
       <c r="N5">
-        <v>3.673051997651383E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.097733799298089E-05</v>
+        <v>7.309045990405434E-06</v>
       </c>
       <c r="P5">
-        <v>1.023710299345421E-05</v>
+        <v>6.568328600819681E-06</v>
       </c>
       <c r="Q5">
-        <v>7.13645359543682E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>4.218920497302344E-07</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.260200497915367E-05</v>
+        <v>2.894780515594231E-05</v>
       </c>
       <c r="T5">
-        <v>4.191788997319692E-07</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>6.22507699601957E-07</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.120823898643906E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.54057449837551E-05</v>
+        <v>2.174685556293418E-05</v>
       </c>
       <c r="X5">
-        <v>3.056452298045647E-05</v>
+        <v>2.690899538827669E-05</v>
       </c>
       <c r="Y5">
-        <v>3.181057797965973E-05</v>
+        <v>2.815586240602144E-05</v>
       </c>
       <c r="Z5">
-        <v>1.640452098951064E-05</v>
+        <v>1.273976572746755E-05</v>
       </c>
       <c r="AA5">
-        <v>9.921929993655734E-07</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.293820198533289E-05</v>
+        <v>1.927770453704294E-05</v>
       </c>
       <c r="AC5">
-        <v>4.677790597008934E-05</v>
+        <v>4.31329441776666E-05</v>
       </c>
       <c r="AD5">
-        <v>1.21142839922539E-05</v>
+        <v>8.44673290499332E-06</v>
       </c>
       <c r="AE5">
-        <v>2.580445398350015E-07</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.451673497153518E-05</v>
+        <v>4.087029963839595E-05</v>
       </c>
       <c r="AG5">
-        <v>2.6420886983106E-05</v>
+        <v>2.276265910140353E-05</v>
       </c>
       <c r="AH5">
-        <v>0.00011221137992825</v>
+        <v>0.0001086090592665333</v>
       </c>
       <c r="AI5">
-        <v>1.97387219873787E-05</v>
+        <v>1.607613952913082E-05</v>
       </c>
       <c r="AJ5">
-        <v>4.013150797433917E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.912441396858894E-05</v>
+        <v>4.54809813285742E-05</v>
       </c>
       <c r="AL5">
-        <v>2.164126498616218E-05</v>
+        <v>1.797992236098104E-05</v>
       </c>
       <c r="AM5">
-        <v>2.172893398610612E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.300375299168516E-05</v>
+        <v>9.336781546029549E-06</v>
       </c>
       <c r="AO5">
-        <v>3.002536498080122E-08</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.995083398084888E-05</v>
+        <v>2.629490646503273E-05</v>
       </c>
       <c r="AQ5">
-        <v>2.726623998256546E-05</v>
+        <v>2.36085629933277E-05</v>
       </c>
       <c r="AR5">
-        <v>1.391167999110462E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>9.687178993805839E-07</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.850097998817013E-05</v>
+        <v>1.483759092872602E-05</v>
       </c>
       <c r="AU5">
-        <v>1.814281698839914E-05</v>
+        <v>1.447919452433254E-05</v>
       </c>
       <c r="AV5">
-        <v>4.638000997034376E-06</v>
+        <v>9.655778291534214E-07</v>
       </c>
       <c r="AW5">
-        <v>2.324984098513362E-07</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.726623998256546E-05</v>
+        <v>2.36085629933277E-05</v>
       </c>
       <c r="AY5">
-        <v>2.443116898437826E-05</v>
+        <v>2.07716444601453E-05</v>
       </c>
       <c r="AZ5">
-        <v>2.05966879868301E-05</v>
+        <v>1.693466464057966E-05</v>
       </c>
       <c r="BA5">
-        <v>5.680236396367952E-05</v>
+        <v>5.316393482492325E-05</v>
       </c>
       <c r="BB5">
-        <v>4.451673497153518E-05</v>
+        <v>4.087029963839595E-05</v>
       </c>
       <c r="BC5">
-        <v>2.334070798507552E-05</v>
+        <v>1.968047283847776E-05</v>
       </c>
       <c r="BD5">
-        <v>3.569810697717397E-05</v>
+        <v>3.204592479542333E-05</v>
       </c>
       <c r="BE5">
-        <v>1.443409199077057E-05</v>
+        <v>1.076805265628872E-05</v>
       </c>
       <c r="BF5">
-        <v>1.321336899155113E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.771005798867586E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>6.00739649615876E-08</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.006638998716918E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>4.587083397066934E-06</v>
+        <v>9.146270476367797E-07</v>
       </c>
       <c r="BK5">
-        <v>6.554244995809094E-06</v>
+        <v>2.88307058954622E-06</v>
       </c>
       <c r="BL5">
-        <v>9.374053294006057E-07</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.13280599607857E-06</v>
+        <v>2.461356950026837E-06</v>
       </c>
       <c r="BN5">
-        <v>4.215750597304371E-05</v>
+        <v>3.850953319758323E-05</v>
       </c>
       <c r="BO5">
-        <v>1.230921999212926E-05</v>
+        <v>8.641795939105849E-06</v>
       </c>
       <c r="BP5">
-        <v>6.19211049604065E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>3.734782697611911E-06</v>
+        <v>6.177092809891645E-08</v>
       </c>
       <c r="BR5">
-        <v>3.375063997841921E-05</v>
+        <v>3.009718868791098E-05</v>
       </c>
       <c r="BS5">
-        <v>2.138253498632761E-05</v>
+        <v>1.772102375417709E-05</v>
       </c>
       <c r="BT5">
-        <v>5.070078596758098E-05</v>
+        <v>4.70583806042854E-05</v>
       </c>
       <c r="BU5">
-        <v>1.676230598928187E-05</v>
+        <v>1.309778388552944E-05</v>
       </c>
       <c r="BV5">
-        <v>8.881118594321248E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.43141299844531E-05</v>
+        <v>2.065452918923846E-05</v>
       </c>
       <c r="BX5">
-        <v>1.172907799250021E-05</v>
+        <v>8.061275877464539E-06</v>
       </c>
       <c r="BY5">
-        <v>7.201427695395274E-06</v>
+        <v>3.530675039658766E-06</v>
       </c>
       <c r="BZ5">
-        <v>5.386823396555565E-06</v>
+        <v>1.714888214897596E-06</v>
       </c>
       <c r="CA5">
-        <v>1.229454699213864E-05</v>
+        <v>8.62711337713919E-06</v>
       </c>
       <c r="CB5">
-        <v>8.872578494326708E-05</v>
+        <v>8.510815938842946E-05</v>
       </c>
       <c r="CC5">
-        <v>5.978347696177333E-05</v>
+        <v>5.61469905294227E-05</v>
       </c>
       <c r="CD5">
-        <v>9.708655993792106E-06</v>
+        <v>6.039537227303942E-06</v>
       </c>
       <c r="CE5">
-        <v>3.405107397822711E-05</v>
+        <v>3.039781847199686E-05</v>
       </c>
       <c r="CF5">
-        <v>4.696886396996724E-05</v>
+        <v>4.332402661943241E-05</v>
       </c>
       <c r="CG5">
-        <v>1.629174598958276E-05</v>
+        <v>1.26269172352853E-05</v>
       </c>
       <c r="CH5">
-        <v>2.770491998228496E-05</v>
+        <v>2.404752886830453E-05</v>
       </c>
       <c r="CI5">
-        <v>3.359321697851988E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.619791397685439E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.361423499129481E-05</v>
+        <v>9.947661379365028E-06</v>
       </c>
       <c r="CL5">
-        <v>2.485695198410601E-09</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>8.409809994622612E-05</v>
+        <v>8.047745866092381E-05</v>
       </c>
       <c r="CN5">
-        <v>0.1397272199106558</v>
+        <v>0.1398146007132668</v>
       </c>
       <c r="CO5">
-        <v>0.0687141499560629</v>
+        <v>0.06875525356422577</v>
       </c>
       <c r="CP5">
-        <v>0.1147156799266487</v>
+        <v>0.1147867614212587</v>
       </c>
       <c r="CQ5">
-        <v>0.007030992295504254</v>
+        <v>0.00703189874724146</v>
       </c>
       <c r="CR5">
-        <v>0.009974995993621803</v>
+        <v>0.009977820968691134</v>
       </c>
       <c r="CS5">
-        <v>0.00108467369930644</v>
+        <v>0.001081705104631729</v>
       </c>
       <c r="CT5">
-        <v>0.0001542540699013671</v>
+        <v>0.000150679147262863</v>
       </c>
       <c r="CU5">
-        <v>0.02899251998146165</v>
+        <v>0.02900773813508346</v>
       </c>
       <c r="CV5">
-        <v>0.002425468298449111</v>
+        <v>0.002423373461413933</v>
       </c>
       <c r="CW5">
-        <v>0.1015967649350372</v>
+        <v>0.1016592972065196</v>
       </c>
       <c r="CX5">
-        <v>0.005235905796652065</v>
+        <v>0.005235642441661979</v>
       </c>
       <c r="CY5">
-        <v>0.006185692996044753</v>
+        <v>0.006186048590312018</v>
       </c>
       <c r="CZ5">
-        <v>0.03371640297844111</v>
+        <v>0.03373469955202337</v>
       </c>
       <c r="DA5">
-        <v>0.05533414296461833</v>
+        <v>0.05536652720343614</v>
       </c>
       <c r="DB5">
-        <v>0.04858564196893344</v>
+        <v>0.04861362840192466</v>
       </c>
       <c r="DC5">
-        <v>0.01336472899145435</v>
+        <v>0.0133697629589411</v>
       </c>
       <c r="DD5">
-        <v>0.004589175297065596</v>
+        <v>0.004588490486235</v>
       </c>
       <c r="DE5">
-        <v>0.01201065299232017</v>
+        <v>0.01201480454705742</v>
       </c>
       <c r="DF5">
-        <v>0.001016872499349793</v>
+        <v>0.001013859720564802</v>
       </c>
       <c r="DG5">
-        <v>0.006069974996118745</v>
+        <v>0.006070255180262393</v>
       </c>
       <c r="DH5">
-        <v>0.04355275597215156</v>
+        <v>0.0435774626167312</v>
       </c>
       <c r="DI5">
-        <v>0.02362495998489376</v>
+        <v>0.02363668025259356</v>
       </c>
       <c r="DJ5">
-        <v>0.005133480996717557</v>
+        <v>0.00513315089440355</v>
       </c>
       <c r="DK5">
-        <v>0.0001546006699011455</v>
+        <v>0.0001510259731319862</v>
       </c>
       <c r="DL5">
-        <v>0.002686465998282224</v>
+        <v>0.002684541246011913</v>
       </c>
       <c r="DM5">
-        <v>0.003184716497963633</v>
+        <v>0.003183116441348255</v>
       </c>
       <c r="DN5">
-        <v>0.0001181528639244509</v>
+        <v>0.0001145544151585751</v>
       </c>
       <c r="DO5">
-        <v>0.0002415445998455519</v>
+        <v>0.0002380265619584082</v>
       </c>
       <c r="DP5">
-        <v>0.01000845149360041</v>
+        <v>0.01001129827066589</v>
       </c>
       <c r="DQ5">
-        <v>0.001573730498993728</v>
+        <v>0.001571080608701602</v>
       </c>
       <c r="DR5">
-        <v>0.0001888611998792387</v>
+        <v>0.0001853088297213456</v>
       </c>
       <c r="DS5">
-        <v>0.007477553595218713</v>
+        <v>0.007478751058231915</v>
       </c>
       <c r="DT5">
-        <v>0.01161400699257379</v>
+        <v>0.01161790006441389</v>
       </c>
       <c r="DU5">
-        <v>0.001268065899189175</v>
+        <v>0.001265216815986081</v>
       </c>
       <c r="DV5">
-        <v>0.004224220797298955</v>
+        <v>0.004223298156018821</v>
       </c>
       <c r="DW5">
-        <v>0.001954926998749983</v>
+        <v>0.001952525523356037</v>
       </c>
       <c r="DX5">
-        <v>0.01105240499293289</v>
+        <v>0.01105593208475049</v>
       </c>
       <c r="DY5">
-        <v>0.0004682104297006176</v>
+        <v>0.000464840103476829</v>
       </c>
       <c r="DZ5">
-        <v>0.008542503994537765</v>
+        <v>0.008544395455384582</v>
       </c>
       <c r="EA5">
-        <v>0.01954794698750068</v>
+        <v>0.01955701038198871</v>
       </c>
       <c r="EB5">
-        <v>0.006534893995821468</v>
+        <v>0.006535477154431163</v>
       </c>
       <c r="EC5">
-        <v>0.006418172995896101</v>
+        <v>0.006418680090755656</v>
       </c>
       <c r="ED5">
-        <v>4.585727597067801E-05</v>
+        <v>4.221171422991442E-05</v>
       </c>
       <c r="EE5">
-        <v>0.007586117995149296</v>
+        <v>0.007587386206488813</v>
       </c>
       <c r="EF5">
-        <v>0.001857513698812271</v>
+        <v>0.001855048741946168</v>
       </c>
       <c r="EG5">
-        <v>0.01012598999352525</v>
+        <v>0.01012891336708233</v>
       </c>
       <c r="EH5">
-        <v>0.006785269395661373</v>
+        <v>0.006786015716785671</v>
       </c>
       <c r="EI5">
-        <v>0.00163404749895516</v>
+        <v>0.00163143691553341</v>
       </c>
       <c r="EJ5">
-        <v>0.004193730697318451</v>
+        <v>0.004192788186508856</v>
       </c>
       <c r="EK5">
-        <v>0.004346828397220557</v>
+        <v>0.004345985655820065</v>
       </c>
       <c r="EL5">
-        <v>0.0004046523797412577</v>
+        <v>0.0004012406345471501</v>
       </c>
       <c r="EM5">
-        <v>0.001336504699145414</v>
+        <v>0.001333700215558354</v>
       </c>
       <c r="EN5">
-        <v>0.002218538998581425</v>
+        <v>0.00221630931161717</v>
       </c>
       <c r="EO5">
-        <v>0.004797150396932614</v>
+        <v>0.004796601117549159</v>
       </c>
       <c r="EP5">
-        <v>0.0005310545696604338</v>
+        <v>0.0005277251971721577</v>
       </c>
       <c r="EQ5">
-        <v>7.318439995320453E-05</v>
+        <v>6.955664652056022E-05</v>
       </c>
       <c r="ER5">
-        <v>0.002633028198316393</v>
+        <v>0.002631068622154347</v>
       </c>
       <c r="ES5">
-        <v>0.009572018993879473</v>
+        <v>0.009574581360319336</v>
       </c>
       <c r="ET5">
-        <v>0.00349220379776702</v>
+        <v>0.003490804121864268</v>
       </c>
       <c r="EU5">
-        <v>0.0005960147996188971</v>
+        <v>0.0005927277598616957</v>
       </c>
       <c r="EV5">
-        <v>0.002804841398206532</v>
+        <v>0.002802993787811705</v>
       </c>
       <c r="EW5">
-        <v>0.0004448804497155352</v>
+        <v>0.0004414949200084874</v>
       </c>
       <c r="EX5">
-        <v>0.003428463097807777</v>
+        <v>0.003427021883906905</v>
       </c>
       <c r="EY5">
-        <v>0.03407586397821126</v>
+        <v>0.03409439480228563</v>
       </c>
       <c r="EZ5">
-        <v>0.004407724397181619</v>
+        <v>0.004406921339969306</v>
       </c>
       <c r="FA5">
-        <v>0.003454396697791195</v>
+        <v>0.003452972384078555</v>
       </c>
       <c r="FB5">
-        <v>0.0003478840197775565</v>
+        <v>0.0003444352802606542</v>
       </c>
       <c r="FC5">
-        <v>0.001701245998912192</v>
+        <v>0.001698679206838305</v>
       </c>
       <c r="FD5">
-        <v>0.001920549198771965</v>
+        <v>0.001918125320345235</v>
       </c>
       <c r="FE5">
-        <v>0.004539897697097105</v>
+        <v>0.004539180773458583</v>
       </c>
       <c r="FF5">
-        <v>0.001497068199042747</v>
+        <v>0.001494368350113937</v>
       </c>
       <c r="FG5">
-        <v>0.00126707289918981</v>
+        <v>0.001264223168876908</v>
       </c>
       <c r="FH5">
-        <v>0.0007360792995293373</v>
+        <v>0.0007328835358161342</v>
       </c>
       <c r="FI5">
-        <v>5.917156596216461E-06</v>
+        <v>2.245567017594929E-06</v>
       </c>
       <c r="FJ5">
-        <v>2.09973589865739E-05</v>
+        <v>1.733559674619844E-05</v>
       </c>
       <c r="FK5">
-        <v>6.691796395721141E-05</v>
+        <v>6.328612686676623E-05</v>
       </c>
       <c r="FL5">
-        <v>0.001876978298799825</v>
+        <v>0.001874526026458966</v>
       </c>
       <c r="FM5">
-        <v>0.004273582697267393</v>
+        <v>0.004272692223731092</v>
       </c>
       <c r="FN5">
-        <v>0.002031066198701299</v>
+        <v>0.00202871434105467</v>
       </c>
       <c r="FO5">
-        <v>0.0001687839998920764</v>
+        <v>0.0001652185459949734</v>
       </c>
       <c r="FP5">
-        <v>0.001299042799169368</v>
+        <v>0.001296213902729424</v>
       </c>
       <c r="FQ5">
-        <v>0.000202515259870508</v>
+        <v>0.0001989717876744918</v>
       </c>
       <c r="FR5">
-        <v>0.001177377899247163</v>
+        <v>0.001174469717258308</v>
       </c>
       <c r="FS5">
-        <v>3.257856597916866E-06</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>8.693772494441041E-06</v>
+        <v>5.023992357291509E-06</v>
       </c>
       <c r="FU5">
-        <v>0.000538795659655484</v>
+        <v>0.0005354713318150054</v>
       </c>
       <c r="FV5">
-        <v>0.001472349699058552</v>
+        <v>0.00146963374178756</v>
       </c>
       <c r="FW5">
-        <v>0.003512011397754355</v>
+        <v>0.003510624629900174</v>
       </c>
       <c r="FX5">
-        <v>0.0006637877695755618</v>
+        <v>0.0006605448955319539</v>
       </c>
       <c r="FY5">
-        <v>0.0005164689996697601</v>
+        <v>0.0005131301221810801</v>
       </c>
       <c r="FZ5">
-        <v>0.003275068697905861</v>
+        <v>0.00327352752124495</v>
       </c>
       <c r="GA5">
-        <v>0.004540179997096925</v>
+        <v>0.00453946325742527</v>
       </c>
       <c r="GB5">
-        <v>0.002266284798550896</v>
+        <v>0.00226408622616415</v>
       </c>
       <c r="GC5">
-        <v>9.271042994071924E-05</v>
+        <v>8.90954010654995E-05</v>
       </c>
       <c r="GD5">
-        <v>0.002279382698542521</v>
+        <v>0.002277192661684025</v>
       </c>
       <c r="GE5">
-        <v>0.001365208099127061</v>
+        <v>0.001362422320727977</v>
       </c>
       <c r="GF5">
-        <v>0.00156582929899878</v>
+        <v>0.001563174259719731</v>
       </c>
       <c r="GG5">
-        <v>3.149673297986041E-05</v>
+        <v>2.784181288237753E-05</v>
       </c>
       <c r="GH5">
-        <v>0.0003244403297925468</v>
+        <v>0.0003209763126908181</v>
       </c>
       <c r="GI5">
-        <v>9.596116393864064E-05</v>
+        <v>9.234825347415031E-05</v>
       </c>
       <c r="GJ5">
-        <v>0.0007240213995370473</v>
+        <v>0.0007208177780339622</v>
       </c>
       <c r="GK5">
-        <v>4.08993469738482E-05</v>
+        <v>3.725055429201429E-05</v>
       </c>
       <c r="GL5">
-        <v>0.0009676743593812512</v>
+        <v>0.000964629519570153</v>
       </c>
       <c r="GM5">
-        <v>2.745955998244185E-07</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>1.701159798912247E-07</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.002706743498269258</v>
+        <v>0.00270483196026796</v>
       </c>
       <c r="GP5">
-        <v>0.005382227696558503</v>
+        <v>0.005382059695381713</v>
       </c>
       <c r="GQ5">
-        <v>0.000676169059567645</v>
+        <v>0.0006729342540579683</v>
       </c>
       <c r="GR5">
-        <v>0.0005931922996207018</v>
+        <v>0.0005899034205206678</v>
       </c>
       <c r="GS5">
-        <v>0.0003427011797808705</v>
+        <v>0.0003392490627548073</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.096272534584625E-05</v>
+        <v>1.745327557153494E-05</v>
       </c>
       <c r="C6">
-        <v>3.520641222188705E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.99535260582028E-06</v>
+        <v>1.475657609751521E-06</v>
       </c>
       <c r="E6">
-        <v>2.45470530630095E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.735230847437013E-06</v>
+        <v>2.216010582983925E-06</v>
       </c>
       <c r="G6">
-        <v>3.503761223520694E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9.236866671125422E-07</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.17801835467839E-06</v>
+        <v>4.660365467659616E-06</v>
       </c>
       <c r="J6">
-        <v>2.778699780734777E-05</v>
+        <v>2.428192672362255E-05</v>
       </c>
       <c r="K6">
-        <v>1.851132253928471E-05</v>
+        <v>1.500029985966336E-05</v>
       </c>
       <c r="L6">
-        <v>1.794012258435769E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.649743012001375E-05</v>
+        <v>3.299794795264312E-05</v>
       </c>
       <c r="N6">
-        <v>3.229215945184867E-05</v>
+        <v>2.878997903654163E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001225987403258206</v>
+        <v>0.0001191545037540171</v>
       </c>
       <c r="P6">
-        <v>1.167099207905032E-05</v>
+        <v>8.155580405472338E-06</v>
       </c>
       <c r="Q6">
-        <v>8.68416331473885E-06</v>
+        <v>5.166835187932145E-06</v>
       </c>
       <c r="R6">
-        <v>1.34194429410813E-05</v>
+        <v>9.905153134394338E-06</v>
       </c>
       <c r="S6">
-        <v>8.153638656602174E-07</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5.947504030686688E-05</v>
+        <v>5.599030137344296E-05</v>
       </c>
       <c r="U6">
-        <v>1.392327990132389E-05</v>
+        <v>1.040931337395603E-05</v>
       </c>
       <c r="V6">
-        <v>2.717772785542483E-05</v>
+        <v>2.367226584290567E-05</v>
       </c>
       <c r="W6">
-        <v>0.0001149025249331235</v>
+        <v>0.0001114533502018197</v>
       </c>
       <c r="X6">
-        <v>0.0001267152700009882</v>
+        <v>0.0001232736747378132</v>
       </c>
       <c r="Y6">
-        <v>3.837682197171228E-06</v>
+        <v>3.172443994999919E-07</v>
       </c>
       <c r="Z6">
-        <v>1.708300465199226E-09</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.612775593827736E-05</v>
+        <v>2.262162022725405E-05</v>
       </c>
       <c r="AB6">
-        <v>1.884913051262852E-05</v>
+        <v>1.533832458235315E-05</v>
       </c>
       <c r="AC6">
-        <v>2.462112505716453E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.395690989867017E-05</v>
+        <v>1.044296494947839E-05</v>
       </c>
       <c r="AE6">
-        <v>5.258489585056327E-06</v>
+        <v>1.738963426826376E-06</v>
       </c>
       <c r="AF6">
-        <v>5.298877381869355E-08</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.560989297914156E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.613310135966979E-06</v>
+        <v>1.093370008160637E-06</v>
       </c>
       <c r="AI6">
-        <v>2.189166327254442E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.494717682052891E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>9.445508254661663E-08</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.996566263543087E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.286653019561837E-05</v>
+        <v>1.935830196872042E-05</v>
       </c>
       <c r="AN6">
-        <v>1.8262146558947E-05</v>
+        <v>1.475096399934937E-05</v>
       </c>
       <c r="AO6">
-        <v>2.136371831420419E-05</v>
+        <v>1.785452583092947E-05</v>
       </c>
       <c r="AP6">
-        <v>3.533255721193304E-05</v>
+        <v>3.183232762158577E-05</v>
       </c>
       <c r="AQ6">
-        <v>2.017213640823106E-05</v>
+        <v>1.666217936455762E-05</v>
       </c>
       <c r="AR6">
-        <v>9.589376243309143E-06</v>
+        <v>6.072628932604242E-06</v>
       </c>
       <c r="AS6">
-        <v>2.364503813418686E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.182209027803438E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.792964385062724E-06</v>
+        <v>4.275064434023367E-06</v>
       </c>
       <c r="AV6">
-        <v>4.186799669622616E-06</v>
+        <v>6.665858778653714E-07</v>
       </c>
       <c r="AW6">
-        <v>4.900202813328481E-05</v>
+        <v>4.551056935095815E-05</v>
       </c>
       <c r="AX6">
-        <v>3.42511602972653E-05</v>
+        <v>3.075023684504238E-05</v>
       </c>
       <c r="AY6">
-        <v>4.55111364087486E-06</v>
+        <v>1.031133605633831E-06</v>
       </c>
       <c r="AZ6">
-        <v>1.641062270504944E-05</v>
+        <v>1.289825214334392E-05</v>
       </c>
       <c r="BA6">
-        <v>8.311924744111931E-08</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.952366688121556E-06</v>
+        <v>4.320024760088872E-07</v>
       </c>
       <c r="BC6">
-        <v>2.213470525336615E-05</v>
+        <v>1.862600746212954E-05</v>
       </c>
       <c r="BD6">
-        <v>3.403130231461414E-07</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>9.801519226569089E-10</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>2.366393513269571E-05</v>
+        <v>2.015621854854225E-05</v>
       </c>
       <c r="BG6">
-        <v>1.436032886683666E-05</v>
+        <v>1.084664276528734E-05</v>
       </c>
       <c r="BH6">
-        <v>1.773090660086677E-05</v>
+        <v>1.421938317923343E-05</v>
       </c>
       <c r="BI6">
-        <v>0.0001004389920744306</v>
+        <v>9.698053703734661E-05</v>
       </c>
       <c r="BJ6">
-        <v>4.309017859978466E-05</v>
+        <v>3.959492656916013E-05</v>
       </c>
       <c r="BK6">
-        <v>1.10149301308197E-07</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.312041696467723E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.127558674297281E-06</v>
+        <v>6.07306871456802E-07</v>
       </c>
       <c r="BN6">
-        <v>6.850022059469632E-06</v>
+        <v>3.331517083834967E-06</v>
       </c>
       <c r="BO6">
-        <v>4.446961249093452E-06</v>
+        <v>9.269143860550288E-07</v>
       </c>
       <c r="BP6">
-        <v>4.334039858003998E-05</v>
+        <v>3.984530709925841E-05</v>
       </c>
       <c r="BQ6">
-        <v>5.32200058004472E-05</v>
+        <v>4.973125341930949E-05</v>
       </c>
       <c r="BR6">
-        <v>0.0001713950764753364</v>
+        <v>0.0001679821493301332</v>
       </c>
       <c r="BS6">
-        <v>7.450730412068164E-05</v>
+        <v>7.103221041060138E-05</v>
       </c>
       <c r="BT6">
-        <v>3.403130231461414E-07</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.876185073042282E-05</v>
+        <v>2.525740514624223E-05</v>
       </c>
       <c r="BV6">
-        <v>4.586274338100355E-05</v>
+        <v>4.236927032438326E-05</v>
       </c>
       <c r="BW6">
-        <v>8.455362332793371E-06</v>
+        <v>4.93788739931806E-06</v>
       </c>
       <c r="BX6">
-        <v>7.368215418579362E-06</v>
+        <v>3.850042933828685E-06</v>
       </c>
       <c r="BY6">
-        <v>2.356650814038361E-05</v>
+        <v>2.005872904368298E-05</v>
       </c>
       <c r="BZ6">
-        <v>3.185035848671087E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.296250018804545E-05</v>
+        <v>1.945433353883286E-05</v>
       </c>
       <c r="CB6">
-        <v>3.066214758047175E-05</v>
+        <v>2.715892129284988E-05</v>
       </c>
       <c r="CC6">
-        <v>2.560989297914156E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>6.380869496490127E-05</v>
+        <v>6.032673665504734E-05</v>
       </c>
       <c r="CE6">
-        <v>8.311924744111931E-08</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.370777312923649E-05</v>
+        <v>2.020008467306646E-05</v>
       </c>
       <c r="CG6">
-        <v>4.270956662981848E-05</v>
+        <v>3.921407038531486E-05</v>
       </c>
       <c r="CH6">
-        <v>0.0001060478416318403</v>
+        <v>0.00010259298542773</v>
       </c>
       <c r="CI6">
-        <v>1.922947048261616E-05</v>
+        <v>1.571890859169525E-05</v>
       </c>
       <c r="CJ6">
-        <v>8.346156341410741E-05</v>
+        <v>7.999221506825384E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001133505310555902</v>
+        <v>0.0001099003605110302</v>
       </c>
       <c r="CL6">
-        <v>4.482384246298248E-05</v>
+        <v>4.132970281139617E-05</v>
       </c>
       <c r="CM6">
-        <v>0.0004242841665200382</v>
+        <v>0.0004210335018114757</v>
       </c>
       <c r="CN6">
-        <v>0.05624889156143998</v>
+        <v>0.05628145990663339</v>
       </c>
       <c r="CO6">
-        <v>0.01541851478333597</v>
+        <v>0.01542488493854893</v>
       </c>
       <c r="CP6">
-        <v>0.2272135020707442</v>
+        <v>0.2273557672568557</v>
       </c>
       <c r="CQ6">
-        <v>0.00938361925954528</v>
+        <v>0.009386117215872992</v>
       </c>
       <c r="CR6">
-        <v>0.02743931283478334</v>
+        <v>0.02745339595215631</v>
       </c>
       <c r="CS6">
-        <v>0.004497385245114529</v>
+        <v>0.004496748023736321</v>
       </c>
       <c r="CT6">
-        <v>0.0001061406416245175</v>
+        <v>0.0001026858449641104</v>
       </c>
       <c r="CU6">
-        <v>0.01528419579393498</v>
+        <v>0.0152904797654122</v>
       </c>
       <c r="CV6">
-        <v>0.01767346460539948</v>
+        <v>0.01768128161485421</v>
       </c>
       <c r="CW6">
-        <v>0.05936428531560647</v>
+        <v>0.0593988526057981</v>
       </c>
       <c r="CX6">
-        <v>0.03572983718058396</v>
+        <v>0.03574923978675395</v>
       </c>
       <c r="CY6">
-        <v>0.0001936376447201912</v>
+        <v>0.0001902389891804571</v>
       </c>
       <c r="CZ6">
-        <v>0.04984743606657428</v>
+        <v>0.04987589701525462</v>
       </c>
       <c r="DA6">
-        <v>0.00241668620930101</v>
+        <v>0.002414713939046604</v>
       </c>
       <c r="DB6">
-        <v>0.1013529820023083</v>
+        <v>0.1014144907008246</v>
       </c>
       <c r="DC6">
-        <v>2.370777312923649E-05</v>
+        <v>2.020008467306646E-05</v>
       </c>
       <c r="DD6">
-        <v>0.01794609658388628</v>
+        <v>0.01795408852350162</v>
       </c>
       <c r="DE6">
-        <v>0.003564923918694389</v>
+        <v>0.003563688397694512</v>
       </c>
       <c r="DF6">
-        <v>0.000436338415568846</v>
+        <v>0.000433095485285767</v>
       </c>
       <c r="DG6">
-        <v>0.009814325225558578</v>
+        <v>0.009817099537815717</v>
       </c>
       <c r="DH6">
-        <v>0.01570007976111788</v>
+        <v>0.01570663057821451</v>
       </c>
       <c r="DI6">
-        <v>0.03647895712147144</v>
+        <v>0.03649884038905281</v>
       </c>
       <c r="DJ6">
-        <v>0.0007295088424349762</v>
+        <v>0.0007264540204953843</v>
       </c>
       <c r="DK6">
-        <v>2.008024141548243E-07</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001057488466554337</v>
+        <v>0.0001022937986057464</v>
       </c>
       <c r="DM6">
-        <v>0.008569824323761258</v>
+        <v>0.008571800120951212</v>
       </c>
       <c r="DN6">
-        <v>0.001306634796894378</v>
+        <v>0.001303950279041857</v>
       </c>
       <c r="DO6">
-        <v>0.002870414773497612</v>
+        <v>0.002868733631272441</v>
       </c>
       <c r="DP6">
-        <v>0.003560258019062572</v>
+        <v>0.003559019504259193</v>
       </c>
       <c r="DQ6">
-        <v>0.009124546279988544</v>
+        <v>0.009126878006081005</v>
       </c>
       <c r="DR6">
-        <v>4.540933141678196E-05</v>
+        <v>4.191556743527399E-05</v>
       </c>
       <c r="DS6">
-        <v>0.003565460818652023</v>
+        <v>0.003564225642145833</v>
       </c>
       <c r="DT6">
-        <v>0.008186874353979568</v>
+        <v>0.008188604437148419</v>
       </c>
       <c r="DU6">
-        <v>0.002358915513859655</v>
+        <v>0.002356906175917563</v>
       </c>
       <c r="DV6">
-        <v>0.005333230579158569</v>
+        <v>0.005333129665220641</v>
       </c>
       <c r="DW6">
-        <v>3.184707948696961E-07</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01242545201951642</v>
+        <v>0.01242990172154973</v>
       </c>
       <c r="DY6">
-        <v>0.006286975503899235</v>
+        <v>0.006287486545879986</v>
       </c>
       <c r="DZ6">
-        <v>0.000130338609715073</v>
+        <v>0.0001268993393126925</v>
       </c>
       <c r="EA6">
-        <v>0.02536101399878042</v>
+        <v>0.02537376360732888</v>
       </c>
       <c r="EB6">
-        <v>0.000682187546169066</v>
+        <v>0.000679102361239771</v>
       </c>
       <c r="EC6">
-        <v>0.009105128281520804</v>
+        <v>0.009107447548350014</v>
       </c>
       <c r="ED6">
-        <v>0.0009748433730758029</v>
+        <v>0.0009719459663047612</v>
       </c>
       <c r="EE6">
-        <v>0.001548701177793092</v>
+        <v>0.001546171978150568</v>
       </c>
       <c r="EF6">
-        <v>0.008886570298767058</v>
+        <v>0.008888749331192235</v>
       </c>
       <c r="EG6">
-        <v>0.006193581011268928</v>
+        <v>0.006194032128094583</v>
       </c>
       <c r="EH6">
-        <v>0.01118307611755142</v>
+        <v>0.01118672866799135</v>
       </c>
       <c r="EI6">
-        <v>0.002965066366028722</v>
+        <v>0.002963445955557671</v>
       </c>
       <c r="EJ6">
-        <v>0.006237103507834599</v>
+        <v>0.006237582550207933</v>
       </c>
       <c r="EK6">
-        <v>0.008658817316738886</v>
+        <v>0.008660850214928658</v>
       </c>
       <c r="EL6">
-        <v>4.802431621043537E-06</v>
+        <v>1.282612840160402E-06</v>
       </c>
       <c r="EM6">
-        <v>0.003795807400475538</v>
+        <v>0.003794720022348599</v>
       </c>
       <c r="EN6">
-        <v>0.0004321002259032785</v>
+        <v>0.0004288545762502893</v>
       </c>
       <c r="EO6">
-        <v>0.003853307295938262</v>
+        <v>0.003852256811744322</v>
       </c>
       <c r="EP6">
-        <v>0.00405796117978917</v>
+        <v>0.004057042008645768</v>
       </c>
       <c r="EQ6">
-        <v>0.0004473316047013813</v>
+        <v>0.0004440957280308357</v>
       </c>
       <c r="ER6">
-        <v>0.0005863943537280387</v>
+        <v>0.0005832477045544128</v>
       </c>
       <c r="ES6">
-        <v>0.003969603686761396</v>
+        <v>0.00396862782237705</v>
       </c>
       <c r="ET6">
-        <v>0.008717561312103437</v>
+        <v>0.00871963190248398</v>
       </c>
       <c r="EU6">
-        <v>6.902594455321182E-06</v>
+        <v>3.384123211964367E-06</v>
       </c>
       <c r="EV6">
-        <v>0.003769555302547073</v>
+        <v>0.003768451080160952</v>
       </c>
       <c r="EW6">
-        <v>0.0004387695153770097</v>
+        <v>0.0004355281449721307</v>
       </c>
       <c r="EX6">
-        <v>0.0001011127920212615</v>
+        <v>9.765476931766082E-05</v>
       </c>
       <c r="EY6">
-        <v>0.03393504732220955</v>
+        <v>0.03395329832877662</v>
       </c>
       <c r="EZ6">
-        <v>0.01277543799189928</v>
+        <v>0.01278011225710634</v>
       </c>
       <c r="FA6">
-        <v>0.001364705992312021</v>
+        <v>0.001362058734958423</v>
       </c>
       <c r="FB6">
-        <v>0.001847752454195168</v>
+        <v>0.001845415136253752</v>
       </c>
       <c r="FC6">
-        <v>0.0004250685964581394</v>
+        <v>0.0004218184350671108</v>
       </c>
       <c r="FD6">
-        <v>0.0003659894911200296</v>
+        <v>0.0003627014225200145</v>
       </c>
       <c r="FE6">
-        <v>0.003884029993513956</v>
+        <v>0.003882999222071435</v>
       </c>
       <c r="FF6">
-        <v>0.0008696110913796073</v>
+        <v>0.0008666461639162405</v>
       </c>
       <c r="FG6">
-        <v>0.001783376759275008</v>
+        <v>0.001780998135648494</v>
       </c>
       <c r="FH6">
-        <v>0.0008057114864218797</v>
+        <v>0.0008027055587492949</v>
       </c>
       <c r="FI6">
-        <v>4.120398474862287E-05</v>
+        <v>3.770752247041427E-05</v>
       </c>
       <c r="FJ6">
-        <v>1.069947715571187E-05</v>
+        <v>7.183442124366E-06</v>
       </c>
       <c r="FK6">
-        <v>7.030469445230657E-05</v>
+        <v>6.682690420167993E-05</v>
       </c>
       <c r="FL6">
-        <v>0.001098269613336326</v>
+        <v>0.001095451401134281</v>
       </c>
       <c r="FM6">
-        <v>0.004762278924211958</v>
+        <v>0.004761811667832293</v>
       </c>
       <c r="FN6">
-        <v>0.002109069633574816</v>
+        <v>0.00210689998582532</v>
       </c>
       <c r="FO6">
-        <v>0.001062930916124877</v>
+        <v>0.001060090029385484</v>
       </c>
       <c r="FP6">
-        <v>0.0003582488717308364</v>
+        <v>0.0003549558364801722</v>
       </c>
       <c r="FQ6">
-        <v>0.00047161938278485</v>
+        <v>0.0004683990899975463</v>
       </c>
       <c r="FR6">
-        <v>0.001171366307568318</v>
+        <v>0.00116859499674788</v>
       </c>
       <c r="FS6">
-        <v>0.0003931569689762632</v>
+        <v>0.0003898863319750314</v>
       </c>
       <c r="FT6">
-        <v>0.0002235429423603854</v>
+        <v>0.0002201634750998401</v>
       </c>
       <c r="FU6">
-        <v>0.000308418595662908</v>
+        <v>0.0003050935875738275</v>
       </c>
       <c r="FV6">
-        <v>0.001162433508273199</v>
+        <v>0.001159656465858016</v>
       </c>
       <c r="FW6">
-        <v>0.002635689992019578</v>
+        <v>0.002633858242209968</v>
       </c>
       <c r="FX6">
-        <v>0.001814184056844027</v>
+        <v>0.001811825200251231</v>
       </c>
       <c r="FY6">
-        <v>1.495094282023174E-05</v>
+        <v>1.143763567713877E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.001545626878035682</v>
+        <v>0.001543095705815498</v>
       </c>
       <c r="GA6">
-        <v>0.003480955425320283</v>
+        <v>0.003479666027214306</v>
       </c>
       <c r="GB6">
-        <v>0.00443331305017042</v>
+        <v>0.004432634717843256</v>
       </c>
       <c r="GC6">
-        <v>0.0009424580956313021</v>
+        <v>0.0009395399093397659</v>
       </c>
       <c r="GD6">
-        <v>0.001398183289670351</v>
+        <v>0.001395557512515209</v>
       </c>
       <c r="GE6">
-        <v>0.003511346722922128</v>
+        <v>0.003510076824929819</v>
       </c>
       <c r="GF6">
-        <v>0.003568394518420527</v>
+        <v>0.003567161224278155</v>
       </c>
       <c r="GG6">
-        <v>0.0007292655424541748</v>
+        <v>0.0007262105644048524</v>
       </c>
       <c r="GH6">
-        <v>0.0002239775623260899</v>
+        <v>0.0002205983739328323</v>
       </c>
       <c r="GI6">
-        <v>0.0002336462615631397</v>
+        <v>0.0002302732769436276</v>
       </c>
       <c r="GJ6">
-        <v>0.001151562109131053</v>
+        <v>0.001148778091248031</v>
       </c>
       <c r="GK6">
-        <v>0.0007363443718955894</v>
+        <v>0.0007332939358694659</v>
       </c>
       <c r="GL6">
-        <v>0.001911122249194703</v>
+        <v>0.001908825591518007</v>
       </c>
       <c r="GM6">
-        <v>0.0007500556408136429</v>
+        <v>0.0007470140024145885</v>
       </c>
       <c r="GN6">
-        <v>0.001827822955767791</v>
+        <v>0.001825472850366958</v>
       </c>
       <c r="GO6">
-        <v>0.0004328918258408139</v>
+        <v>0.0004296466841058796</v>
       </c>
       <c r="GP6">
-        <v>0.008019484367188193</v>
+        <v>0.008021107047119043</v>
       </c>
       <c r="GQ6">
-        <v>0.003433121329094838</v>
+        <v>0.003431801238968866</v>
       </c>
       <c r="GR6">
-        <v>1.664687468640696E-05</v>
+        <v>1.313465571219045E-05</v>
       </c>
       <c r="GS6">
-        <v>0.0005030448303050903</v>
+        <v>0.0004998447011780151</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.620410088702597E-05</v>
+        <v>2.262076100226829E-05</v>
       </c>
       <c r="C2">
-        <v>4.281362644926929E-05</v>
+        <v>3.56406104028766E-05</v>
       </c>
       <c r="D2">
-        <v>5.616834490133526E-05</v>
+        <v>4.540350321213364E-05</v>
       </c>
       <c r="E2">
-        <v>6.603929423547336E-05</v>
+        <v>5.168032621531762E-05</v>
       </c>
       <c r="F2">
-        <v>7.591024356961146E-05</v>
+        <v>5.795714921850161E-05</v>
       </c>
       <c r="G2">
-        <v>8.423637985145662E-05</v>
+        <v>6.268813897174017E-05</v>
       </c>
       <c r="H2">
-        <v>8.783464867326037E-05</v>
+        <v>6.268813897174017E-05</v>
       </c>
       <c r="I2">
-        <v>9.143291749506412E-05</v>
+        <v>6.268813897174017E-05</v>
       </c>
       <c r="J2">
-        <v>9.146390216911298E-05</v>
+        <v>6.268813897174017E-05</v>
       </c>
       <c r="K2">
-        <v>9.317180162692649E-05</v>
+        <v>6.268813897174017E-05</v>
       </c>
       <c r="L2">
-        <v>9.748063377278329E-05</v>
+        <v>6.339917155324418E-05</v>
       </c>
       <c r="M2">
-        <v>9.862312001145719E-05</v>
+        <v>6.339917155324418E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001154978165826767</v>
+        <v>7.668436708229734E-05</v>
       </c>
       <c r="O2">
-        <v>0.0001218237844968149</v>
+        <v>7.941386755260856E-05</v>
       </c>
       <c r="P2">
-        <v>0.0001321331808457947</v>
+        <v>8.612942712192633E-05</v>
       </c>
       <c r="Q2">
-        <v>0.0001450592052833491</v>
+        <v>9.54633428062808E-05</v>
       </c>
       <c r="R2">
-        <v>0.0001626943248803094</v>
+        <v>0.0001095094635459732</v>
       </c>
       <c r="S2">
-        <v>0.0001676326357474745</v>
+        <v>0.0001108503905578014</v>
       </c>
       <c r="T2">
-        <v>0.0001708112113550713</v>
+        <v>0.0001108503905578014</v>
       </c>
       <c r="U2">
-        <v>0.000171413317105453</v>
+        <v>0.0001108503905578014</v>
       </c>
       <c r="V2">
-        <v>0.0001757984882538939</v>
+        <v>0.0001116378125563207</v>
       </c>
       <c r="W2">
-        <v>0.0001766834431138502</v>
+        <v>0.0001116378125563207</v>
       </c>
       <c r="X2">
-        <v>0.0001770135789250255</v>
+        <v>0.0001116378125563207</v>
       </c>
       <c r="Y2">
-        <v>0.0001796454390141157</v>
+        <v>0.0001116378125563207</v>
       </c>
       <c r="Z2">
-        <v>0.0001829048139244477</v>
+        <v>0.0001116378125563207</v>
       </c>
       <c r="AA2">
-        <v>0.0001913369372098806</v>
+        <v>0.0001164748593071777</v>
       </c>
       <c r="AB2">
-        <v>0.0002003090485135924</v>
+        <v>0.000121852250685489</v>
       </c>
       <c r="AC2">
-        <v>0.0002169185740758358</v>
+        <v>0.0001348721000860973</v>
       </c>
       <c r="AD2">
-        <v>0.0002238312788098353</v>
+        <v>0.0001381887248584481</v>
       </c>
       <c r="AE2">
-        <v>0.0002320520980881154</v>
+        <v>0.0001428143280565602</v>
       </c>
       <c r="AF2">
-        <v>0.0002467783795866097</v>
+        <v>0.0001539496896952451</v>
       </c>
       <c r="AG2">
-        <v>0.0002564205969130051</v>
+        <v>0.0001599976296356075</v>
       </c>
       <c r="AH2">
-        <v>0.0002646414161912852</v>
+        <v>0.0001646232328337197</v>
       </c>
       <c r="AI2">
-        <v>0.0002667658251631978</v>
+        <v>0.0001646232328337197</v>
       </c>
       <c r="AJ2">
-        <v>0.0002743688224205643</v>
+        <v>0.0001686306060000106</v>
       </c>
       <c r="AK2">
-        <v>0.0002766563489979985</v>
+        <v>0.0001686306060000106</v>
       </c>
       <c r="AL2">
-        <v>0.0002795311713953132</v>
+        <v>0.0001686306060000106</v>
       </c>
       <c r="AM2">
-        <v>0.0002803820173641148</v>
+        <v>0.0001686306060000106</v>
       </c>
       <c r="AN2">
-        <v>0.0002872725967973655</v>
+        <v>0.0001719250908600192</v>
       </c>
       <c r="AO2">
-        <v>0.0002921298766617876</v>
+        <v>0.000173184933356067</v>
       </c>
       <c r="AP2">
-        <v>0.0002997096703183685</v>
+        <v>0.0001771690875978678</v>
       </c>
       <c r="AQ2">
-        <v>0.0003093257536438792</v>
+        <v>0.0001831908762783987</v>
       </c>
       <c r="AR2">
-        <v>0.0003293426833214654</v>
+        <v>0.0001996203800508935</v>
       </c>
       <c r="AS2">
-        <v>0.0003480705439554158</v>
+        <v>0.0002147599634759586</v>
       </c>
       <c r="AT2">
-        <v>0.0003757512128924246</v>
+        <v>0.0002388582676567252</v>
       </c>
       <c r="AU2">
-        <v>0.0003910119704090112</v>
+        <v>0.0002505284582825417</v>
       </c>
       <c r="AV2">
-        <v>0.0004166141722756625</v>
+        <v>0.0002725469227691095</v>
       </c>
       <c r="AW2">
-        <v>0.0004328925978266979</v>
+        <v>0.0002852354534993953</v>
       </c>
       <c r="AX2">
-        <v>0.0004440413582040907</v>
+        <v>0.0002927909314148217</v>
       </c>
       <c r="AY2">
-        <v>0.0004558097736024593</v>
+        <v>0.0003009664735726483</v>
       </c>
       <c r="AZ2">
-        <v>0.0004593920860237229</v>
+        <v>0.0003009664735726483</v>
       </c>
       <c r="BA2">
-        <v>0.0004593939924727874</v>
+        <v>0.0003009664735726483</v>
       </c>
       <c r="BB2">
-        <v>0.000459439207914318</v>
+        <v>0.0003009664735726483</v>
       </c>
       <c r="BC2">
-        <v>0.0004620710680034082</v>
+        <v>0.0003009664735726483</v>
       </c>
       <c r="BD2">
-        <v>0.0004667865661630309</v>
+        <v>0.0003020844407309731</v>
       </c>
       <c r="BE2">
-        <v>0.0004822237666855902</v>
+        <v>0.0003139311908860791</v>
       </c>
       <c r="BF2">
-        <v>0.0005002034392942139</v>
+        <v>0.000328322092180938</v>
       </c>
       <c r="BG2">
-        <v>0.0005217609330239492</v>
+        <v>0.0003462931773971861</v>
       </c>
       <c r="BH2">
-        <v>0.000541488961691756</v>
+        <v>0.0003624335893690924</v>
       </c>
       <c r="BI2">
-        <v>0.000563387799433046</v>
+        <v>0.0003807462440211682</v>
       </c>
       <c r="BJ2">
-        <v>0.0005854583101801472</v>
+        <v>0.0003992306850522543</v>
       </c>
       <c r="BK2">
-        <v>0.0006083972659566458</v>
+        <v>0.0004185841446355851</v>
       </c>
       <c r="BL2">
-        <v>0.0006198203233433238</v>
+        <v>0.0004264141007065943</v>
       </c>
       <c r="BM2">
-        <v>0.0006277292156110449</v>
+        <v>0.0004307275708969213</v>
       </c>
       <c r="BN2">
-        <v>0.0006355354728752919</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BO2">
-        <v>0.000637992149758452</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BP2">
-        <v>0.0006406240098475423</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BQ2">
-        <v>0.0006406754189942825</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BR2">
-        <v>0.0006407002937551245</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BS2">
-        <v>0.0006413906497084935</v>
+        <v>0.0004349383383034108</v>
       </c>
       <c r="BT2">
-        <v>0.0006490715839684982</v>
+        <v>0.0004390236999420935</v>
       </c>
       <c r="BU2">
-        <v>0.0006553975518826363</v>
+        <v>0.0004417532004124047</v>
       </c>
       <c r="BV2">
-        <v>0.0006696734873658861</v>
+        <v>0.0004524379186264292</v>
       </c>
       <c r="BW2">
-        <v>0.0006852216558922018</v>
+        <v>0.0004643957100687847</v>
       </c>
       <c r="BX2">
-        <v>0.0006973699083034281</v>
+        <v>0.0004729513400845977</v>
       </c>
       <c r="BY2">
-        <v>0.0007082754986725895</v>
+        <v>0.0004802634874018293</v>
       </c>
       <c r="BZ2">
-        <v>0.0007217334431281497</v>
+        <v>0.0004901296743852413</v>
       </c>
       <c r="CA2">
-        <v>0.0007345281635612594</v>
+        <v>0.0004993321993517219</v>
       </c>
       <c r="CB2">
-        <v>0.0007424133888281794</v>
+        <v>0.0005036219869115127</v>
       </c>
       <c r="CC2">
-        <v>0.0007473516996953445</v>
+        <v>0.0005049629139233409</v>
       </c>
       <c r="CD2">
-        <v>0.0007473699785679632</v>
+        <v>0.0005049629139233409</v>
       </c>
       <c r="CE2">
-        <v>0.0007475898845754072</v>
+        <v>0.0005049629139233409</v>
       </c>
       <c r="CF2">
-        <v>0.0007556020818466253</v>
+        <v>0.0005093797573399973</v>
       </c>
       <c r="CG2">
-        <v>0.0007605591246144244</v>
+        <v>0.0005107394286230445</v>
       </c>
       <c r="CH2">
-        <v>0.000761790551256109</v>
+        <v>0.0005107394286230445</v>
       </c>
       <c r="CI2">
-        <v>0.0007700113705343891</v>
+        <v>0.0005153650318211567</v>
       </c>
       <c r="CJ2">
-        <v>0.0007781275433091268</v>
+        <v>0.0005198859194069646</v>
       </c>
       <c r="CK2">
-        <v>0.0007873203416203091</v>
+        <v>0.0005254841435348907</v>
       </c>
       <c r="CL2">
-        <v>0.0008021874661235709</v>
+        <v>0.0005367604411913473</v>
       </c>
       <c r="CM2">
-        <v>0.0008678474283462037</v>
+        <v>0.0005988631202595509</v>
       </c>
       <c r="CN2">
-        <v>0.01527936491618551</v>
+        <v>0.0150162973581609</v>
       </c>
       <c r="CO2">
-        <v>0.07454198692226408</v>
+        <v>0.07431445587409923</v>
       </c>
       <c r="CP2">
-        <v>0.2467374527511934</v>
+        <v>0.2466200392905058</v>
       </c>
       <c r="CQ2">
-        <v>0.2872075541211328</v>
+        <v>0.2871132665518104</v>
       </c>
       <c r="CR2">
-        <v>0.2939114413480638</v>
+        <v>0.2938179803942484</v>
       </c>
       <c r="CS2">
-        <v>0.2976713606753395</v>
+        <v>0.2975767821346983</v>
       </c>
       <c r="CT2">
-        <v>0.3020643274240443</v>
+        <v>0.3019690493623699</v>
       </c>
       <c r="CU2">
-        <v>0.3052079703304587</v>
+        <v>0.3051111676917683</v>
       </c>
       <c r="CV2">
-        <v>0.3480391397803219</v>
+        <v>0.3479670222871141</v>
       </c>
       <c r="CW2">
-        <v>0.3610074342193071</v>
+        <v>0.3609402803687519</v>
       </c>
       <c r="CX2">
-        <v>0.4435717310141626</v>
+        <v>0.44355550214645</v>
       </c>
       <c r="CY2">
-        <v>0.4436635412172705</v>
+        <v>0.4436437723360752</v>
       </c>
       <c r="CZ2">
-        <v>0.4825782625345593</v>
+        <v>0.4825805923686083</v>
       </c>
       <c r="DA2">
-        <v>0.4865015693673658</v>
+        <v>0.4865028895160268</v>
       </c>
       <c r="DB2">
-        <v>0.5905513628895194</v>
+        <v>0.5906177970863545</v>
       </c>
       <c r="DC2">
-        <v>0.5990974031788084</v>
+        <v>0.5991658805527449</v>
       </c>
       <c r="DD2">
-        <v>0.6184427538336612</v>
+        <v>0.6185204062710248</v>
       </c>
       <c r="DE2">
-        <v>0.6185284355665616</v>
+        <v>0.6186025439431885</v>
       </c>
       <c r="DF2">
-        <v>0.6264923948361468</v>
+        <v>0.6265681619823967</v>
       </c>
       <c r="DG2">
-        <v>0.6385756902451742</v>
+        <v>0.6386558365789341</v>
       </c>
       <c r="DH2">
-        <v>0.6390334011606681</v>
+        <v>0.639110249122513</v>
       </c>
       <c r="DI2">
-        <v>0.7053131034042794</v>
+        <v>0.7054301219699122</v>
       </c>
       <c r="DJ2">
-        <v>0.7084178617093776</v>
+        <v>0.7085333300185251</v>
       </c>
       <c r="DK2">
-        <v>0.7123894778438195</v>
+        <v>0.7125039683711391</v>
       </c>
       <c r="DL2">
-        <v>0.7124173959597645</v>
+        <v>0.7125283042791384</v>
       </c>
       <c r="DM2">
-        <v>0.7187517821741877</v>
+        <v>0.7188632730898553</v>
       </c>
       <c r="DN2">
-        <v>0.7208875770464858</v>
+        <v>0.7209968778002648</v>
       </c>
       <c r="DO2">
-        <v>0.7217101471343303</v>
+        <v>0.721816390469927</v>
       </c>
       <c r="DP2">
-        <v>0.7223024583043804</v>
+        <v>0.7224054921583415</v>
       </c>
       <c r="DQ2">
-        <v>0.7323357376440135</v>
+        <v>0.7324417968507415</v>
       </c>
       <c r="DR2">
-        <v>0.7324067756464182</v>
+        <v>0.7325092811216604</v>
       </c>
       <c r="DS2">
-        <v>0.7327375132576139</v>
+        <v>0.7328366365075151</v>
       </c>
       <c r="DT2">
-        <v>0.7445009676558145</v>
+        <v>0.7446042588695776</v>
       </c>
       <c r="DU2">
-        <v>0.7492251425157309</v>
+        <v>0.7493279529389648</v>
       </c>
       <c r="DV2">
-        <v>0.7567318713698385</v>
+        <v>0.7568360386068078</v>
       </c>
       <c r="DW2">
-        <v>0.7573837354319046</v>
+        <v>0.7574847325160882</v>
       </c>
       <c r="DX2">
-        <v>0.7674619197730578</v>
+        <v>0.7675659718653617</v>
       </c>
       <c r="DY2">
-        <v>0.7746858535175927</v>
+        <v>0.7747910756651717</v>
       </c>
       <c r="DZ2">
-        <v>0.7749356908760499</v>
+        <v>0.775037477371598</v>
       </c>
       <c r="EA2">
-        <v>0.7993770317034052</v>
+        <v>0.7994913586645587</v>
       </c>
       <c r="EB2">
-        <v>0.8052515799022626</v>
+        <v>0.8053661857817578</v>
       </c>
       <c r="EC2">
-        <v>0.8158764712619221</v>
+        <v>0.8159944931959543</v>
       </c>
       <c r="ED2">
-        <v>0.8201202648055773</v>
+        <v>0.820237488704291</v>
       </c>
       <c r="EE2">
-        <v>0.8201716652603173</v>
+        <v>0.8202853224588691</v>
       </c>
       <c r="EF2">
-        <v>0.8295316495771589</v>
+        <v>0.8296478874830879</v>
       </c>
       <c r="EG2">
-        <v>0.8306459573148789</v>
+        <v>0.8307593304667575</v>
       </c>
       <c r="EH2">
-        <v>0.8442130952741354</v>
+        <v>0.844331827546134</v>
       </c>
       <c r="EI2">
-        <v>0.8496952759597107</v>
+        <v>0.8498140280297548</v>
       </c>
       <c r="EJ2">
-        <v>0.8531066910751893</v>
+        <v>0.8532240954055238</v>
       </c>
       <c r="EK2">
-        <v>0.8617981123693996</v>
+        <v>0.861917655886744</v>
       </c>
       <c r="EL2">
-        <v>0.8641542137491552</v>
+        <v>0.8642717125954724</v>
       </c>
       <c r="EM2">
-        <v>0.8648004809110318</v>
+        <v>0.8649148059083591</v>
       </c>
       <c r="EN2">
-        <v>0.8655481780363419</v>
+        <v>0.8656593961692315</v>
       </c>
       <c r="EO2">
-        <v>0.8690072987534354</v>
+        <v>0.8691172006514908</v>
       </c>
       <c r="EP2">
-        <v>0.8719868544542954</v>
+        <v>0.8720951234118135</v>
       </c>
       <c r="EQ2">
-        <v>0.872404738008441</v>
+        <v>0.8725096822919746</v>
       </c>
       <c r="ER2">
-        <v>0.8729139554656783</v>
+        <v>0.873015635392321</v>
       </c>
       <c r="ES2">
-        <v>0.876937032101862</v>
+        <v>0.8770377682312959</v>
       </c>
       <c r="ET2">
-        <v>0.885928764406238</v>
+        <v>0.886031838048678</v>
       </c>
       <c r="EU2">
-        <v>0.8877259009670723</v>
+        <v>0.8878265607969924</v>
       </c>
       <c r="EV2">
-        <v>0.8901554334493136</v>
+        <v>0.8902540971022546</v>
       </c>
       <c r="EW2">
-        <v>0.8908402067324936</v>
+        <v>0.8909357219659648</v>
       </c>
       <c r="EX2">
-        <v>0.891493941754623</v>
+        <v>0.8915862880708942</v>
       </c>
       <c r="EY2">
-        <v>0.9060332102467868</v>
+        <v>0.9061315576801408</v>
       </c>
       <c r="EZ2">
-        <v>0.9320372551270408</v>
+        <v>0.9321491750389054</v>
       </c>
       <c r="FA2">
-        <v>0.9320703813581622</v>
+        <v>0.9321787225015307</v>
       </c>
       <c r="FB2">
-        <v>0.9360841740940318</v>
+        <v>0.9361915653090849</v>
       </c>
       <c r="FC2">
-        <v>0.9360841887599083</v>
+        <v>0.9361915653090849</v>
       </c>
       <c r="FD2">
-        <v>0.9362281486047814</v>
+        <v>0.9363320195802038</v>
       </c>
       <c r="FE2">
-        <v>0.9412286231740508</v>
+        <v>0.9413321958278288</v>
       </c>
       <c r="FF2">
-        <v>0.9454801243179669</v>
+        <v>0.9455829040265412</v>
       </c>
       <c r="FG2">
-        <v>0.9474293597839498</v>
+        <v>0.9475298261264278</v>
       </c>
       <c r="FH2">
-        <v>0.9491664707427522</v>
+        <v>0.9492644836316818</v>
       </c>
       <c r="FI2">
-        <v>0.9495933843372035</v>
+        <v>0.9496880785156053</v>
       </c>
       <c r="FJ2">
-        <v>0.9495968293893201</v>
+        <v>0.9496880785156053</v>
       </c>
       <c r="FK2">
-        <v>0.9496827722982293</v>
+        <v>0.949770477536259</v>
       </c>
       <c r="FL2">
-        <v>0.9504687625248356</v>
+        <v>0.9505533861872689</v>
       </c>
       <c r="FM2">
-        <v>0.9540140564448462</v>
+        <v>0.9540974207814021</v>
       </c>
       <c r="FN2">
-        <v>0.9577897078726544</v>
+        <v>0.9578719650118954</v>
       </c>
       <c r="FO2">
-        <v>0.9602572876561836</v>
+        <v>0.96033757374496</v>
       </c>
       <c r="FP2">
-        <v>0.9602593998087551</v>
+        <v>0.96033757374496</v>
       </c>
       <c r="FQ2">
-        <v>0.961054893235683</v>
+        <v>0.9611299918722243</v>
       </c>
       <c r="FR2">
-        <v>0.9612686516629189</v>
+        <v>0.9613402908208304</v>
       </c>
       <c r="FS2">
-        <v>0.9618425991823474</v>
+        <v>0.9619110167312315</v>
       </c>
       <c r="FT2">
-        <v>0.9620912803907654</v>
+        <v>0.9621562615240948</v>
       </c>
       <c r="FU2">
-        <v>0.9621450705425862</v>
+        <v>0.9622064865539145</v>
       </c>
       <c r="FV2">
-        <v>0.9628129235651935</v>
+        <v>0.9628711799828779</v>
       </c>
       <c r="FW2">
-        <v>0.9646069571259227</v>
+        <v>0.9646627976818597</v>
       </c>
       <c r="FX2">
-        <v>0.9675130224242949</v>
+        <v>0.9675671815064848</v>
       </c>
       <c r="FY2">
-        <v>0.9675411343412466</v>
+        <v>0.9675917113434772</v>
       </c>
       <c r="FZ2">
-        <v>0.9690084770909171</v>
+        <v>0.9690564224841305</v>
       </c>
       <c r="GA2">
-        <v>0.9736649476485416</v>
+        <v>0.9737123675391682</v>
       </c>
       <c r="GB2">
-        <v>0.9776991097851007</v>
+        <v>0.9777455931994052</v>
       </c>
       <c r="GC2">
-        <v>0.9791566509344394</v>
+        <v>0.9792004962667301</v>
       </c>
       <c r="GD2">
-        <v>0.9798454831577568</v>
+        <v>0.9798861827511101</v>
       </c>
       <c r="GE2">
-        <v>0.9832253848721687</v>
+        <v>0.9832647159142988</v>
       </c>
       <c r="GF2">
-        <v>0.9861670879717472</v>
+        <v>0.986204761075406</v>
       </c>
       <c r="GG2">
-        <v>0.9879057252306013</v>
+        <v>0.9879409458886833</v>
       </c>
       <c r="GH2">
-        <v>0.9879154551909306</v>
+        <v>0.9879470816295723</v>
       </c>
       <c r="GI2">
-        <v>0.9880188352244301</v>
+        <v>0.9880469292903284</v>
       </c>
       <c r="GJ2">
-        <v>0.9887806146802168</v>
+        <v>0.988805611181677</v>
       </c>
       <c r="GK2">
-        <v>0.9895658147067964</v>
+        <v>0.9895877291108104</v>
       </c>
       <c r="GL2">
-        <v>0.9900264835923903</v>
+        <v>0.9900451015779388</v>
       </c>
       <c r="GM2">
-        <v>0.9905396498097613</v>
+        <v>0.990555006046188</v>
       </c>
       <c r="GN2">
-        <v>0.9907626056073084</v>
+        <v>0.9907745084390673</v>
       </c>
       <c r="GO2">
-        <v>0.9908911845116609</v>
+        <v>0.9908995716120615</v>
       </c>
       <c r="GP2">
-        <v>0.9952671796597912</v>
+        <v>0.9952748560310795</v>
       </c>
       <c r="GQ2">
-        <v>0.9993106494966653</v>
+        <v>0.9993173955384556</v>
       </c>
       <c r="GR2">
-        <v>0.9994554893115681</v>
+        <v>0.9994587303607383</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.228014701135084E-05</v>
+        <v>6.38857280869746E-06</v>
       </c>
       <c r="C3">
-        <v>1.431418993041261E-05</v>
+        <v>6.38857280869746E-06</v>
       </c>
       <c r="D3">
-        <v>2.529640949341033E-05</v>
+        <v>1.147788439754305E-05</v>
       </c>
       <c r="E3">
-        <v>2.690313002947602E-05</v>
+        <v>1.147788439754305E-05</v>
       </c>
       <c r="F3">
-        <v>3.887284755317942E-05</v>
+        <v>1.755570871616845E-05</v>
       </c>
       <c r="G3">
-        <v>5.932653673929031E-05</v>
+        <v>3.212622296540175E-05</v>
       </c>
       <c r="H3">
-        <v>6.098147067343751E-05</v>
+        <v>3.212622296540175E-05</v>
       </c>
       <c r="I3">
-        <v>6.695690643566417E-05</v>
+        <v>3.220360570045943E-05</v>
       </c>
       <c r="J3">
-        <v>7.285503890096686E-05</v>
+        <v>3.220360570045943E-05</v>
       </c>
       <c r="K3">
-        <v>7.412020115062377E-05</v>
+        <v>3.220360570045943E-05</v>
       </c>
       <c r="L3">
-        <v>8.409520775370031E-05</v>
+        <v>3.62846693008537E-05</v>
       </c>
       <c r="M3">
-        <v>9.639648876421019E-05</v>
+        <v>4.269439782635379E-05</v>
       </c>
       <c r="N3">
-        <v>0.000105017969421146</v>
+        <v>4.542054457518183E-05</v>
       </c>
       <c r="O3">
-        <v>0.0001169876869448493</v>
+        <v>5.149836889380723E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001178370042710535</v>
+        <v>5.149836889380723E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001193327056115368</v>
+        <v>5.149836889380723E-05</v>
       </c>
       <c r="R3">
-        <v>0.0001620680479110206</v>
+        <v>8.83734332480019E-05</v>
       </c>
       <c r="S3">
-        <v>0.000205846706168989</v>
+        <v>0.0001262928856892438</v>
       </c>
       <c r="T3">
-        <v>0.0002356421049833765</v>
+        <v>0.0001502147092605328</v>
       </c>
       <c r="U3">
-        <v>0.0002951034546173024</v>
+        <v>0.000203832968868185</v>
       </c>
       <c r="V3">
-        <v>0.0002959237846846599</v>
+        <v>0.000203832968868185</v>
       </c>
       <c r="W3">
-        <v>0.0003016543794566293</v>
+        <v>0.000203832968868185</v>
       </c>
       <c r="X3">
-        <v>0.0003105575971023542</v>
+        <v>0.0002068411421233452</v>
       </c>
       <c r="Y3">
-        <v>0.000322837744113705</v>
+        <v>0.0002132297149320427</v>
       </c>
       <c r="Z3">
-        <v>0.0004415746893889482</v>
+        <v>0.0003261844827536969</v>
       </c>
       <c r="AA3">
-        <v>0.0004775130079588979</v>
+        <v>0.0003562555386454755</v>
       </c>
       <c r="AB3">
-        <v>0.0004813764118051661</v>
+        <v>0.0003562555386454755</v>
       </c>
       <c r="AC3">
-        <v>0.0005844205977048524</v>
+        <v>0.0004535014209550787</v>
       </c>
       <c r="AD3">
-        <v>0.0006232685021590244</v>
+        <v>0.0004864850526691771</v>
       </c>
       <c r="AE3">
-        <v>0.0006271945187028012</v>
+        <v>0.0004864850526691771</v>
       </c>
       <c r="AF3">
-        <v>0.000648198546867013</v>
+        <v>0.0005016064714338568</v>
       </c>
       <c r="AG3">
-        <v>0.0006646782732112551</v>
+        <v>0.0005121989391319336</v>
       </c>
       <c r="AH3">
-        <v>0.0006678402957854326</v>
+        <v>0.0005121989391319336</v>
       </c>
       <c r="AI3">
-        <v>0.0006942727287336384</v>
+        <v>0.0005327543409982503</v>
       </c>
       <c r="AJ3">
-        <v>0.0007106239110829955</v>
+        <v>0.0005432181326075282</v>
       </c>
       <c r="AK3">
-        <v>0.0007168984848333189</v>
+        <v>0.0005435949607297774</v>
       </c>
       <c r="AL3">
-        <v>0.000716935298081854</v>
+        <v>0.0005435949607297774</v>
       </c>
       <c r="AM3">
-        <v>0.0007404839271448117</v>
+        <v>0.0005612635952667528</v>
       </c>
       <c r="AN3">
-        <v>0.0007431069460404371</v>
+        <v>0.0005612635952667528</v>
       </c>
       <c r="AO3">
-        <v>0.0007543206315942244</v>
+        <v>0.0005665846107046302</v>
       </c>
       <c r="AP3">
-        <v>0.0007545456821652692</v>
+        <v>0.0005665846107046302</v>
       </c>
       <c r="AQ3">
-        <v>0.000755197780839321</v>
+        <v>0.0005665846107046302</v>
       </c>
       <c r="AR3">
-        <v>0.000766624959384613</v>
+        <v>0.0005721193385229062</v>
       </c>
       <c r="AS3">
-        <v>0.0008069076747816913</v>
+        <v>0.00060653925561513</v>
       </c>
       <c r="AT3">
-        <v>0.0008388174835119426</v>
+        <v>0.0006325776619045345</v>
       </c>
       <c r="AU3">
-        <v>0.000895618146251742</v>
+        <v>0.0006835325004526406</v>
       </c>
       <c r="AV3">
-        <v>0.0009264616900244219</v>
+        <v>0.0007085035460731439</v>
       </c>
       <c r="AW3">
-        <v>0.0009491243031226357</v>
+        <v>0.0007252852541608621</v>
       </c>
       <c r="AX3">
-        <v>0.00104464286932178</v>
+        <v>0.0008149977833198912</v>
       </c>
       <c r="AY3">
-        <v>0.001092281650426147</v>
+        <v>0.0008567813253329761</v>
       </c>
       <c r="AZ3">
-        <v>0.001092793390305784</v>
+        <v>0.0008567813253329761</v>
       </c>
       <c r="BA3">
-        <v>0.001131087611781988</v>
+        <v>0.0008892107050954122</v>
       </c>
       <c r="BB3">
-        <v>0.001173822954081472</v>
+        <v>0.0009260857694496068</v>
       </c>
       <c r="BC3">
-        <v>0.001205519846820196</v>
+        <v>0.0009519110409515243</v>
       </c>
       <c r="BD3">
-        <v>0.001246980991170382</v>
+        <v>0.0009875105979697447</v>
       </c>
       <c r="BE3">
-        <v>0.00124712479483466</v>
+        <v>0.0009875105979697447</v>
       </c>
       <c r="BF3">
-        <v>0.001247678438972629</v>
+        <v>0.0009875105979697447</v>
       </c>
       <c r="BG3">
-        <v>0.001285543897465894</v>
+        <v>0.00101951077414538</v>
       </c>
       <c r="BH3">
-        <v>0.001294908286093269</v>
+        <v>0.001022980592289042</v>
       </c>
       <c r="BI3">
-        <v>0.001294914340485028</v>
+        <v>0.001022980592289042</v>
       </c>
       <c r="BJ3">
-        <v>0.001310504828864654</v>
+        <v>0.001032682908227009</v>
       </c>
       <c r="BK3">
-        <v>0.001311058473002624</v>
+        <v>0.001032682908227009</v>
       </c>
       <c r="BL3">
-        <v>0.001314568056062971</v>
+        <v>0.001032682908227009</v>
       </c>
       <c r="BM3">
-        <v>0.001315145558939991</v>
+        <v>0.001032682908227009</v>
       </c>
       <c r="BN3">
-        <v>0.001359094417191187</v>
+        <v>0.001070772735561779</v>
       </c>
       <c r="BO3">
-        <v>0.001379664498372666</v>
+        <v>0.001085459761412701</v>
       </c>
       <c r="BP3">
-        <v>0.00138147858910048</v>
+        <v>0.001085459761412701</v>
       </c>
       <c r="BQ3">
-        <v>0.001383208221831655</v>
+        <v>0.001085459761412701</v>
       </c>
       <c r="BR3">
-        <v>0.001406756850894613</v>
+        <v>0.001103128395949676</v>
       </c>
       <c r="BS3">
-        <v>0.001417219658478279</v>
+        <v>0.001107697761802935</v>
       </c>
       <c r="BT3">
-        <v>0.001417604281182974</v>
+        <v>0.001107697761802935</v>
       </c>
       <c r="BU3">
-        <v>0.001417647433429257</v>
+        <v>0.001107697761802935</v>
       </c>
       <c r="BV3">
-        <v>0.001422240165246504</v>
+        <v>0.001107697761802935</v>
       </c>
       <c r="BW3">
-        <v>0.001452557371040128</v>
+        <v>0.001132141928570857</v>
       </c>
       <c r="BX3">
-        <v>0.001477542150045938</v>
+        <v>0.001151248188861883</v>
       </c>
       <c r="BY3">
-        <v>0.001500356052138132</v>
+        <v>0.001168181341410628</v>
       </c>
       <c r="BZ3">
-        <v>0.001532805788846899</v>
+        <v>0.00119476023051738</v>
       </c>
       <c r="CA3">
-        <v>0.001543913483404904</v>
+        <v>0.001199975146041392</v>
       </c>
       <c r="CB3">
-        <v>0.001548371236027522</v>
+        <v>0.001199975146041392</v>
       </c>
       <c r="CC3">
-        <v>0.001555566620741204</v>
+        <v>0.001201273731367424</v>
       </c>
       <c r="CD3">
-        <v>0.001557519588163492</v>
+        <v>0.001201273731367424</v>
       </c>
       <c r="CE3">
-        <v>0.001559843362971025</v>
+        <v>0.001201273731367424</v>
       </c>
       <c r="CF3">
-        <v>0.001560752164774862</v>
+        <v>0.001201273731367424</v>
       </c>
       <c r="CG3">
-        <v>0.001570727171377939</v>
+        <v>0.001205354794967818</v>
       </c>
       <c r="CH3">
-        <v>0.001593239000482152</v>
+        <v>0.001221985564113435</v>
       </c>
       <c r="CI3">
-        <v>0.001593302659489619</v>
+        <v>0.001221985564113435</v>
       </c>
       <c r="CJ3">
-        <v>0.001593880162366639</v>
+        <v>0.001221985564113435</v>
       </c>
       <c r="CK3">
-        <v>0.001725094437145387</v>
+        <v>0.001347430483346701</v>
       </c>
       <c r="CL3">
-        <v>0.07080949768815262</v>
+        <v>0.07049692180486893</v>
       </c>
       <c r="CM3">
-        <v>0.07148377636132186</v>
+        <v>0.07116598918436083</v>
       </c>
       <c r="CN3">
-        <v>0.2605084388396903</v>
+        <v>0.2603789923075785</v>
       </c>
       <c r="CO3">
-        <v>0.2621590464740097</v>
+        <v>0.2620253919398479</v>
       </c>
       <c r="CP3">
-        <v>0.2686861967142826</v>
+        <v>0.2685533453931032</v>
       </c>
       <c r="CQ3">
-        <v>0.2699623199635034</v>
+        <v>0.2698248758139878</v>
       </c>
       <c r="CR3">
-        <v>0.2788739776088925</v>
+        <v>0.2787397870312138</v>
       </c>
       <c r="CS3">
-        <v>0.2941179150023088</v>
+        <v>0.2939934851508234</v>
       </c>
       <c r="CT3">
-        <v>0.3247840747820471</v>
+        <v>0.3246852537850091</v>
       </c>
       <c r="CU3">
-        <v>0.3759983627441383</v>
+        <v>0.3759462661945318</v>
       </c>
       <c r="CV3">
-        <v>0.4204046039771341</v>
+        <v>0.4203922358146622</v>
       </c>
       <c r="CW3">
-        <v>0.4207681277426688</v>
+        <v>0.4207502289496881</v>
       </c>
       <c r="CX3">
-        <v>0.4707761917527579</v>
+        <v>0.4708037778717242</v>
       </c>
       <c r="CY3">
-        <v>0.4768580045107517</v>
+        <v>0.4768859362066114</v>
       </c>
       <c r="CZ3">
-        <v>0.5815743103439014</v>
+        <v>0.5817039460368213</v>
       </c>
       <c r="DA3">
-        <v>0.5817273753578106</v>
+        <v>0.5818512641493624</v>
       </c>
       <c r="DB3">
-        <v>0.5967714492591798</v>
+        <v>0.5969048933939278</v>
       </c>
       <c r="DC3">
-        <v>0.5993970161547038</v>
+        <v>0.599527254171503</v>
       </c>
       <c r="DD3">
-        <v>0.6069598683537643</v>
+        <v>0.6070919738878378</v>
       </c>
       <c r="DE3">
-        <v>0.6269417375586497</v>
+        <v>0.6270884725952268</v>
       </c>
       <c r="DF3">
-        <v>0.6325221643365945</v>
+        <v>0.6326687297176221</v>
       </c>
       <c r="DG3">
-        <v>0.7069876813734775</v>
+        <v>0.7072048645456591</v>
       </c>
       <c r="DH3">
-        <v>0.7069993240575142</v>
+        <v>0.7072106150004258</v>
       </c>
       <c r="DI3">
-        <v>0.7124263151415644</v>
+        <v>0.7126372787558951</v>
       </c>
       <c r="DJ3">
-        <v>0.7130184074580039</v>
+        <v>0.7132240753226115</v>
       </c>
       <c r="DK3">
-        <v>0.7176993382717413</v>
+        <v>0.7179039121440177</v>
       </c>
       <c r="DL3">
-        <v>0.7181357549943754</v>
+        <v>0.7183348731421394</v>
       </c>
       <c r="DM3">
-        <v>0.7185346966985008</v>
+        <v>0.7187283206118096</v>
       </c>
       <c r="DN3">
-        <v>0.7223053578484594</v>
+        <v>0.7224969523614254</v>
       </c>
       <c r="DO3">
-        <v>0.7290678455793679</v>
+        <v>0.7292604851419752</v>
       </c>
       <c r="DP3">
-        <v>0.7291199646402939</v>
+        <v>0.7293067535678189</v>
       </c>
       <c r="DQ3">
-        <v>0.731446974147698</v>
+        <v>0.7316302501548134</v>
       </c>
       <c r="DR3">
-        <v>0.7497394914198058</v>
+        <v>0.7499356609237167</v>
       </c>
       <c r="DS3">
-        <v>0.750588605186018</v>
+        <v>0.750779743059656</v>
       </c>
       <c r="DT3">
-        <v>0.7614182137550883</v>
+        <v>0.7616145761183377</v>
       </c>
       <c r="DU3">
-        <v>0.7614902671122212</v>
+        <v>0.7616807993251974</v>
       </c>
       <c r="DV3">
-        <v>0.7769346354976621</v>
+        <v>0.7771351344030009</v>
       </c>
       <c r="DW3">
-        <v>0.7772469821852332</v>
+        <v>0.7774418978696599</v>
       </c>
       <c r="DX3">
-        <v>0.7772646414555305</v>
+        <v>0.7774536710934297</v>
       </c>
       <c r="DY3">
-        <v>0.8132251540245971</v>
+        <v>0.8134452330805618</v>
       </c>
       <c r="DZ3">
-        <v>0.8132961341677726</v>
+        <v>0.813510381970612</v>
       </c>
       <c r="EA3">
-        <v>0.8272590886121615</v>
+        <v>0.8274817807821404</v>
       </c>
       <c r="EB3">
-        <v>0.8298762248080209</v>
+        <v>0.830095702196526</v>
       </c>
       <c r="EC3">
-        <v>0.8324387723060526</v>
+        <v>0.832654978816844</v>
       </c>
       <c r="ED3">
-        <v>0.8393381125315154</v>
+        <v>0.8395555047238125</v>
       </c>
       <c r="EE3">
-        <v>0.8423872488101848</v>
+        <v>0.8426018701513669</v>
       </c>
       <c r="EF3">
-        <v>0.8520790104245322</v>
+        <v>0.8522976869851633</v>
       </c>
       <c r="EG3">
-        <v>0.8551228931034106</v>
+        <v>0.8553387934142416</v>
       </c>
       <c r="EH3">
-        <v>0.856669258941878</v>
+        <v>0.8568808441300826</v>
       </c>
       <c r="EI3">
-        <v>0.862656946703617</v>
+        <v>0.8628687807443278</v>
       </c>
       <c r="EJ3">
-        <v>0.8629202541131396</v>
+        <v>0.8631264545393731</v>
       </c>
       <c r="EK3">
-        <v>0.8633667966653709</v>
+        <v>0.8635675517725601</v>
       </c>
       <c r="EL3">
-        <v>0.86584019376695</v>
+        <v>0.8660375863840184</v>
       </c>
       <c r="EM3">
-        <v>0.8731134078775357</v>
+        <v>0.8733123703750361</v>
       </c>
       <c r="EN3">
-        <v>0.8743829546270181</v>
+        <v>0.8745773175380636</v>
       </c>
       <c r="EO3">
-        <v>0.8743953674355242</v>
+        <v>0.8745838389086921</v>
       </c>
       <c r="EP3">
-        <v>0.875260447741101</v>
+        <v>0.8754439039914733</v>
       </c>
       <c r="EQ3">
-        <v>0.8835547904110542</v>
+        <v>0.8837408658702863</v>
       </c>
       <c r="ER3">
-        <v>0.8892567446841632</v>
+        <v>0.8894427753714897</v>
       </c>
       <c r="ES3">
-        <v>0.8893547599802629</v>
+        <v>0.8895349871962299</v>
       </c>
       <c r="ET3">
-        <v>0.8940183417946906</v>
+        <v>0.8941974571902107</v>
       </c>
       <c r="EU3">
-        <v>0.8946819529682843</v>
+        <v>0.8948558461080298</v>
       </c>
       <c r="EV3">
-        <v>0.8947686909248329</v>
+        <v>0.89493676900444</v>
       </c>
       <c r="EW3">
-        <v>0.9174459600224636</v>
+        <v>0.9176314374416397</v>
       </c>
       <c r="EX3">
-        <v>0.9389212721679223</v>
+        <v>0.939122913776022</v>
       </c>
       <c r="EY3">
-        <v>0.93927291129393</v>
+        <v>0.9394690100586706</v>
       </c>
       <c r="EZ3">
-        <v>0.9430497897436412</v>
+        <v>0.9432438654970381</v>
       </c>
       <c r="FA3">
-        <v>0.9438686688810565</v>
+        <v>0.9440576819345808</v>
       </c>
       <c r="FB3">
-        <v>0.943869158176537</v>
+        <v>0.9440576819345808</v>
       </c>
       <c r="FC3">
-        <v>0.9506164973080483</v>
+        <v>0.9508060505487845</v>
       </c>
       <c r="FD3">
-        <v>0.953892531177689</v>
+        <v>0.95407954673099</v>
       </c>
       <c r="FE3">
-        <v>0.9547043349953859</v>
+        <v>0.9548862805781</v>
       </c>
       <c r="FF3">
-        <v>0.9559603526454067</v>
+        <v>0.9561376847389417</v>
       </c>
       <c r="FG3">
-        <v>0.9560316003325716</v>
+        <v>0.9562031014479138</v>
       </c>
       <c r="FH3">
-        <v>0.9560526043607358</v>
+        <v>0.9562182228666785</v>
       </c>
       <c r="FI3">
-        <v>0.9561251460078493</v>
+        <v>0.9562849348652935</v>
       </c>
       <c r="FJ3">
-        <v>0.9567660700123457</v>
+        <v>0.956920613300309</v>
       </c>
       <c r="FK3">
-        <v>0.9595213202027093</v>
+        <v>0.9596727906374011</v>
       </c>
       <c r="FL3">
-        <v>0.9628517110701871</v>
+        <v>0.9630006996755847</v>
       </c>
       <c r="FM3">
-        <v>0.9641666599178629</v>
+        <v>0.9643110955927451</v>
       </c>
       <c r="FN3">
-        <v>0.9649000040886818</v>
+        <v>0.9650392891665592</v>
       </c>
       <c r="FO3">
-        <v>0.9657090982264865</v>
+        <v>0.9658433105492655</v>
       </c>
       <c r="FP3">
-        <v>0.9662123086764629</v>
+        <v>0.9663411339130572</v>
       </c>
       <c r="FQ3">
-        <v>0.9667400080154648</v>
+        <v>0.9668634713310579</v>
       </c>
       <c r="FR3">
-        <v>0.9667652806584591</v>
+        <v>0.9668828657511512</v>
       </c>
       <c r="FS3">
-        <v>0.9670075031988207</v>
+        <v>0.9671194330098787</v>
       </c>
       <c r="FT3">
-        <v>0.9678828786639879</v>
+        <v>0.9679898038317248</v>
       </c>
       <c r="FU3">
-        <v>0.970304479967628</v>
+        <v>0.9704079894190341</v>
       </c>
       <c r="FV3">
-        <v>0.9722944770884424</v>
+        <v>0.9723941272999921</v>
       </c>
       <c r="FW3">
-        <v>0.9722945407474499</v>
+        <v>0.9723941272999921</v>
       </c>
       <c r="FX3">
-        <v>0.974518641858949</v>
+        <v>0.9746146097407289</v>
       </c>
       <c r="FY3">
-        <v>0.9806619946144939</v>
+        <v>0.9807583713126765</v>
       </c>
       <c r="FZ3">
-        <v>0.9836017586975154</v>
+        <v>0.9836952521519239</v>
       </c>
       <c r="GA3">
-        <v>0.9839073076653571</v>
+        <v>0.9839952109134052</v>
       </c>
       <c r="GB3">
-        <v>0.9857419463923535</v>
+        <v>0.9858258307517159</v>
       </c>
       <c r="GC3">
-        <v>0.9876451615166211</v>
+        <v>0.9877250974575265</v>
       </c>
       <c r="GD3">
-        <v>0.9894406025451773</v>
+        <v>0.9895164793172001</v>
       </c>
       <c r="GE3">
-        <v>0.9899770839638298</v>
+        <v>0.9900476078394601</v>
       </c>
       <c r="GF3">
-        <v>0.9907397644334813</v>
+        <v>0.990805167858568</v>
       </c>
       <c r="GG3">
-        <v>0.9907568944307997</v>
+        <v>0.9908164112654693</v>
       </c>
       <c r="GH3">
-        <v>0.9914019938451301</v>
+        <v>0.991456269401038</v>
       </c>
       <c r="GI3">
-        <v>0.9914284262780783</v>
+        <v>0.9914768248029043</v>
       </c>
       <c r="GJ3">
-        <v>0.9923862040399666</v>
+        <v>0.992429682599421</v>
       </c>
       <c r="GK3">
-        <v>0.9924119574389418</v>
+        <v>0.9924495582695279</v>
       </c>
       <c r="GL3">
-        <v>0.9924217330455528</v>
+        <v>0.9924534397282295</v>
       </c>
       <c r="GM3">
-        <v>0.993479183303475</v>
+        <v>0.9935060724458691</v>
       </c>
       <c r="GN3">
-        <v>0.9969464414655065</v>
+        <v>0.9969709894256795</v>
       </c>
       <c r="GO3">
-        <v>0.9989361696863316</v>
+        <v>0.9989568581303222</v>
       </c>
       <c r="GP3">
-        <v>0.9990109413133563</v>
+        <v>0.9990258024004124</v>
       </c>
       <c r="GQ3">
-        <v>0.9998119336814834</v>
+        <v>0.9998217136879299</v>
       </c>
       <c r="GR3">
-        <v>0.9999959351041616</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.324340552355941E-05</v>
+        <v>3.963634981604152E-06</v>
       </c>
       <c r="C4">
-        <v>7.517470797192635E-05</v>
+        <v>5.669268723722909E-05</v>
       </c>
       <c r="D4">
-        <v>9.851943189482718E-05</v>
+        <v>7.077372382938916E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001007137179815752</v>
+        <v>7.077372382938916E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001008756388679765</v>
+        <v>7.077372382938916E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001101617102350883</v>
+        <v>7.077372382938916E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001398258474078182</v>
+        <v>9.118423537362657E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001482668627415219</v>
+        <v>9.118423537362657E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001741909677663949</v>
+        <v>0.0001078487599307866</v>
       </c>
       <c r="K4">
-        <v>0.0001827977701066527</v>
+        <v>0.0001078487599307866</v>
       </c>
       <c r="L4">
-        <v>0.0001893024900638077</v>
+        <v>0.0001078487599307866</v>
       </c>
       <c r="M4">
-        <v>0.0002298696876675748</v>
+        <v>0.0001391796916423712</v>
       </c>
       <c r="N4">
-        <v>0.0002366672863363083</v>
+        <v>0.0001391796916423712</v>
       </c>
       <c r="O4">
-        <v>0.0002455841966888258</v>
+        <v>0.0001391796916423712</v>
       </c>
       <c r="P4">
-        <v>0.0002455845612699002</v>
+        <v>0.0001391796916423712</v>
       </c>
       <c r="Q4">
-        <v>0.0002616506519050505</v>
+        <v>0.0001459705059846382</v>
       </c>
       <c r="R4">
-        <v>0.0003036204215642663</v>
+        <v>0.0001787062429119106</v>
       </c>
       <c r="S4">
-        <v>0.0003040781068323602</v>
+        <v>0.0001787062429119106</v>
       </c>
       <c r="T4">
-        <v>0.0003056980470964023</v>
+        <v>0.0001787062429119106</v>
       </c>
       <c r="U4">
-        <v>0.0003381608283797727</v>
+        <v>0.0002019198545380356</v>
       </c>
       <c r="V4">
-        <v>0.000342735048560608</v>
+        <v>0.0002019198545380356</v>
       </c>
       <c r="W4">
-        <v>0.0003787366669838813</v>
+        <v>0.0002286779378027423</v>
       </c>
       <c r="X4">
-        <v>0.0003836629347786344</v>
+        <v>0.0002286779378027423</v>
       </c>
       <c r="Y4">
-        <v>0.0003980673003480907</v>
+        <v>0.0002338043812984227</v>
       </c>
       <c r="Z4">
-        <v>0.0004123974089146114</v>
+        <v>0.0002388564495599608</v>
       </c>
       <c r="AA4">
-        <v>0.0004188076131680298</v>
+        <v>0.0002388564495599608</v>
       </c>
       <c r="AB4">
-        <v>0.0004532406545292917</v>
+        <v>0.0002640434582910194</v>
       </c>
       <c r="AC4">
-        <v>0.0004667958490651773</v>
+        <v>0.0002683193787120834</v>
       </c>
       <c r="AD4">
-        <v>0.0004730630886129438</v>
+        <v>0.0002683193787120834</v>
       </c>
       <c r="AE4">
-        <v>0.0005724778725431674</v>
+        <v>0.0003585915932482385</v>
       </c>
       <c r="AF4">
-        <v>0.0006614261010596106</v>
+        <v>0.0004383805876329271</v>
       </c>
       <c r="AG4">
-        <v>0.0006691410293646094</v>
+        <v>0.0004383805876329271</v>
       </c>
       <c r="AH4">
-        <v>0.0006703252454114257</v>
+        <v>0.0004383805876329271</v>
       </c>
       <c r="AI4">
-        <v>0.0006712751813489801</v>
+        <v>0.0004383805876329271</v>
       </c>
       <c r="AJ4">
-        <v>0.000718613778220445</v>
+        <v>0.0004764936999617655</v>
       </c>
       <c r="AK4">
-        <v>0.0007205752775979902</v>
+        <v>0.0004764936999617655</v>
       </c>
       <c r="AL4">
-        <v>0.0007324419370671218</v>
+        <v>0.0004790783968485858</v>
       </c>
       <c r="AM4">
-        <v>0.0007733716186852192</v>
+        <v>0.0005107723897176748</v>
       </c>
       <c r="AN4">
-        <v>0.0008163237883832728</v>
+        <v>0.0005444920908506291</v>
       </c>
       <c r="AO4">
-        <v>0.0008278988418408763</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AP4">
-        <v>0.0008279666661535576</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AQ4">
-        <v>0.0008279784758970245</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AR4">
-        <v>0.000828230247066978</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AS4">
-        <v>0.0008286689255843205</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AT4">
-        <v>0.0008289700606562254</v>
+        <v>0.0005467847174339456</v>
       </c>
       <c r="AU4">
-        <v>0.0008578187417967175</v>
+        <v>0.0005663784745855644</v>
       </c>
       <c r="AV4">
-        <v>0.0008581518443098863</v>
+        <v>0.0005663784745855644</v>
       </c>
       <c r="AW4">
-        <v>0.0008616450544479854</v>
+        <v>0.0005663784745855644</v>
       </c>
       <c r="AX4">
-        <v>0.0008982780438962191</v>
+        <v>0.0005937689341374307</v>
       </c>
       <c r="AY4">
-        <v>0.0009052762301728826</v>
+        <v>0.0005937689341374307</v>
       </c>
       <c r="AZ4">
-        <v>0.0009306253091750227</v>
+        <v>0.0006098575171215691</v>
       </c>
       <c r="BA4">
-        <v>0.000940349022559436</v>
+        <v>0.000610295855947814</v>
       </c>
       <c r="BB4">
-        <v>0.0009721679468173524</v>
+        <v>0.0006328645854062092</v>
       </c>
       <c r="BC4">
-        <v>0.0009886924804706266</v>
+        <v>0.0006401145726946747</v>
       </c>
       <c r="BD4">
-        <v>0.0009924941616209207</v>
+        <v>0.0006401145726946747</v>
       </c>
       <c r="BE4">
-        <v>0.001046017853736905</v>
+        <v>0.0006844226281105876</v>
       </c>
       <c r="BF4">
-        <v>0.001084213785246927</v>
+        <v>0.000713378518223892</v>
       </c>
       <c r="BG4">
-        <v>0.00110966159625297</v>
+        <v>0.0007295659904119753</v>
       </c>
       <c r="BH4">
-        <v>0.001194638509612413</v>
+        <v>0.0008053773465541073</v>
       </c>
       <c r="BI4">
-        <v>0.001283319163118278</v>
+        <v>0.0008848983398981451</v>
       </c>
       <c r="BJ4">
-        <v>0.001296050983621613</v>
+        <v>0.0008883495753193219</v>
       </c>
       <c r="BK4">
-        <v>0.001298386690713952</v>
+        <v>0.0008883495753193219</v>
       </c>
       <c r="BL4">
-        <v>0.001299470844856812</v>
+        <v>0.0008883495753193219</v>
       </c>
       <c r="BM4">
-        <v>0.001301302930729241</v>
+        <v>0.0008883495753193219</v>
       </c>
       <c r="BN4">
-        <v>0.001301340508710727</v>
+        <v>0.0008883495753193219</v>
       </c>
       <c r="BO4">
-        <v>0.001350852336668107</v>
+        <v>0.0009286393789293882</v>
       </c>
       <c r="BP4">
-        <v>0.001368948771383524</v>
+        <v>0.0009374637700440706</v>
       </c>
       <c r="BQ4">
-        <v>0.001371372069679326</v>
+        <v>0.0009374637700440706</v>
       </c>
       <c r="BR4">
-        <v>0.001381816971092251</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BS4">
-        <v>0.00138657517878036</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BT4">
-        <v>0.001387639030222417</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BU4">
-        <v>0.001393102893938424</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BV4">
-        <v>0.001401961399288632</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BW4">
-        <v>0.001409676327593631</v>
+        <v>0.0009386244451666993</v>
       </c>
       <c r="BX4">
-        <v>0.001434315689567714</v>
+        <v>0.0009540021811189119</v>
       </c>
       <c r="BY4">
-        <v>0.001453765110336619</v>
+        <v>0.0009641817124970193</v>
       </c>
       <c r="BZ4">
-        <v>0.001464673854767881</v>
+        <v>0.0009658069691638825</v>
       </c>
       <c r="CA4">
-        <v>0.001478157016300919</v>
+        <v>0.0009700107418919214</v>
       </c>
       <c r="CB4">
-        <v>0.001480158482280044</v>
+        <v>0.0009700107418919214</v>
       </c>
       <c r="CC4">
-        <v>0.001480158568743682</v>
+        <v>0.0009700107418919214</v>
       </c>
       <c r="CD4">
-        <v>0.001501099301571545</v>
+        <v>0.0009816839597801101</v>
       </c>
       <c r="CE4">
-        <v>0.00153620199295928</v>
+        <v>0.001007541684747259</v>
       </c>
       <c r="CF4">
-        <v>0.001541981552187767</v>
+        <v>0.001007541684747259</v>
       </c>
       <c r="CG4">
-        <v>0.001564375872073095</v>
+        <v>0.001020670804078693</v>
       </c>
       <c r="CH4">
-        <v>0.001625416640486256</v>
+        <v>0.001072507904400337</v>
       </c>
       <c r="CI4">
-        <v>0.001697328483329189</v>
+        <v>0.001135233387960295</v>
       </c>
       <c r="CJ4">
-        <v>0.001712497033928857</v>
+        <v>0.001141125233213425</v>
       </c>
       <c r="CK4">
-        <v>0.001727009359502581</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="CL4">
-        <v>0.001727013164281431</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="CM4">
-        <v>0.002267512125649298</v>
+        <v>0.001678418490093904</v>
       </c>
       <c r="CN4">
-        <v>0.1298711071702779</v>
+        <v>0.129475881758652</v>
       </c>
       <c r="CO4">
-        <v>0.2061619701863299</v>
+        <v>0.2058789134150165</v>
       </c>
       <c r="CP4">
-        <v>0.3074136241891716</v>
+        <v>0.3072824783628533</v>
       </c>
       <c r="CQ4">
-        <v>0.3134716594286675</v>
+        <v>0.3133408582847717</v>
       </c>
       <c r="CR4">
-        <v>0.3193150610596782</v>
+        <v>0.3191842628608669</v>
       </c>
       <c r="CS4">
-        <v>0.3204505559045683</v>
+        <v>0.3203122647719647</v>
       </c>
       <c r="CT4">
-        <v>0.3212661179668104</v>
+        <v>0.3211198245068567</v>
       </c>
       <c r="CU4">
-        <v>0.360195377505824</v>
+        <v>0.3601017659403662</v>
       </c>
       <c r="CV4">
-        <v>0.3629162605133903</v>
+        <v>0.3628176802522315</v>
       </c>
       <c r="CW4">
-        <v>0.4663597606028835</v>
+        <v>0.4664165811206373</v>
       </c>
       <c r="CX4">
-        <v>0.4715927515097625</v>
+        <v>0.4716486030831686</v>
       </c>
       <c r="CY4">
-        <v>0.4780710837658743</v>
+        <v>0.4781279492141216</v>
       </c>
       <c r="CZ4">
-        <v>0.512202049115194</v>
+        <v>0.5123039566652021</v>
       </c>
       <c r="DA4">
-        <v>0.5707292494289845</v>
+        <v>0.5709150425053701</v>
       </c>
       <c r="DB4">
-        <v>0.6145420411610616</v>
+        <v>0.6147882916397164</v>
       </c>
       <c r="DC4">
-        <v>0.6308868798072318</v>
+        <v>0.6311498535067702</v>
       </c>
       <c r="DD4">
-        <v>0.6361672170159824</v>
+        <v>0.6364292971554493</v>
       </c>
       <c r="DE4">
-        <v>0.6494139055396716</v>
+        <v>0.6496877760585034</v>
       </c>
       <c r="DF4">
-        <v>0.6500322737141179</v>
+        <v>0.6502978279355985</v>
       </c>
       <c r="DG4">
-        <v>0.6594602470868396</v>
+        <v>0.6597315115702278</v>
       </c>
       <c r="DH4">
-        <v>0.7039711308465147</v>
+        <v>0.7043039642268388</v>
       </c>
       <c r="DI4">
-        <v>0.7344035720496185</v>
+        <v>0.7347755587810797</v>
       </c>
       <c r="DJ4">
-        <v>0.7404152882872832</v>
+        <v>0.7407875459525471</v>
       </c>
       <c r="DK4">
-        <v>0.7409584308087556</v>
+        <v>0.7413222524031876</v>
       </c>
       <c r="DL4">
-        <v>0.7426296403748245</v>
+        <v>0.7429868219947187</v>
       </c>
       <c r="DM4">
-        <v>0.74541804188506</v>
+        <v>0.7457703623114917</v>
       </c>
       <c r="DN4">
-        <v>0.7454220859097199</v>
+        <v>0.7457703623114917</v>
       </c>
       <c r="DO4">
-        <v>0.7456319045380148</v>
+        <v>0.7459712141542137</v>
       </c>
       <c r="DP4">
-        <v>0.7537650868595487</v>
+        <v>0.7541080451851795</v>
       </c>
       <c r="DQ4">
-        <v>0.7559275381450381</v>
+        <v>0.7562646386459474</v>
       </c>
       <c r="DR4">
-        <v>0.7560876566913681</v>
+        <v>0.7564157112747653</v>
       </c>
       <c r="DS4">
-        <v>0.7628174776574221</v>
+        <v>0.763146946533297</v>
       </c>
       <c r="DT4">
-        <v>0.7742557761096192</v>
+        <v>0.7745941560655112</v>
       </c>
       <c r="DU4">
-        <v>0.7764231018953013</v>
+        <v>0.776755631787599</v>
       </c>
       <c r="DV4">
-        <v>0.7814581364943542</v>
+        <v>0.7817893822583863</v>
       </c>
       <c r="DW4">
-        <v>0.7844335183119818</v>
+        <v>0.7847602005905988</v>
       </c>
       <c r="DX4">
-        <v>0.7957044817575635</v>
+        <v>0.7960398086871883</v>
       </c>
       <c r="DY4">
-        <v>0.7967472338987872</v>
+        <v>0.7970749202306778</v>
       </c>
       <c r="DZ4">
-        <v>0.805124684229978</v>
+        <v>0.8054564081922152</v>
       </c>
       <c r="EA4">
-        <v>0.8249064270120213</v>
+        <v>0.8252603463971812</v>
       </c>
       <c r="EB4">
-        <v>0.8322165713010176</v>
+        <v>0.8325728289632487</v>
       </c>
       <c r="EC4">
-        <v>0.8406599236348136</v>
+        <v>0.8410203238558557</v>
       </c>
       <c r="ED4">
-        <v>0.841006651898521</v>
+        <v>0.8413583033200488</v>
       </c>
       <c r="EE4">
-        <v>0.8473546786494813</v>
+        <v>0.8477071364748173</v>
       </c>
       <c r="EF4">
-        <v>0.8489215848114268</v>
+        <v>0.8492672365914594</v>
       </c>
       <c r="EG4">
-        <v>0.8589430692076121</v>
+        <v>0.8592953762314618</v>
       </c>
       <c r="EH4">
-        <v>0.867520000546689</v>
+        <v>0.8678766628124145</v>
       </c>
       <c r="EI4">
-        <v>0.8688663417999147</v>
+        <v>0.8692158468392461</v>
       </c>
       <c r="EJ4">
-        <v>0.8720453601255928</v>
+        <v>0.8723906259073811</v>
       </c>
       <c r="EK4">
-        <v>0.877000748921497</v>
+        <v>0.8773446037638232</v>
       </c>
       <c r="EL4">
-        <v>0.8771001637054273</v>
+        <v>0.8774348759783593</v>
       </c>
       <c r="EM4">
-        <v>0.8784482662587226</v>
+        <v>0.8787758241095838</v>
       </c>
       <c r="EN4">
-        <v>0.8817528713893655</v>
+        <v>0.8820763899406525</v>
       </c>
       <c r="EO4">
-        <v>0.8853748639325559</v>
+        <v>0.8856948485251155</v>
       </c>
       <c r="EP4">
-        <v>0.8855689495702288</v>
+        <v>0.885879942327316</v>
       </c>
       <c r="EQ4">
-        <v>0.8856611401478734</v>
+        <v>0.8859629788332626</v>
       </c>
       <c r="ER4">
-        <v>0.8883304343534002</v>
+        <v>0.8886272222039491</v>
       </c>
       <c r="ES4">
-        <v>0.8979014497317769</v>
+        <v>0.8982041755941862</v>
       </c>
       <c r="ET4">
-        <v>0.9011491756601712</v>
+        <v>0.9014477716605483</v>
       </c>
       <c r="EU4">
-        <v>0.9016876961414608</v>
+        <v>0.9019778487118431</v>
       </c>
       <c r="EV4">
-        <v>0.9041517804388749</v>
+        <v>0.904436555441394</v>
       </c>
       <c r="EW4">
-        <v>0.9049679019711391</v>
+        <v>0.9052446755370902</v>
       </c>
       <c r="EX4">
-        <v>0.9069595828498774</v>
+        <v>0.9072302266922901</v>
       </c>
       <c r="EY4">
-        <v>0.9374778240563731</v>
+        <v>0.9377877578597715</v>
       </c>
       <c r="EZ4">
-        <v>0.941393124811159</v>
+        <v>0.9416999916580303</v>
       </c>
       <c r="FA4">
-        <v>0.9460178255939901</v>
+        <v>0.9463227549834783</v>
       </c>
       <c r="FB4">
-        <v>0.9465346224144209</v>
+        <v>0.9468310737857335</v>
       </c>
       <c r="FC4">
-        <v>0.9484746904911188</v>
+        <v>0.9487649299615412</v>
       </c>
       <c r="FD4">
-        <v>0.9504231339681477</v>
+        <v>0.9507071748729028</v>
       </c>
       <c r="FE4">
-        <v>0.9552075188572916</v>
+        <v>0.9554898765519914</v>
       </c>
       <c r="FF4">
-        <v>0.9562109403969604</v>
+        <v>0.9564855948721626</v>
       </c>
       <c r="FG4">
-        <v>0.9571655053346978</v>
+        <v>0.9574323788014428</v>
       </c>
       <c r="FH4">
-        <v>0.9579590736660704</v>
+        <v>0.9582179097872821</v>
       </c>
       <c r="FI4">
-        <v>0.9579774124727953</v>
+        <v>0.9582269769363084</v>
       </c>
       <c r="FJ4">
-        <v>0.957982108947981</v>
+        <v>0.9582269769363084</v>
       </c>
       <c r="FK4">
-        <v>0.9580217769895492</v>
+        <v>0.9582574072803578</v>
       </c>
       <c r="FL4">
-        <v>0.9599232706647221</v>
+        <v>0.9601526276368906</v>
       </c>
       <c r="FM4">
-        <v>0.9639027898220467</v>
+        <v>0.9641291820855424</v>
       </c>
       <c r="FN4">
-        <v>0.9662416609145107</v>
+        <v>0.9664624762470163</v>
       </c>
       <c r="FO4">
-        <v>0.9666484106305909</v>
+        <v>0.9668605727290973</v>
       </c>
       <c r="FP4">
-        <v>0.9674621006627591</v>
+        <v>0.9676662574532889</v>
       </c>
       <c r="FQ4">
-        <v>0.9674768301183414</v>
+        <v>0.9676717095044023</v>
       </c>
       <c r="FR4">
-        <v>0.9681402519045689</v>
+        <v>0.9683268867271578</v>
       </c>
       <c r="FS4">
-        <v>0.9681667574846168</v>
+        <v>0.9683441336525563</v>
       </c>
       <c r="FT4">
-        <v>0.9681706147272693</v>
+        <v>0.9683441336525563</v>
       </c>
       <c r="FU4">
-        <v>0.9686033574443772</v>
+        <v>0.9687682645214435</v>
       </c>
       <c r="FV4">
-        <v>0.9697100384881283</v>
+        <v>0.9698674067543759</v>
       </c>
       <c r="FW4">
-        <v>0.9734456866358119</v>
+        <v>0.973599701904571</v>
       </c>
       <c r="FX4">
-        <v>0.9744964213773512</v>
+        <v>0.9746428087581871</v>
       </c>
       <c r="FY4">
-        <v>0.9747002419754089</v>
+        <v>0.9748376530206724</v>
       </c>
       <c r="FZ4">
-        <v>0.9774304780833449</v>
+        <v>0.977562935324814</v>
       </c>
       <c r="GA4">
-        <v>0.9809410917221321</v>
+        <v>0.9810698376685723</v>
       </c>
       <c r="GB4">
-        <v>0.9824814859830294</v>
+        <v>0.9826033836722007</v>
       </c>
       <c r="GC4">
-        <v>0.9826282431288312</v>
+        <v>0.9827410736266111</v>
       </c>
       <c r="GD4">
-        <v>0.9856175798470105</v>
+        <v>0.9857258690782188</v>
       </c>
       <c r="GE4">
-        <v>0.986989765801258</v>
+        <v>0.987090938955729</v>
       </c>
       <c r="GF4">
-        <v>0.9887286068700006</v>
+        <v>0.9888232477320896</v>
       </c>
       <c r="GG4">
-        <v>0.9887582230891715</v>
+        <v>0.9888436102493374</v>
       </c>
       <c r="GH4">
-        <v>0.9892218019274984</v>
+        <v>0.9892986263363863</v>
       </c>
       <c r="GI4">
-        <v>0.989457893996832</v>
+        <v>0.9895257934524392</v>
       </c>
       <c r="GJ4">
-        <v>0.9903682449328215</v>
+        <v>0.9904282929829104</v>
       </c>
       <c r="GK4">
-        <v>0.9904106406774975</v>
+        <v>0.9904614553730874</v>
       </c>
       <c r="GL4">
-        <v>0.9910233734017211</v>
+        <v>0.9910658628272562</v>
       </c>
       <c r="GM4">
-        <v>0.991030985366022</v>
+        <v>0.9910658628272562</v>
       </c>
       <c r="GN4">
-        <v>0.9910336346955267</v>
+        <v>0.9910658628272562</v>
       </c>
       <c r="GO4">
-        <v>0.9934724151919405</v>
+        <v>0.9934992254673652</v>
       </c>
       <c r="GP4">
-        <v>0.9988169044032273</v>
+        <v>0.9988429232607133</v>
       </c>
       <c r="GQ4">
-        <v>0.9997551444703193</v>
+        <v>0.9997733563270635</v>
       </c>
       <c r="GR4">
-        <v>0.9999625027385169</v>
+        <v>0.9999717438923292</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.868058295608436E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.458587125230841E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001247759386332159</v>
+        <v>0.0001204354611690334</v>
       </c>
       <c r="E5">
-        <v>0.0001919222685902813</v>
+        <v>0.0001839501028552693</v>
       </c>
       <c r="F5">
-        <v>0.0001948372505884174</v>
+        <v>0.0001839501028552693</v>
       </c>
       <c r="G5">
-        <v>0.0002237515965699291</v>
+        <v>0.0002092078458712663</v>
       </c>
       <c r="H5">
-        <v>0.0002846508865309889</v>
+        <v>0.0002664713765435164</v>
       </c>
       <c r="I5">
-        <v>0.0002853847003905197</v>
+        <v>0.0002664713765435164</v>
       </c>
       <c r="J5">
-        <v>0.0002854507257104775</v>
+        <v>0.0002664713765435164</v>
       </c>
       <c r="K5">
-        <v>0.0002890784811081578</v>
+        <v>0.0002664713765435164</v>
       </c>
       <c r="L5">
-        <v>0.0002917602215064431</v>
+        <v>0.0002664713765435164</v>
       </c>
       <c r="M5">
-        <v>0.0003995400514375266</v>
+        <v>0.00037064599789801</v>
       </c>
       <c r="N5">
-        <v>0.000403213103435178</v>
+        <v>0.00037064599789801</v>
       </c>
       <c r="O5">
-        <v>0.0004141904414281589</v>
+        <v>0.0003779550438884154</v>
       </c>
       <c r="P5">
-        <v>0.0004244275444216132</v>
+        <v>0.0003845233724892351</v>
       </c>
       <c r="Q5">
-        <v>0.0004251411897811569</v>
+        <v>0.0003845233724892351</v>
       </c>
       <c r="R5">
-        <v>0.0004255630818308871</v>
+        <v>0.0003845233724892351</v>
       </c>
       <c r="S5">
-        <v>0.0004581650868100407</v>
+        <v>0.0004134711776451774</v>
       </c>
       <c r="T5">
-        <v>0.0004585842657097727</v>
+        <v>0.0004134711776451774</v>
       </c>
       <c r="U5">
-        <v>0.0004592067734093747</v>
+        <v>0.0004134711776451774</v>
       </c>
       <c r="V5">
-        <v>0.0004613275973080186</v>
+        <v>0.0004134711776451774</v>
       </c>
       <c r="W5">
-        <v>0.0004867333422917736</v>
+        <v>0.0004352180332081116</v>
       </c>
       <c r="X5">
-        <v>0.0005172978652722301</v>
+        <v>0.0004621270285963883</v>
       </c>
       <c r="Y5">
-        <v>0.0005491084432518898</v>
+        <v>0.0004902828910024097</v>
       </c>
       <c r="Z5">
-        <v>0.0005655129642414005</v>
+        <v>0.0005030226567298773</v>
       </c>
       <c r="AA5">
-        <v>0.000566505157240766</v>
+        <v>0.0005030226567298773</v>
       </c>
       <c r="AB5">
-        <v>0.0005894433592260989</v>
+        <v>0.0005223003612669202</v>
       </c>
       <c r="AC5">
-        <v>0.0006362212651961882</v>
+        <v>0.0005654333054445868</v>
       </c>
       <c r="AD5">
-        <v>0.0006483355491884421</v>
+        <v>0.0005738800383495802</v>
       </c>
       <c r="AE5">
-        <v>0.0006485935937282771</v>
+        <v>0.0005738800383495802</v>
       </c>
       <c r="AF5">
-        <v>0.0006931103286998123</v>
+        <v>0.0006147503379879761</v>
       </c>
       <c r="AG5">
-        <v>0.0007195312156829183</v>
+        <v>0.0006375129970893796</v>
       </c>
       <c r="AH5">
-        <v>0.0008317425956111682</v>
+        <v>0.000746122056355913</v>
       </c>
       <c r="AI5">
-        <v>0.0008514813175985469</v>
+        <v>0.0007621981958850438</v>
       </c>
       <c r="AJ5">
-        <v>0.0008518826326782903</v>
+        <v>0.0007621981958850438</v>
       </c>
       <c r="AK5">
-        <v>0.0009010070466468792</v>
+        <v>0.000807679177213618</v>
       </c>
       <c r="AL5">
-        <v>0.0009226483116330414</v>
+        <v>0.000825659099574599</v>
       </c>
       <c r="AM5">
-        <v>0.0009228656009729024</v>
+        <v>0.000825659099574599</v>
       </c>
       <c r="AN5">
-        <v>0.0009358693539645877</v>
+        <v>0.0008349958811206286</v>
       </c>
       <c r="AO5">
-        <v>0.0009358993793295684</v>
+        <v>0.0008349958811206286</v>
       </c>
       <c r="AP5">
-        <v>0.0009658502133104173</v>
+        <v>0.0008612907875856613</v>
       </c>
       <c r="AQ5">
-        <v>0.0009931164532929826</v>
+        <v>0.000884899350578989</v>
       </c>
       <c r="AR5">
-        <v>0.000994507621292093</v>
+        <v>0.000884899350578989</v>
       </c>
       <c r="AS5">
-        <v>0.0009954763391914736</v>
+        <v>0.000884899350578989</v>
       </c>
       <c r="AT5">
-        <v>0.001013977319179644</v>
+        <v>0.000899736941507715</v>
       </c>
       <c r="AU5">
-        <v>0.001032120136168043</v>
+        <v>0.0009142161360320476</v>
       </c>
       <c r="AV5">
-        <v>0.001036758137165077</v>
+        <v>0.0009151817138612011</v>
       </c>
       <c r="AW5">
-        <v>0.001036990635574929</v>
+        <v>0.0009151817138612011</v>
       </c>
       <c r="AX5">
-        <v>0.001064256875557494</v>
+        <v>0.0009387902768545288</v>
       </c>
       <c r="AY5">
-        <v>0.001088688044541872</v>
+        <v>0.0009595619213146741</v>
       </c>
       <c r="AZ5">
-        <v>0.001109284732528703</v>
+        <v>0.0009764965859552538</v>
       </c>
       <c r="BA5">
-        <v>0.001166087096492382</v>
+        <v>0.001029660520780177</v>
       </c>
       <c r="BB5">
-        <v>0.001210603831463917</v>
+        <v>0.001070530820418573</v>
       </c>
       <c r="BC5">
-        <v>0.001233944539448993</v>
+        <v>0.001090211293257051</v>
       </c>
       <c r="BD5">
-        <v>0.001269642646426167</v>
+        <v>0.001122257218052474</v>
       </c>
       <c r="BE5">
-        <v>0.001284076738416937</v>
+        <v>0.001133025270708763</v>
       </c>
       <c r="BF5">
-        <v>0.001285398075316092</v>
+        <v>0.001133025270708763</v>
       </c>
       <c r="BG5">
-        <v>0.00128716908111496</v>
+        <v>0.001133025270708763</v>
       </c>
       <c r="BH5">
-        <v>0.001287229155079921</v>
+        <v>0.001133025270708763</v>
       </c>
       <c r="BI5">
-        <v>0.001289235794078638</v>
+        <v>0.001133025270708763</v>
       </c>
       <c r="BJ5">
-        <v>0.001293822877475705</v>
+        <v>0.0011339398977564</v>
       </c>
       <c r="BK5">
-        <v>0.001300377122471514</v>
+        <v>0.001136822968345946</v>
       </c>
       <c r="BL5">
-        <v>0.001301314527800915</v>
+        <v>0.001136822968345946</v>
       </c>
       <c r="BM5">
-        <v>0.001307447333796993</v>
+        <v>0.001139284325295973</v>
       </c>
       <c r="BN5">
-        <v>0.001349604839770037</v>
+        <v>0.001177793858493556</v>
       </c>
       <c r="BO5">
-        <v>0.001361914059762166</v>
+        <v>0.001186435654432662</v>
       </c>
       <c r="BP5">
-        <v>0.00136253327081177</v>
+        <v>0.001186435654432662</v>
       </c>
       <c r="BQ5">
-        <v>0.001366268053509382</v>
+        <v>0.001186497425360761</v>
       </c>
       <c r="BR5">
-        <v>0.001400018693487801</v>
+        <v>0.001216594614048672</v>
       </c>
       <c r="BS5">
-        <v>0.001421401228474129</v>
+        <v>0.001234315637802849</v>
       </c>
       <c r="BT5">
-        <v>0.00147210201444171</v>
+        <v>0.001281374018407134</v>
       </c>
       <c r="BU5">
-        <v>0.001488864320430992</v>
+        <v>0.001294471802292664</v>
       </c>
       <c r="BV5">
-        <v>0.001489752432290424</v>
+        <v>0.001294471802292664</v>
       </c>
       <c r="BW5">
-        <v>0.001514066562274877</v>
+        <v>0.001315126331481902</v>
       </c>
       <c r="BX5">
-        <v>0.001525795640267377</v>
+        <v>0.001323187607359367</v>
       </c>
       <c r="BY5">
-        <v>0.001532997067962773</v>
+        <v>0.001326718282399026</v>
       </c>
       <c r="BZ5">
-        <v>0.001538383891359328</v>
+        <v>0.001328433170613923</v>
       </c>
       <c r="CA5">
-        <v>0.001550678438351467</v>
+        <v>0.001337060283991062</v>
       </c>
       <c r="CB5">
-        <v>0.001639404223294734</v>
+        <v>0.001422168443379492</v>
       </c>
       <c r="CC5">
-        <v>0.001699187700256507</v>
+        <v>0.001478315433908915</v>
       </c>
       <c r="CD5">
-        <v>0.001708896356250299</v>
+        <v>0.001484354971136219</v>
       </c>
       <c r="CE5">
-        <v>0.001742947430228527</v>
+        <v>0.001514752789608215</v>
       </c>
       <c r="CF5">
-        <v>0.001789916294198494</v>
+        <v>0.001558076816227648</v>
       </c>
       <c r="CG5">
-        <v>0.001806208040188077</v>
+        <v>0.001570703733462933</v>
       </c>
       <c r="CH5">
-        <v>0.001833912960170361</v>
+        <v>0.001594751262331238</v>
       </c>
       <c r="CI5">
-        <v>0.001837272281868213</v>
+        <v>0.001594751262331238</v>
       </c>
       <c r="CJ5">
-        <v>0.001840892073265899</v>
+        <v>0.001594751262331238</v>
       </c>
       <c r="CK5">
-        <v>0.001854506308257194</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="CL5">
-        <v>0.001854508793952392</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="CM5">
-        <v>0.001938606893898618</v>
+        <v>0.001685176382371526</v>
       </c>
       <c r="CN5">
-        <v>0.1416658268045545</v>
+        <v>0.1414997770956384</v>
       </c>
       <c r="CO5">
-        <v>0.2103799767606174</v>
+        <v>0.2102550306598641</v>
       </c>
       <c r="CP5">
-        <v>0.325095656687266</v>
+        <v>0.3250417920811228</v>
       </c>
       <c r="CQ5">
-        <v>0.3321266489827703</v>
+        <v>0.3320736908283643</v>
       </c>
       <c r="CR5">
-        <v>0.3421016449763921</v>
+        <v>0.3420515117970555</v>
       </c>
       <c r="CS5">
-        <v>0.3431863186756985</v>
+        <v>0.3431332169016872</v>
       </c>
       <c r="CT5">
-        <v>0.3433405727455999</v>
+        <v>0.34328389604895</v>
       </c>
       <c r="CU5">
-        <v>0.3723330927270615</v>
+        <v>0.3722916341840335</v>
       </c>
       <c r="CV5">
-        <v>0.3747585610255106</v>
+        <v>0.3747150076454474</v>
       </c>
       <c r="CW5">
-        <v>0.4763553259605477</v>
+        <v>0.476374304851967</v>
       </c>
       <c r="CX5">
-        <v>0.4815912317571998</v>
+        <v>0.4816099472936289</v>
       </c>
       <c r="CY5">
-        <v>0.4877769247532446</v>
+        <v>0.487795995883941</v>
       </c>
       <c r="CZ5">
-        <v>0.5214933277316857</v>
+        <v>0.5215306954359643</v>
       </c>
       <c r="DA5">
-        <v>0.576827470696304</v>
+        <v>0.5768972226394005</v>
       </c>
       <c r="DB5">
-        <v>0.6254131126652375</v>
+        <v>0.6255108510413251</v>
       </c>
       <c r="DC5">
-        <v>0.6387778416566918</v>
+        <v>0.6388806140002662</v>
       </c>
       <c r="DD5">
-        <v>0.6433670169537574</v>
+        <v>0.6434691044865012</v>
       </c>
       <c r="DE5">
-        <v>0.6553776699460776</v>
+        <v>0.6554839090335586</v>
       </c>
       <c r="DF5">
-        <v>0.6563945424454274</v>
+        <v>0.6564977687541234</v>
       </c>
       <c r="DG5">
-        <v>0.6624645174415461</v>
+        <v>0.6625680239343857</v>
       </c>
       <c r="DH5">
-        <v>0.7060172734136977</v>
+        <v>0.706145486551117</v>
       </c>
       <c r="DI5">
-        <v>0.7296422333985915</v>
+        <v>0.7297821668037106</v>
       </c>
       <c r="DJ5">
-        <v>0.734775714395309</v>
+        <v>0.7349153176981141</v>
       </c>
       <c r="DK5">
-        <v>0.7349303150652101</v>
+        <v>0.7350663436712461</v>
       </c>
       <c r="DL5">
-        <v>0.7376167810634924</v>
+        <v>0.737750884917258</v>
       </c>
       <c r="DM5">
-        <v>0.740801497561456</v>
+        <v>0.7409340013586063</v>
       </c>
       <c r="DN5">
-        <v>0.7409196504253804</v>
+        <v>0.7410485557737649</v>
       </c>
       <c r="DO5">
-        <v>0.741161195025226</v>
+        <v>0.7412865823357233</v>
       </c>
       <c r="DP5">
-        <v>0.7511696465188265</v>
+        <v>0.7512978806063892</v>
       </c>
       <c r="DQ5">
-        <v>0.7527433770178201</v>
+        <v>0.7528689612150908</v>
       </c>
       <c r="DR5">
-        <v>0.7529322382176994</v>
+        <v>0.7530542700448122</v>
       </c>
       <c r="DS5">
-        <v>0.7604097918129181</v>
+        <v>0.7605330211030441</v>
       </c>
       <c r="DT5">
-        <v>0.7720237988054919</v>
+        <v>0.772150921167458</v>
       </c>
       <c r="DU5">
-        <v>0.773291864704681</v>
+        <v>0.7734161379834441</v>
       </c>
       <c r="DV5">
-        <v>0.77751608550198</v>
+        <v>0.777639436139463</v>
       </c>
       <c r="DW5">
-        <v>0.77947101250073</v>
+        <v>0.779591961662819</v>
       </c>
       <c r="DX5">
-        <v>0.7905234174936629</v>
+        <v>0.7906478937475695</v>
       </c>
       <c r="DY5">
-        <v>0.7909916279233635</v>
+        <v>0.7911127338510463</v>
       </c>
       <c r="DZ5">
-        <v>0.7995341319179012</v>
+        <v>0.7996571293064308</v>
       </c>
       <c r="EA5">
-        <v>0.819082078905402</v>
+        <v>0.8192141396884196</v>
       </c>
       <c r="EB5">
-        <v>0.8256169729012235</v>
+        <v>0.8257496168428508</v>
       </c>
       <c r="EC5">
-        <v>0.8320351458971196</v>
+        <v>0.8321682969336064</v>
       </c>
       <c r="ED5">
-        <v>0.8320810031730903</v>
+        <v>0.8322105086478363</v>
       </c>
       <c r="EE5">
-        <v>0.8396671211682396</v>
+        <v>0.8397978948543251</v>
       </c>
       <c r="EF5">
-        <v>0.8415246348670519</v>
+        <v>0.8416529435962713</v>
       </c>
       <c r="EG5">
-        <v>0.8516506248605771</v>
+        <v>0.8517818569633536</v>
       </c>
       <c r="EH5">
-        <v>0.8584358942562385</v>
+        <v>0.8585678726801393</v>
       </c>
       <c r="EI5">
-        <v>0.8600699417551936</v>
+        <v>0.8601993095956727</v>
       </c>
       <c r="EJ5">
-        <v>0.864263672452512</v>
+        <v>0.8643920977821815</v>
       </c>
       <c r="EK5">
-        <v>0.8686105008497326</v>
+        <v>0.8687380834380016</v>
       </c>
       <c r="EL5">
-        <v>0.8690151532294739</v>
+        <v>0.8691393240725488</v>
       </c>
       <c r="EM5">
-        <v>0.8703516579286192</v>
+        <v>0.8704730242881071</v>
       </c>
       <c r="EN5">
-        <v>0.8725701969272006</v>
+        <v>0.8726893335997243</v>
       </c>
       <c r="EO5">
-        <v>0.8773673473241332</v>
+        <v>0.8774859347172735</v>
       </c>
       <c r="EP5">
-        <v>0.8778984018937936</v>
+        <v>0.8780136599144457</v>
       </c>
       <c r="EQ5">
-        <v>0.8779715862937468</v>
+        <v>0.8780832165609662</v>
       </c>
       <c r="ER5">
-        <v>0.8806046144920632</v>
+        <v>0.8807142851831206</v>
       </c>
       <c r="ES5">
-        <v>0.8901766334859427</v>
+        <v>0.8902888665434399</v>
       </c>
       <c r="ET5">
-        <v>0.8936688372837097</v>
+        <v>0.8937796706653042</v>
       </c>
       <c r="EU5">
-        <v>0.8942648520833286</v>
+        <v>0.8943723984251659</v>
       </c>
       <c r="EV5">
-        <v>0.8970696934815352</v>
+        <v>0.8971753922129776</v>
       </c>
       <c r="EW5">
-        <v>0.8975145739312508</v>
+        <v>0.897616887132986</v>
       </c>
       <c r="EX5">
-        <v>0.9009430370290585</v>
+        <v>0.9010439090168929</v>
       </c>
       <c r="EY5">
-        <v>0.9350189010072698</v>
+        <v>0.9351383038191785</v>
       </c>
       <c r="EZ5">
-        <v>0.9394266254044514</v>
+        <v>0.9395452251591478</v>
       </c>
       <c r="FA5">
-        <v>0.9428810221022427</v>
+        <v>0.9429981975432264</v>
       </c>
       <c r="FB5">
-        <v>0.9432289061220203</v>
+        <v>0.9433426328234871</v>
       </c>
       <c r="FC5">
-        <v>0.9449301521209325</v>
+        <v>0.9450413120303254</v>
       </c>
       <c r="FD5">
-        <v>0.9468507013197044</v>
+        <v>0.9469594373506706</v>
       </c>
       <c r="FE5">
-        <v>0.9513905990168015</v>
+        <v>0.9514986181241292</v>
       </c>
       <c r="FF5">
-        <v>0.9528876672158442</v>
+        <v>0.9529929864742431</v>
       </c>
       <c r="FG5">
-        <v>0.954154740115034</v>
+        <v>0.95425720964312</v>
       </c>
       <c r="FH5">
-        <v>0.9548908194145633</v>
+        <v>0.9549900931789361</v>
       </c>
       <c r="FI5">
-        <v>0.9548967365711596</v>
+        <v>0.9549923387459537</v>
       </c>
       <c r="FJ5">
-        <v>0.9549177339301461</v>
+        <v>0.9550096743426999</v>
       </c>
       <c r="FK5">
-        <v>0.9549846518941033</v>
+        <v>0.9550729604695667</v>
       </c>
       <c r="FL5">
-        <v>0.9568616301929032</v>
+        <v>0.9569474864960257</v>
       </c>
       <c r="FM5">
-        <v>0.9611352128901706</v>
+        <v>0.9612201787197567</v>
       </c>
       <c r="FN5">
-        <v>0.9631662790888719</v>
+        <v>0.9632488930608114</v>
       </c>
       <c r="FO5">
-        <v>0.9633350630887639</v>
+        <v>0.9634141116068063</v>
       </c>
       <c r="FP5">
-        <v>0.9646341058879333</v>
+        <v>0.9647103255095357</v>
       </c>
       <c r="FQ5">
-        <v>0.9648366211478038</v>
+        <v>0.9649092972972102</v>
       </c>
       <c r="FR5">
-        <v>0.966013999047051</v>
+        <v>0.9660837670144685</v>
       </c>
       <c r="FS5">
-        <v>0.9660172569036489</v>
+        <v>0.9660837670144685</v>
       </c>
       <c r="FT5">
-        <v>0.9660259506761434</v>
+        <v>0.9660887910068258</v>
       </c>
       <c r="FU5">
-        <v>0.9665647463357989</v>
+        <v>0.9666242623386407</v>
       </c>
       <c r="FV5">
-        <v>0.9680370960348574</v>
+        <v>0.9680938960804283</v>
       </c>
       <c r="FW5">
-        <v>0.9715491074326118</v>
+        <v>0.9716045207103284</v>
       </c>
       <c r="FX5">
-        <v>0.9722128952021873</v>
+        <v>0.9722650656058603</v>
       </c>
       <c r="FY5">
-        <v>0.9727293642018571</v>
+        <v>0.9727781957280415</v>
       </c>
       <c r="FZ5">
-        <v>0.9760044328997629</v>
+        <v>0.9760517232492865</v>
       </c>
       <c r="GA5">
-        <v>0.9805446128968598</v>
+        <v>0.9805911865067117</v>
       </c>
       <c r="GB5">
-        <v>0.9828108976954106</v>
+        <v>0.9828552727328759</v>
       </c>
       <c r="GC5">
-        <v>0.9829036081253514</v>
+        <v>0.9829443681339414</v>
       </c>
       <c r="GD5">
-        <v>0.9851829908238939</v>
+        <v>0.9852215607956254</v>
       </c>
       <c r="GE5">
-        <v>0.986548198923021</v>
+        <v>0.9865839831163534</v>
       </c>
       <c r="GF5">
-        <v>0.9881140282220198</v>
+        <v>0.9881471573760732</v>
       </c>
       <c r="GG5">
-        <v>0.9881455249549996</v>
+        <v>0.9881749991889556</v>
       </c>
       <c r="GH5">
-        <v>0.9884699652847921</v>
+        <v>0.9884959755016464</v>
       </c>
       <c r="GI5">
-        <v>0.9885659264487308</v>
+        <v>0.9885883237551205</v>
       </c>
       <c r="GJ5">
-        <v>0.9892899478482678</v>
+        <v>0.9893091415331545</v>
       </c>
       <c r="GK5">
-        <v>0.9893308471952417</v>
+        <v>0.9893463920874466</v>
       </c>
       <c r="GL5">
-        <v>0.9902985215546229</v>
+        <v>0.9903110216070167</v>
       </c>
       <c r="GM5">
-        <v>0.9902987961502228</v>
+        <v>0.9903110216070167</v>
       </c>
       <c r="GN5">
-        <v>0.9902989662662026</v>
+        <v>0.9903110216070167</v>
       </c>
       <c r="GO5">
-        <v>0.9930057097644719</v>
+        <v>0.9930158535672846</v>
       </c>
       <c r="GP5">
-        <v>0.9983879374610304</v>
+        <v>0.9983979132626664</v>
       </c>
       <c r="GQ5">
-        <v>0.9990641065205981</v>
+        <v>0.9990708475167244</v>
       </c>
       <c r="GR5">
-        <v>0.9996572988202188</v>
+        <v>0.999660750937245</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.096272534584625E-05</v>
+        <v>1.745327557153494E-05</v>
       </c>
       <c r="C6">
-        <v>2.448336656803496E-05</v>
+        <v>1.745327557153494E-05</v>
       </c>
       <c r="D6">
-        <v>2.947871917385524E-05</v>
+        <v>1.892893318128646E-05</v>
       </c>
       <c r="E6">
-        <v>3.193342448015619E-05</v>
+        <v>1.892893318128646E-05</v>
       </c>
       <c r="F6">
-        <v>3.766865532759321E-05</v>
+        <v>2.114494376427039E-05</v>
       </c>
       <c r="G6">
-        <v>4.117241655111391E-05</v>
+        <v>2.114494376427039E-05</v>
       </c>
       <c r="H6">
-        <v>4.209610321822645E-05</v>
+        <v>2.114494376427039E-05</v>
       </c>
       <c r="I6">
-        <v>5.027412157290484E-05</v>
+        <v>2.580530923193E-05</v>
       </c>
       <c r="J6">
-        <v>7.80611193802526E-05</v>
+        <v>5.008723595555255E-05</v>
       </c>
       <c r="K6">
-        <v>9.657244191953731E-05</v>
+        <v>6.508753581521592E-05</v>
       </c>
       <c r="L6">
-        <v>9.675184314538089E-05</v>
+        <v>6.508753581521592E-05</v>
       </c>
       <c r="M6">
-        <v>0.0001332492732653946</v>
+        <v>9.808548376785904E-05</v>
       </c>
       <c r="N6">
-        <v>0.0001655414327172433</v>
+        <v>0.0001268754628044007</v>
       </c>
       <c r="O6">
-        <v>0.0002881401730430639</v>
+        <v>0.0002460299665584178</v>
       </c>
       <c r="P6">
-        <v>0.0002998111651221143</v>
+        <v>0.0002541855469638902</v>
       </c>
       <c r="Q6">
-        <v>0.0003084953284368531</v>
+        <v>0.0002593523821518223</v>
       </c>
       <c r="R6">
-        <v>0.0003219147713779344</v>
+        <v>0.0002692575352862166</v>
       </c>
       <c r="S6">
-        <v>0.0003227301352435947</v>
+        <v>0.0002692575352862166</v>
       </c>
       <c r="T6">
-        <v>0.0003822051755504615</v>
+        <v>0.0003252478366596596</v>
       </c>
       <c r="U6">
-        <v>0.0003961284554517854</v>
+        <v>0.0003356571500336156</v>
       </c>
       <c r="V6">
-        <v>0.0004233061833072103</v>
+        <v>0.0003593294158765213</v>
       </c>
       <c r="W6">
-        <v>0.0005382087082403338</v>
+        <v>0.000470782766078341</v>
       </c>
       <c r="X6">
-        <v>0.0006649239782413219</v>
+        <v>0.0005940564408161542</v>
       </c>
       <c r="Y6">
-        <v>0.0006687616604384931</v>
+        <v>0.0005943736852156542</v>
       </c>
       <c r="Z6">
-        <v>0.0006687633687389583</v>
+        <v>0.0005943736852156542</v>
       </c>
       <c r="AA6">
-        <v>0.0006948911246772357</v>
+        <v>0.0006169953054429082</v>
       </c>
       <c r="AB6">
-        <v>0.0007137402551898642</v>
+        <v>0.0006323336300252614</v>
       </c>
       <c r="AC6">
-        <v>0.0007139864664404359</v>
+        <v>0.0006323336300252614</v>
       </c>
       <c r="AD6">
-        <v>0.000727943376339106</v>
+        <v>0.0006427765949747397</v>
       </c>
       <c r="AE6">
-        <v>0.0007332018659241624</v>
+        <v>0.0006445155584015661</v>
       </c>
       <c r="AF6">
-        <v>0.0007332548546979811</v>
+        <v>0.0006445155584015661</v>
       </c>
       <c r="AG6">
-        <v>0.0007358158439958953</v>
+        <v>0.0006445155584015661</v>
       </c>
       <c r="AH6">
-        <v>0.0007404291541318624</v>
+        <v>0.0006456089284097267</v>
       </c>
       <c r="AI6">
-        <v>0.0007426183204591168</v>
+        <v>0.0006456089284097267</v>
       </c>
       <c r="AJ6">
-        <v>0.0007441130381411697</v>
+        <v>0.0006456089284097267</v>
       </c>
       <c r="AK6">
-        <v>0.0007442074932237163</v>
+        <v>0.0006456089284097267</v>
       </c>
       <c r="AL6">
-        <v>0.0007472040594872594</v>
+        <v>0.0006456089284097267</v>
       </c>
       <c r="AM6">
-        <v>0.0007700705896828778</v>
+        <v>0.0006649672303784471</v>
       </c>
       <c r="AN6">
-        <v>0.0007883327362418248</v>
+        <v>0.0006797181943777965</v>
       </c>
       <c r="AO6">
-        <v>0.0008096964545560289</v>
+        <v>0.0006975727202087259</v>
       </c>
       <c r="AP6">
-        <v>0.000845029011767962</v>
+        <v>0.0007294050478303117</v>
       </c>
       <c r="AQ6">
-        <v>0.0008652011481761931</v>
+        <v>0.0007460672271948693</v>
       </c>
       <c r="AR6">
-        <v>0.0008747905244195023</v>
+        <v>0.0007521398561274735</v>
       </c>
       <c r="AS6">
-        <v>0.0008771550282329209</v>
+        <v>0.0007521398561274735</v>
       </c>
       <c r="AT6">
-        <v>0.0008773732491357012</v>
+        <v>0.0007521398561274735</v>
       </c>
       <c r="AU6">
-        <v>0.000885166213520764</v>
+        <v>0.0007564149205614969</v>
       </c>
       <c r="AV6">
-        <v>0.0008893530131903866</v>
+        <v>0.0007570815064393623</v>
       </c>
       <c r="AW6">
-        <v>0.0009383550413236714</v>
+        <v>0.0008025920757903204</v>
       </c>
       <c r="AX6">
-        <v>0.0009726062016209366</v>
+        <v>0.0008333423126353627</v>
       </c>
       <c r="AY6">
-        <v>0.0009771573152618114</v>
+        <v>0.0008343734462409965</v>
       </c>
       <c r="AZ6">
-        <v>0.000993567937966861</v>
+        <v>0.0008472716983843405</v>
       </c>
       <c r="BA6">
-        <v>0.000993651057214302</v>
+        <v>0.0008472716983843405</v>
       </c>
       <c r="BB6">
-        <v>0.0009976034239024235</v>
+        <v>0.0008477037008603494</v>
       </c>
       <c r="BC6">
-        <v>0.00101973812915579</v>
+        <v>0.0008663297083224789</v>
       </c>
       <c r="BD6">
-        <v>0.001020078442178936</v>
+        <v>0.0008663297083224789</v>
       </c>
       <c r="BE6">
-        <v>0.001020079422330859</v>
+        <v>0.0008663297083224789</v>
       </c>
       <c r="BF6">
-        <v>0.001043743357463554</v>
+        <v>0.0008864859268710211</v>
       </c>
       <c r="BG6">
-        <v>0.001058103686330391</v>
+        <v>0.0008973325696363084</v>
       </c>
       <c r="BH6">
-        <v>0.001075834592931258</v>
+        <v>0.0009115519528155419</v>
       </c>
       <c r="BI6">
-        <v>0.001176273585005688</v>
+        <v>0.001008532489852888</v>
       </c>
       <c r="BJ6">
-        <v>0.001219363763605473</v>
+        <v>0.001048127416422049</v>
       </c>
       <c r="BK6">
-        <v>0.001219473912906781</v>
+        <v>0.001048127416422049</v>
       </c>
       <c r="BL6">
-        <v>0.001220785954603249</v>
+        <v>0.001048127416422049</v>
       </c>
       <c r="BM6">
-        <v>0.001224913513277546</v>
+        <v>0.001048734723293505</v>
       </c>
       <c r="BN6">
-        <v>0.001231763535337016</v>
+        <v>0.00105206624037734</v>
       </c>
       <c r="BO6">
-        <v>0.001236210496586109</v>
+        <v>0.001052993154763395</v>
       </c>
       <c r="BP6">
-        <v>0.001279550895166149</v>
+        <v>0.001092838461862654</v>
       </c>
       <c r="BQ6">
-        <v>0.001332770900966597</v>
+        <v>0.001142569715281963</v>
       </c>
       <c r="BR6">
-        <v>0.001504165977441933</v>
+        <v>0.001310551864612097</v>
       </c>
       <c r="BS6">
-        <v>0.001578673281562615</v>
+        <v>0.001381584075022698</v>
       </c>
       <c r="BT6">
-        <v>0.001579013594585761</v>
+        <v>0.001381584075022698</v>
       </c>
       <c r="BU6">
-        <v>0.001607775445316184</v>
+        <v>0.00140684148016894</v>
       </c>
       <c r="BV6">
-        <v>0.001653638188697187</v>
+        <v>0.001449210750493324</v>
       </c>
       <c r="BW6">
-        <v>0.00166209355102998</v>
+        <v>0.001454148637892642</v>
       </c>
       <c r="BX6">
-        <v>0.00166946176644856</v>
+        <v>0.00145799868082647</v>
       </c>
       <c r="BY6">
-        <v>0.001693028274588943</v>
+        <v>0.001478057409870153</v>
       </c>
       <c r="BZ6">
-        <v>0.001696213310437614</v>
+        <v>0.001478057409870153</v>
       </c>
       <c r="CA6">
-        <v>0.00171917581062566</v>
+        <v>0.001497511743408986</v>
       </c>
       <c r="CB6">
-        <v>0.001749837958206132</v>
+        <v>0.001524670664701836</v>
       </c>
       <c r="CC6">
-        <v>0.001752398947504046</v>
+        <v>0.001524670664701836</v>
       </c>
       <c r="CD6">
-        <v>0.001816207642468947</v>
+        <v>0.001584997401356883</v>
       </c>
       <c r="CE6">
-        <v>0.001816290761716388</v>
+        <v>0.001584997401356883</v>
       </c>
       <c r="CF6">
-        <v>0.001839998534845624</v>
+        <v>0.00160519748602995</v>
       </c>
       <c r="CG6">
-        <v>0.001882708101475443</v>
+        <v>0.001644411556415265</v>
       </c>
       <c r="CH6">
-        <v>0.001988755943107283</v>
+        <v>0.001747004541842995</v>
       </c>
       <c r="CI6">
-        <v>0.0020079854135899</v>
+        <v>0.00176272345043469</v>
       </c>
       <c r="CJ6">
-        <v>0.002091446977004007</v>
+        <v>0.001842715665502944</v>
       </c>
       <c r="CK6">
-        <v>0.002204797508059597</v>
+        <v>0.001952616026013974</v>
       </c>
       <c r="CL6">
-        <v>0.00224962135052258</v>
+        <v>0.00199394572882537</v>
       </c>
       <c r="CM6">
-        <v>0.002673905517042618</v>
+        <v>0.002414979230636846</v>
       </c>
       <c r="CN6">
-        <v>0.05892279707848259</v>
+        <v>0.05869643913727024</v>
       </c>
       <c r="CO6">
-        <v>0.07434131186181855</v>
+        <v>0.07412132407581917</v>
       </c>
       <c r="CP6">
-        <v>0.3015548139325627</v>
+        <v>0.3014770913326749</v>
       </c>
       <c r="CQ6">
-        <v>0.310938433192108</v>
+        <v>0.3108632085485479</v>
       </c>
       <c r="CR6">
-        <v>0.3383777460268914</v>
+        <v>0.3383166045007042</v>
       </c>
       <c r="CS6">
-        <v>0.3428751312720059</v>
+        <v>0.3428133525244406</v>
       </c>
       <c r="CT6">
-        <v>0.3429812719136304</v>
+        <v>0.3429160383694047</v>
       </c>
       <c r="CU6">
-        <v>0.3582654677075653</v>
+        <v>0.3582065181348169</v>
       </c>
       <c r="CV6">
-        <v>0.3759389323129648</v>
+        <v>0.3758877997496711</v>
       </c>
       <c r="CW6">
-        <v>0.4353032176285713</v>
+        <v>0.4352866523554692</v>
       </c>
       <c r="CX6">
-        <v>0.4710330548091552</v>
+        <v>0.4710358921422231</v>
       </c>
       <c r="CY6">
-        <v>0.4712266924538754</v>
+        <v>0.4712261311314035</v>
       </c>
       <c r="CZ6">
-        <v>0.5210741285204498</v>
+        <v>0.5211020281466582</v>
       </c>
       <c r="DA6">
-        <v>0.5234908147297508</v>
+        <v>0.5235167420857048</v>
       </c>
       <c r="DB6">
-        <v>0.624843796732059</v>
+        <v>0.6249312327865293</v>
       </c>
       <c r="DC6">
-        <v>0.6248675045051882</v>
+        <v>0.6249514328712024</v>
       </c>
       <c r="DD6">
-        <v>0.6428136010890745</v>
+        <v>0.642905521394704</v>
       </c>
       <c r="DE6">
-        <v>0.6463785250077688</v>
+        <v>0.6464692097923985</v>
       </c>
       <c r="DF6">
-        <v>0.6468148634233377</v>
+        <v>0.6469023052776843</v>
       </c>
       <c r="DG6">
-        <v>0.6566291886488963</v>
+        <v>0.6567194048155001</v>
       </c>
       <c r="DH6">
-        <v>0.6723292684100142</v>
+        <v>0.6724260353937146</v>
       </c>
       <c r="DI6">
-        <v>0.7088082255314856</v>
+        <v>0.7089248757827674</v>
       </c>
       <c r="DJ6">
-        <v>0.7095377343739205</v>
+        <v>0.7096513298032628</v>
       </c>
       <c r="DK6">
-        <v>0.7095379351763347</v>
+        <v>0.7096513298032628</v>
       </c>
       <c r="DL6">
-        <v>0.7096436840229902</v>
+        <v>0.7097536236018686</v>
       </c>
       <c r="DM6">
-        <v>0.7182135083467515</v>
+        <v>0.7183254237228198</v>
       </c>
       <c r="DN6">
-        <v>0.7195201431436459</v>
+        <v>0.7196293740018617</v>
       </c>
       <c r="DO6">
-        <v>0.7223905579171435</v>
+        <v>0.7224981076331342</v>
       </c>
       <c r="DP6">
-        <v>0.725950815936206</v>
+        <v>0.7260571271373933</v>
       </c>
       <c r="DQ6">
-        <v>0.7350753622161945</v>
+        <v>0.7351840051434744</v>
       </c>
       <c r="DR6">
-        <v>0.7351207715476114</v>
+        <v>0.7352259207109096</v>
       </c>
       <c r="DS6">
-        <v>0.7386862323662634</v>
+        <v>0.7387901463530555</v>
       </c>
       <c r="DT6">
-        <v>0.746873106720243</v>
+        <v>0.7469787507902039</v>
       </c>
       <c r="DU6">
-        <v>0.7492320222341027</v>
+        <v>0.7493356569661215</v>
       </c>
       <c r="DV6">
-        <v>0.7545652528132613</v>
+        <v>0.7546687866313421</v>
       </c>
       <c r="DW6">
-        <v>0.7545655712840561</v>
+        <v>0.7546687866313421</v>
       </c>
       <c r="DX6">
-        <v>0.7669910233035725</v>
+        <v>0.7670986883528917</v>
       </c>
       <c r="DY6">
-        <v>0.7732779988074717</v>
+        <v>0.7733861748987717</v>
       </c>
       <c r="DZ6">
-        <v>0.7734083374171868</v>
+        <v>0.7735130742380844</v>
       </c>
       <c r="EA6">
-        <v>0.7987693514159673</v>
+        <v>0.7988868378454133</v>
       </c>
       <c r="EB6">
-        <v>0.7994515389621364</v>
+        <v>0.7995659402066531</v>
       </c>
       <c r="EC6">
-        <v>0.8085566672436572</v>
+        <v>0.8086733877550031</v>
       </c>
       <c r="ED6">
-        <v>0.809531510616733</v>
+        <v>0.8096453337213079</v>
       </c>
       <c r="EE6">
-        <v>0.8110802117945261</v>
+        <v>0.8111915056994584</v>
       </c>
       <c r="EF6">
-        <v>0.8199667820932931</v>
+        <v>0.8200802550306506</v>
       </c>
       <c r="EG6">
-        <v>0.826160363104562</v>
+        <v>0.8262742871587452</v>
       </c>
       <c r="EH6">
-        <v>0.8373434392221134</v>
+        <v>0.8374610158267365</v>
       </c>
       <c r="EI6">
-        <v>0.8403085055881421</v>
+        <v>0.8404244617822941</v>
       </c>
       <c r="EJ6">
-        <v>0.8465456090959766</v>
+        <v>0.846662044332502</v>
       </c>
       <c r="EK6">
-        <v>0.8552044264127155</v>
+        <v>0.8553228945474307</v>
       </c>
       <c r="EL6">
-        <v>0.8552092288443366</v>
+        <v>0.8553241771602709</v>
       </c>
       <c r="EM6">
-        <v>0.8590050362448122</v>
+        <v>0.8591188971826195</v>
       </c>
       <c r="EN6">
-        <v>0.8594371364707154</v>
+        <v>0.8595477517588698</v>
       </c>
       <c r="EO6">
-        <v>0.8632904437666536</v>
+        <v>0.8634000085706141</v>
       </c>
       <c r="EP6">
-        <v>0.8673484049464428</v>
+        <v>0.8674570505792598</v>
       </c>
       <c r="EQ6">
-        <v>0.8677957365511442</v>
+        <v>0.8679011463072906</v>
       </c>
       <c r="ER6">
-        <v>0.8683821309048723</v>
+        <v>0.8684843940118451</v>
       </c>
       <c r="ES6">
-        <v>0.8723517345916336</v>
+        <v>0.8724530218342221</v>
       </c>
       <c r="ET6">
-        <v>0.8810692959037371</v>
+        <v>0.8811726537367061</v>
       </c>
       <c r="EU6">
-        <v>0.8810761984981924</v>
+        <v>0.881176037859918</v>
       </c>
       <c r="EV6">
-        <v>0.8848457538007395</v>
+        <v>0.884944488940079</v>
       </c>
       <c r="EW6">
-        <v>0.8852845233161165</v>
+        <v>0.8853800170850512</v>
       </c>
       <c r="EX6">
-        <v>0.8853856361081378</v>
+        <v>0.8854776718543689</v>
       </c>
       <c r="EY6">
-        <v>0.9193206834303473</v>
+        <v>0.9194309701831455</v>
       </c>
       <c r="EZ6">
-        <v>0.9320961214222466</v>
+        <v>0.9322110824402517</v>
       </c>
       <c r="FA6">
-        <v>0.9334608274145586</v>
+        <v>0.9335731411752102</v>
       </c>
       <c r="FB6">
-        <v>0.9353085798687538</v>
+        <v>0.935418556311464</v>
       </c>
       <c r="FC6">
-        <v>0.935733648465212</v>
+        <v>0.935840374746531</v>
       </c>
       <c r="FD6">
-        <v>0.936099637956332</v>
+        <v>0.9362030761690511</v>
       </c>
       <c r="FE6">
-        <v>0.939983667949846</v>
+        <v>0.9400860753911225</v>
       </c>
       <c r="FF6">
-        <v>0.9408532790412256</v>
+        <v>0.9409527215550388</v>
       </c>
       <c r="FG6">
-        <v>0.9426366558005006</v>
+        <v>0.9427337196906873</v>
       </c>
       <c r="FH6">
-        <v>0.9434423672869224</v>
+        <v>0.9435364252494366</v>
       </c>
       <c r="FI6">
-        <v>0.943483571271671</v>
+        <v>0.943574132771907</v>
       </c>
       <c r="FJ6">
-        <v>0.9434942707488267</v>
+        <v>0.9435813162140314</v>
       </c>
       <c r="FK6">
-        <v>0.9435645754432791</v>
+        <v>0.9436481431182331</v>
       </c>
       <c r="FL6">
-        <v>0.9446628450566155</v>
+        <v>0.9447435945193674</v>
       </c>
       <c r="FM6">
-        <v>0.9494251239808275</v>
+        <v>0.9495054061871997</v>
       </c>
       <c r="FN6">
-        <v>0.9515341936144023</v>
+        <v>0.9516123061730251</v>
       </c>
       <c r="FO6">
-        <v>0.9525971245305271</v>
+        <v>0.9526723962024105</v>
       </c>
       <c r="FP6">
-        <v>0.952955373402258</v>
+        <v>0.9530273520388907</v>
       </c>
       <c r="FQ6">
-        <v>0.9534269927850428</v>
+        <v>0.9534957511288882</v>
       </c>
       <c r="FR6">
-        <v>0.9545983590926111</v>
+        <v>0.9546643461256361</v>
       </c>
       <c r="FS6">
-        <v>0.9549915160615874</v>
+        <v>0.9550542324576111</v>
       </c>
       <c r="FT6">
-        <v>0.9552150590039478</v>
+        <v>0.9552743959327109</v>
       </c>
       <c r="FU6">
-        <v>0.9555234775996106</v>
+        <v>0.9555794895202847</v>
       </c>
       <c r="FV6">
-        <v>0.9566859111078838</v>
+        <v>0.9567391459861427</v>
       </c>
       <c r="FW6">
-        <v>0.9593216010999034</v>
+        <v>0.9593730042283527</v>
       </c>
       <c r="FX6">
-        <v>0.9611357851567475</v>
+        <v>0.9611848294286039</v>
       </c>
       <c r="FY6">
-        <v>0.9611507360995677</v>
+        <v>0.9611962670642811</v>
       </c>
       <c r="FZ6">
-        <v>0.9626963629776034</v>
+        <v>0.9627393627700965</v>
       </c>
       <c r="GA6">
-        <v>0.9661773184029236</v>
+        <v>0.9662190287973108</v>
       </c>
       <c r="GB6">
-        <v>0.9706106314530941</v>
+        <v>0.9706516635151541</v>
       </c>
       <c r="GC6">
-        <v>0.9715530895487254</v>
+        <v>0.9715912034244939</v>
       </c>
       <c r="GD6">
-        <v>0.9729512728383958</v>
+        <v>0.9729867609370091</v>
       </c>
       <c r="GE6">
-        <v>0.9764626195613179</v>
+        <v>0.9764968377619389</v>
       </c>
       <c r="GF6">
-        <v>0.9800310140797384</v>
+        <v>0.980063998986217</v>
       </c>
       <c r="GG6">
-        <v>0.9807602796221926</v>
+        <v>0.9807902095506218</v>
       </c>
       <c r="GH6">
-        <v>0.9809842571845186</v>
+        <v>0.9810108079245546</v>
       </c>
       <c r="GI6">
-        <v>0.9812179034460818</v>
+        <v>0.9812410812014982</v>
       </c>
       <c r="GJ6">
-        <v>0.9823694655552129</v>
+        <v>0.9823898592927462</v>
       </c>
       <c r="GK6">
-        <v>0.9831058099271085</v>
+        <v>0.9831231532286158</v>
       </c>
       <c r="GL6">
-        <v>0.9850169321763032</v>
+        <v>0.9850319788201338</v>
       </c>
       <c r="GM6">
-        <v>0.9857669878171168</v>
+        <v>0.9857789928225484</v>
       </c>
       <c r="GN6">
-        <v>0.9875948107728846</v>
+        <v>0.9876044656729154</v>
       </c>
       <c r="GO6">
-        <v>0.9880277025987254</v>
+        <v>0.9880341123570212</v>
       </c>
       <c r="GP6">
-        <v>0.9960471869659137</v>
+        <v>0.9960552194041402</v>
       </c>
       <c r="GQ6">
-        <v>0.9994803082950084</v>
+        <v>0.9994870206431091</v>
       </c>
       <c r="GR6">
-        <v>0.9994969551696948</v>
+        <v>0.9995001552988213</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0008021874661235709</v>
+        <v>0.0150162973581609</v>
       </c>
       <c r="F2">
-        <v>0.5905513628895194</v>
+        <v>0.5906177970863545</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>103</v>
       </c>
       <c r="E3">
-        <v>0.001593880162366639</v>
+        <v>0.07049692180486893</v>
       </c>
       <c r="F3">
-        <v>0.5815743103439014</v>
+        <v>0.5817039460368213</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>103</v>
       </c>
       <c r="E4">
-        <v>0.001712497033928857</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="F4">
-        <v>0.512202049115194</v>
+        <v>0.5123039566652021</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>103</v>
       </c>
       <c r="E5">
-        <v>0.001840892073265899</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="F5">
-        <v>0.5214933277316857</v>
+        <v>0.5215306954359643</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>103</v>
       </c>
       <c r="E6">
-        <v>0.00224962135052258</v>
+        <v>0.05869643913727024</v>
       </c>
       <c r="F6">
-        <v>0.5210741285204498</v>
+        <v>0.5211020281466582</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>112</v>
       </c>
       <c r="E2">
-        <v>0.0008021874661235709</v>
+        <v>0.0150162973581609</v>
       </c>
       <c r="F2">
-        <v>0.7053131034042794</v>
+        <v>0.7054301219699122</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.001593880162366639</v>
+        <v>0.07049692180486893</v>
       </c>
       <c r="F3">
-        <v>0.7069876813734775</v>
+        <v>0.7072048645456591</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>111</v>
       </c>
       <c r="E4">
-        <v>0.001712497033928857</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="F4">
-        <v>0.7039711308465147</v>
+        <v>0.7043039642268388</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>111</v>
       </c>
       <c r="E5">
-        <v>0.001840892073265899</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="F5">
-        <v>0.7060172734136977</v>
+        <v>0.706145486551117</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.00224962135052258</v>
+        <v>0.05869643913727024</v>
       </c>
       <c r="F6">
-        <v>0.7088082255314856</v>
+        <v>0.7089248757827674</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0008021874661235709</v>
+        <v>0.0150162973581609</v>
       </c>
       <c r="F2">
-        <v>0.8052515799022626</v>
+        <v>0.8053661857817578</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>128</v>
       </c>
       <c r="E3">
-        <v>0.001593880162366639</v>
+        <v>0.07049692180486893</v>
       </c>
       <c r="F3">
-        <v>0.8132251540245971</v>
+        <v>0.8134452330805618</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.001712497033928857</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="F4">
-        <v>0.805124684229978</v>
+        <v>0.8054564081922152</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.001840892073265899</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="F5">
-        <v>0.819082078905402</v>
+        <v>0.8192141396884196</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.00224962135052258</v>
+        <v>0.05869643913727024</v>
       </c>
       <c r="F6">
-        <v>0.8085566672436572</v>
+        <v>0.8086733877550031</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.0008021874661235709</v>
+        <v>0.0150162973581609</v>
       </c>
       <c r="F2">
-        <v>0.9060332102467868</v>
+        <v>0.9061315576801408</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.001593880162366639</v>
+        <v>0.07049692180486893</v>
       </c>
       <c r="F3">
-        <v>0.9174459600224636</v>
+        <v>0.9176314374416397</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.001712497033928857</v>
+        <v>0.001146359808606139</v>
       </c>
       <c r="F4">
-        <v>0.9011491756601712</v>
+        <v>0.9014477716605483</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.001840892073265899</v>
+        <v>0.001604698923710603</v>
       </c>
       <c r="F5">
-        <v>0.9009430370290585</v>
+        <v>0.9010439090168929</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>154</v>
       </c>
       <c r="E6">
-        <v>0.00224962135052258</v>
+        <v>0.05869643913727024</v>
       </c>
       <c r="F6">
-        <v>0.9193206834303473</v>
+        <v>0.9194309701831455</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>59</v>

--- a/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
@@ -1994,22 +1994,22 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.262076100226829E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.301984940060831E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.762892809257042E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.276823003183987E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.276823003183987E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.730989753238558E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2024,28 +2024,28 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.110325815040068E-07</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.328519552905316E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.729500470311226E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.715559569317768E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.333915684354478E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.404612073969242E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.34092701182821E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>7.874219985192589E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -2069,34 +2069,34 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>4.837046750857019E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.3773913783113E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.301984940060831E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.316624772350748E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.625603198112142E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.113536163868488E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>6.047939940362457E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.625603198112142E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.007373166290956E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2108,40 +2108,40 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.294484860008595E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.259842496047769E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.984154241800785E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.021788680530959E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.642950377249478E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.513958342506509E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.409830418076655E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.167019062581654E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.201846448656775E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.26885307302858E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>7.555477915426451E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>8.175542157826621E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2156,37 +2156,37 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.117967158324831E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.184675015510593E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.439090129485893E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.797108521624812E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.61404119719063E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.831265465207587E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.848444103108607E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.935345958333081E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.829956071009217E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>4.313470190326911E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>4.210767406489549E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
@@ -2204,34 +2204,34 @@
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.085361638682757E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.729500470311226E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.068471821402447E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.195779144235555E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>8.555630015813008E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>7.31214731723157E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>9.866186983412017E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>9.202524966480642E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.289787559790751E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.34092701182821E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -2240,358 +2240,358 @@
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>4.416843416656319E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.359671283047219E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.625603198112142E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>4.520887585807992E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>5.598224127926114E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.127629765645665E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>6.210267906820368E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01441743423790135</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.05929815851593833</v>
+        <v>0.07982865984379631</v>
       </c>
       <c r="CP2">
-        <v>0.1723055834164066</v>
+        <v>0.3879103338938601</v>
       </c>
       <c r="CQ2">
-        <v>0.04049322726130462</v>
+        <v>0.02856251776130457</v>
       </c>
       <c r="CR2">
-        <v>0.006704713842438023</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.003758801740449826</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.004392267227671582</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.003142118329398346</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0428558545953458</v>
+        <v>0.03500352979984036</v>
       </c>
       <c r="CW2">
-        <v>0.01297325808163778</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.08261522177769809</v>
+        <v>0.1433958094354372</v>
       </c>
       <c r="CY2">
-        <v>8.827018962517913E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.03893682003253317</v>
+        <v>0.02431942891147144</v>
       </c>
       <c r="DA2">
-        <v>0.003922297147418475</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.1041149075703277</v>
+        <v>0.2020084111859639</v>
       </c>
       <c r="DC2">
-        <v>0.008548083466390384</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01935452571827988</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>8.213767216365269E-05</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.007965618039208269</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01208767459653735</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0004544125435788986</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.06631987284739919</v>
+        <v>0.09897130916832601</v>
       </c>
       <c r="DJ2">
-        <v>0.003103208048613016</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.003970638352613918</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>2.433590799928684E-05</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.006334968810716976</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002133604710409511</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0008195126696622232</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0005891016884145305</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0100363046924</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>6.74842709188267E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0003273553858547625</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01176762236206249</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.004723694069387214</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.007508085667843031</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0006486939092803199</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01008123934927355</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.007225103799810045</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0002464017064263154</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0244538812929607</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.005874827117199116</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01062830741419656</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.004242995508336777</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>4.783375457803587E-05</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.009362565024218797</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001111442983669556</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01357249707937646</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.005482200483620837</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003410067375769032</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.008693560481220216</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.002354056708728468</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0006430933128866985</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0007445902608723994</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.00345780448225933</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.002977922760322707</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0004145588801610308</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0005059531003463806</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.004022132838974932</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.008994069817382174</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001794722748314426</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.002427536305262202</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0006816248637102535</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0006505661049294489</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01454526960924647</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0260176173587646</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>2.95474626253416E-05</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.004012842807554191</v>
+        <v>0</v>
       </c>
       <c r="FC2">
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0001404542711189807</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.005000176247624935</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.004250708198712427</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.00194692209988651</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.001734657505253989</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0004235948839235168</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>8.239902065365616E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0007829086510099018</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.003544034594133192</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.003774544230493259</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.002465608733064563</v>
+        <v>0</v>
       </c>
       <c r="FP2">
         <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0007924181272642324</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0002102989486061432</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0005707259104010361</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0002452447928633635</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>5.022502981969609E-05</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0006646934289633156</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001791617698981866</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.002904383824625125</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>2.452983699242237E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001464711140653271</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.004655945055037723</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.004033225660236967</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001454903067324871</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0006856864843798967</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.003378533163188719</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.002940045161107214</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001736184813277284</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>6.135740888988577E-06</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>9.984766075612905E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0007586818913485179</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0007821179291334631</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0004573724671284422</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0005099044682491976</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0002195023928793663</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001250631729942137</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.004375284419017866</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.004042539507376082</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001413348222827491</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0005412696392620756</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,28 +2767,28 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.38857280869746E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.089311588845593E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.0778243186254E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.45705142492333E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.73827350576781E-08</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.081063600394267E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.409728525500093E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.726146748828044E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.0778243186254E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3.687506435419467E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3.791945244124189E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.392182357128896E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5.361825960765228E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,58 +2833,58 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.008173255160181E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.38857280869746E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001129547678216542</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.007105589177869E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>9.724588230960315E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.298363171409844E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.51214187646797E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.05924676980768E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.055540186631672E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.046379160927782E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.768281222492187E-07</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.766863453697537E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.321015437877403E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2893,43 +2893,43 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.534727818276026E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.441991709222386E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.603840628940456E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.095483854810618E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.497104562050329E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.678170808771817E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>8.971252915902917E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>4.178354201308488E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.242937976243609E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>3.687506435419467E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>2.58252715019176E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>3.559955701822036E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -2938,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.200017617563532E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>3.469818143661507E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>9.702315937967982E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>3.808982733476929E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.468702585092215E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2971,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.766863453697537E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.569365853258899E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2986,25 +2986,25 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.444416676792147E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.910626029102578E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.693315254874559E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>2.657888910675158E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>5.214915524012167E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.298585326032187E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -3016,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>4.081063600394267E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.663076914561691E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -3028,340 +3028,340 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001254449192332656</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.06914949132152222</v>
+        <v>0.1029766810262862</v>
       </c>
       <c r="CM3">
-        <v>0.0006690673794919065</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1892130031232177</v>
+        <v>0.4189863623650377</v>
       </c>
       <c r="CO3">
-        <v>0.001646399632269318</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.006527953453255347</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.001271530420884634</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.008914911217225928</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0152536981196096</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.03069176863418575</v>
+        <v>0.001755148280251261</v>
       </c>
       <c r="CU3">
-        <v>0.05126101240952262</v>
+        <v>0.0558938293273228</v>
       </c>
       <c r="CV3">
-        <v>0.04444596962013041</v>
+        <v>0.03795649376326866</v>
       </c>
       <c r="CW3">
-        <v>0.0003579931350258869</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.05005354892203615</v>
+        <v>0.05271576010226962</v>
       </c>
       <c r="CY3">
-        <v>0.006082158334887194</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.1048180098302098</v>
+        <v>0.1968569698718484</v>
       </c>
       <c r="DA3">
-        <v>0.0001473181125411091</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01505362924456545</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.002622360777575141</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.00756471971633477</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01999649870738912</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.005580257122395241</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.074536134828037</v>
+        <v>0.117154439717792</v>
       </c>
       <c r="DH3">
-        <v>5.75045476667244E-06</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005426663755469257</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0005867965667163201</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.00467983682140626</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0004309609981216403</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0003934474696701873</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.003768631749615891</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.006763532780549736</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>4.626842584371327E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.00232349658699454</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.01830541076890319</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0008440821359393377</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01083483305868172</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>6.622320685968637E-05</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01545433507780344</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0003067634666590046</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>1.177322376982114E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.03599156198713219</v>
+        <v>0.01570431554592331</v>
       </c>
       <c r="DZ3">
-        <v>6.514889005015572E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01397139881152844</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.00261392141438559</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002559276620318027</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.006900525906968413</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003046365427554376</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.009695816833796438</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003041106429078256</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001542050715840971</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.005987936614245203</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0002576737950452532</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0004410972331870139</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.002470034611458301</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.007274783991017619</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001264947163027507</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>6.521370628542852E-06</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0008600650827812942</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.008296961878813068</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.005701909501203416</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>9.22118247402082E-05</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004662469993980838</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0006583889178191475</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>8.092289641017109E-05</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0226946684371997</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.02149147633438233</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0003460962826486159</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.003774855438367524</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0008138164375428017</v>
+        <v>0</v>
       </c>
       <c r="FB3">
         <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.006748368614203737</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003273496182205511</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0008067338471099445</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001251404160841716</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>6.541670897209399E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.51214187646797E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>6.671199861503594E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0006356784350154572</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002752177337092075</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.00332790903818359</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001310395917160413</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0007281935738141321</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0008040213827063409</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.000497823363791723</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0005223374180006201</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>1.939442009331939E-05</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0002365672587274557</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0008703708218462037</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00241818558730926</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001986137880958028</v>
+        <v>0</v>
       </c>
       <c r="FW3">
         <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002220482440736753</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.006143761571947571</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.002936880839247339</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0002999587614813953</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.001830619838310627</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001899266705810584</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001791381859673618</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0005311285222600157</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0007575600191078334</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>1.124340690130216E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0006398581355688254</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>2.055540186631672E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0009528577965166684</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>1.987567010690728E-05</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>3.881458701631845E-06</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001052632717639524</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0034649169798104</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001985868704642696</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>6.894427009017246E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0007959112875175425</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0001782863120703105</v>
+        <v>0</v>
       </c>
       <c r="GS3">
         <v>0</v>
@@ -3540,13 +3540,13 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.963634981604152E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.272905225562494E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.408103659216007E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.041051154423741E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.666452455716001E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.133093171158465E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.790814342266989E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3.273573692727241E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3597,40 +3597,40 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.3213611626125E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2.67580832647067E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>5.126443495680334E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.052068261538111E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.518700873105863E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>4.275920421063994E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>9.027221453615511E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.978899438468853E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>3.811311232883843E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.584696886820242E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>3.169399286908913E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>3.371970113295429E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.292626583316504E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.959375715161879E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3684,43 +3684,43 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.739045955186629E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.60885829841384E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>4.383388262449443E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.256872945839524E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>7.249987288465506E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>4.430805541591295E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.895589011330446E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.618747218808321E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.581135614213199E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>7.952099334403776E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3.451235421176864E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.028980361006629E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>8.824391114682486E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.160675122628602E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.537773595221257E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.017953137810747E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.625256666863235E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>4.203772728038868E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3780,343 +3780,343 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.167321788818877E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>2.585772496714868E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.312911933143441E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.183710032164418E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>6.272548355995748E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.891845253130468E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>5.234575392713534E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0005320586814877649</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1277974632685581</v>
+        <v>0.2715348899257501</v>
       </c>
       <c r="CO4">
-        <v>0.0764030316563645</v>
+        <v>0.1287819817280735</v>
       </c>
       <c r="CP4">
-        <v>0.1014035649478368</v>
+        <v>0.1982233340671808</v>
       </c>
       <c r="CQ4">
-        <v>0.006058379921918403</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.005843404576095272</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.001128001911097812</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0008075597348919333</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.03898194143350953</v>
+        <v>0.02484135451092611</v>
       </c>
       <c r="CV4">
-        <v>0.002715914311865334</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.1035989008684058</v>
+        <v>0.2043210877984956</v>
       </c>
       <c r="CX4">
-        <v>0.005232021962531323</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.00647934613095289</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.03417600745108062</v>
+        <v>0.01149241706621283</v>
       </c>
       <c r="DA4">
-        <v>0.05861108584016796</v>
+        <v>0.07936316478458678</v>
       </c>
       <c r="DB4">
-        <v>0.04387324913434632</v>
+        <v>0.03842742555560481</v>
       </c>
       <c r="DC4">
-        <v>0.01636156186705382</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.005279443648678999</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01325847890305409</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0006100518770951815</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.009433683634629316</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.04457245265661106</v>
+        <v>0.0403695296531559</v>
       </c>
       <c r="DI4">
-        <v>0.03047159455424085</v>
+        <v>0.001203058908131898</v>
       </c>
       <c r="DJ4">
-        <v>0.006011987171467489</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0005347064506404243</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001664569591531047</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.002783540316773042</v>
+        <v>0</v>
       </c>
       <c r="DN4">
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.000200851842722057</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.008136831030965783</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002156593460767935</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0001510726288178162</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.006731235258531747</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01144720953221425</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.00216147572208776</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.005033750470787406</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.002970818332212436</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01127960809658947</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001035111543489614</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.008381487961537345</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01980393820496597</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.007312482566067568</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.008447494892607018</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.000337979464193098</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.006348833154768564</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.001560100116642081</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.01002813964000234</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.008581286580952684</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001339184026831612</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.003174779068135012</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.004953977856442028</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>9.027221453615511E-05</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001340948131224393</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.003300565831068776</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.003618458584462953</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.000185093802200527</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>8.303650594650494E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002664243370686505</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.009576953390237163</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.003243596066362118</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0005300770512947099</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00245870672955096</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0008081200956962419</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.00198555115519996</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.03055753116748139</v>
+        <v>0.001441756001881549</v>
       </c>
       <c r="EZ4">
-        <v>0.003912233798258742</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004622763325448003</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0005083188022552113</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001933856175807638</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.001942244911361656</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004782701679088603</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0009957183201712188</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0009467839292802194</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.000785530985839173</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>9.067149026388033E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
         <v>0</v>
       </c>
       <c r="FK4">
-        <v>3.043034404940621E-05</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001895220356532744</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.003976554448651822</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.002333294161473917</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.000398096482081051</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0008056847241916458</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>5.452051113376919E-06</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0006551772227555554</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>1.724692539846586E-05</v>
+        <v>0</v>
       </c>
       <c r="FT4">
         <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0004241308688871272</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001099142232932425</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003732295150195137</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001043106853616117</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001948442624852836</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.002725282304141559</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.003506902343758329</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001533546003628423</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0001376899544104485</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002984795451607662</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001365069877510141</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001732308776360622</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>2.036251724781246E-05</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0004550160870488854</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0002271671160528088</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0009024995304711612</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>3.316239017698265E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0006044074541687666</v>
+        <v>0</v>
       </c>
       <c r="GM4">
         <v>0</v>
@@ -4125,19 +4125,19 @@
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.002433362640109049</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.005343697793348079</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0009304330663502419</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0001983875652657342</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>2.825610767073142E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4319,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001204354611690334</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.351464168623593E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.525774301599701E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.726353067225012E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4346,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001041746213544936</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.309045990405434E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.568328600819681E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>2.894780515594231E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4376,67 +4376,67 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.174685556293418E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.690899538827669E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>2.815586240602144E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.273976572746755E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.927770453704294E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.31329441776666E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>8.44673290499332E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.087029963839595E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.276265910140353E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001086090592665333</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.607613952913082E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.54809813285742E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.797992236098104E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>9.336781546029549E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.629490646503273E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.36085629933277E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4445,40 +4445,40 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.483759092872602E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.447919452433254E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>9.655778291534214E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.36085629933277E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>2.07716444601453E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.693466464057966E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>5.316393482492325E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>4.087029963839595E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.968047283847776E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.204592479542333E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.076805265628872E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -4493,79 +4493,79 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>9.146270476367797E-07</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.88307058954622E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>2.461356950026837E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.850953319758323E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>8.641795939105849E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.177092809891645E-08</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.009718868791098E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.772102375417709E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>4.70583806042854E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.309778388552944E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.065452918923846E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>8.061275877464539E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>3.530675039658766E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.714888214897596E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>8.62711337713919E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>8.510815938842946E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>5.61469905294227E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>6.039537227303942E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>3.039781847199686E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>4.332402661943241E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.26269172352853E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.404752886830453E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,322 +4574,322 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>9.947661379365028E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>8.047745866092381E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1398146007132668</v>
+        <v>0.2965451283029447</v>
       </c>
       <c r="CO5">
-        <v>0.06875525356422577</v>
+        <v>0.1046275716746307</v>
       </c>
       <c r="CP5">
-        <v>0.1147867614212587</v>
+        <v>0.2289497737532633</v>
       </c>
       <c r="CQ5">
-        <v>0.00703189874724146</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.009977820968691134</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.001081705104631729</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.000150679147262863</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02900773813508346</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.002423373461413933</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.1016592972065196</v>
+        <v>0.1934950312331253</v>
       </c>
       <c r="CX5">
-        <v>0.005235642441661979</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.006186048590312018</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.03373469955202337</v>
+        <v>0.01004382685503762</v>
       </c>
       <c r="DA5">
-        <v>0.05536652720343614</v>
+        <v>0.06846721061560686</v>
       </c>
       <c r="DB5">
-        <v>0.04861362840192466</v>
+        <v>0.05022893669189488</v>
       </c>
       <c r="DC5">
-        <v>0.0133697629589411</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.004588490486235</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01201480454705742</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001013859720564802</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.006070255180262393</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0435774626167312</v>
+        <v>0.03662722669810291</v>
       </c>
       <c r="DI5">
-        <v>0.02363668025259356</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.00513315089440355</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0001510259731319862</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.002684541246011913</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003183116441348255</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0001145544151585751</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0002380265619584082</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01001129827066589</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001571080608701602</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0001853088297213456</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.007478751058231915</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01161790006441389</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001265216815986081</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.004223298156018821</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001952525523356037</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01105593208475049</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.000464840103476829</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.008544395455384582</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.01955701038198871</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.006535477154431163</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.006418680090755656</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>4.221171422991442E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.007587386206488813</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001855048741946168</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01012891336708233</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.006786015716785671</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.00163143691553341</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.004192788186508856</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.004345985655820065</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0004012406345471501</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001333700215558354</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.00221630931161717</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.004796601117549159</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0005277251971721577</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>6.955664652056022E-05</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.002631068622154347</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.009574581360319336</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.003490804121864268</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0005927277598616957</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002802993787811705</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0004414949200084874</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003427021883906905</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.03409439480228563</v>
+        <v>0.01101529417539386</v>
       </c>
       <c r="EZ5">
-        <v>0.004406921339969306</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.003452972384078555</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0003444352802606542</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001698679206838305</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001918125320345235</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.004539180773458583</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001494368350113937</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.001264223168876908</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0007328835358161342</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>2.245567017594929E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>1.733559674619844E-05</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>6.328612686676623E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001874526026458966</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.004272692223731092</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.00202871434105467</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0001652185459949734</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001296213902729424</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0001989717876744918</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001174469717258308</v>
+        <v>0</v>
       </c>
       <c r="FS5">
         <v>0</v>
       </c>
       <c r="FT5">
-        <v>5.023992357291509E-06</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0005354713318150054</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.00146963374178756</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.003510624629900174</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0006605448955319539</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0005131301221810801</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.00327352752124495</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.00453946325742527</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.00226408622616415</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>8.90954010654995E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002277192661684025</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001362422320727977</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.001563174259719731</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>2.784181288237753E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0003209763126908181</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>9.234825347415031E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0007208177780339622</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>3.725055429201429E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.000964629519570153</v>
+        <v>0</v>
       </c>
       <c r="GM5">
         <v>0</v>
@@ -4898,19 +4898,19 @@
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.00270483196026796</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.005382059695381713</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0006729342540579683</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0005899034205206678</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0003392490627548073</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,19 +5086,19 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.745327557153494E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.475657609751521E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.216010582983925E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5107,73 +5107,73 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.660365467659616E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.428192672362255E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.500029985966336E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.299794795264312E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.878997903654163E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001191545037540171</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>8.155580405472338E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.166835187932145E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>9.905153134394338E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5.599030137344296E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.040931337395603E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.367226584290567E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001114533502018197</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001232736747378132</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.172443994999919E-07</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.262162022725405E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.533832458235315E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.044296494947839E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.738963426826376E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.093370008160637E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5197,22 +5197,22 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.935830196872042E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.475096399934937E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.785452583092947E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.183232762158577E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.666217936455762E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>6.072628932604242E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5221,31 +5221,31 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.275064434023367E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>6.665858778653714E-07</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.551056935095815E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>3.075023684504238E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.031133605633831E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1.289825214334392E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>4.320024760088872E-07</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.862600746212954E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -5254,19 +5254,19 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>2.015621854854225E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1.084664276528734E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.421938317923343E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>9.698053703734661E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3.959492656916013E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5275,415 +5275,415 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>6.07306871456802E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>3.331517083834967E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>9.269143860550288E-07</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.984530709925841E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4.973125341930949E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0001679821493301332</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>7.103221041060138E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.525740514624223E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>4.236927032438326E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>4.93788739931806E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>3.850042933828685E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.005872904368298E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.945433353883286E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.715892129284988E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>6.032673665504734E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.020008467306646E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>3.921407038531486E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.00010259298542773</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.571890859169525E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>7.999221506825384E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001099003605110302</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4.132970281139617E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0004210335018114757</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05628145990663339</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="CO6">
-        <v>0.01542488493854893</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.2273557672568557</v>
+        <v>0.5475552880943301</v>
       </c>
       <c r="CQ6">
-        <v>0.009386117215872992</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02745339595215631</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.004496748023736321</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0001026858449641104</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0152904797654122</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01768128161485421</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0593988526057981</v>
+        <v>0.08152874695112572</v>
       </c>
       <c r="CX6">
-        <v>0.03574923978675395</v>
+        <v>0.01590866048828042</v>
       </c>
       <c r="CY6">
-        <v>0.0001902389891804571</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.04987589701525462</v>
+        <v>0.05510560108338056</v>
       </c>
       <c r="DA6">
-        <v>0.002414713939046604</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.1014144907008246</v>
+        <v>0.1981086599367239</v>
       </c>
       <c r="DC6">
-        <v>2.020008467306646E-05</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01795408852350162</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.003563688397694512</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.000433095485285767</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.009817099537815717</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.01570663057821451</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.03649884038905281</v>
+        <v>0.01798856161443511</v>
       </c>
       <c r="DJ6">
-        <v>0.0007264540204953843</v>
+        <v>0</v>
       </c>
       <c r="DK6">
         <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001022937986057464</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.008571800120951212</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001303950279041857</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002868733631272441</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003559019504259193</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.009126878006081005</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>4.191556743527399E-05</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003564225642145833</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.008188604437148419</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002356906175917563</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.005333129665220641</v>
+        <v>0</v>
       </c>
       <c r="DW6">
         <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01242990172154973</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.006287486545879986</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0001268993393126925</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.02537376360732888</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.000679102361239771</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.009107447548350014</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0009719459663047612</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001546171978150568</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.008888749331192235</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.006194032128094583</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01118672866799135</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.002963445955557671</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.006237582550207933</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.008660850214928658</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>1.282612840160402E-06</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.003794720022348599</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0004288545762502893</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.003852256811744322</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004057042008645768</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0004440957280308357</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0005832477045544128</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00396862782237705</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00871963190248398</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>3.384123211964367E-06</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.003768451080160952</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0004355281449721307</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>9.765476931766082E-05</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.03395329832877662</v>
+        <v>0.01092549925615316</v>
       </c>
       <c r="EZ6">
-        <v>0.01278011225710634</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001362058734958423</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001845415136253752</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0004218184350671108</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0003627014225200145</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.003882999222071435</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0008666461639162405</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001780998135648494</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0008027055587492949</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>3.770752247041427E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>7.183442124366E-06</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>6.682690420167993E-05</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001095451401134281</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.004761811667832293</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00210689998582532</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001060090029385484</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0003549558364801722</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0004683990899975463</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.00116859499674788</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0003898863319750314</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0002201634750998401</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0003050935875738275</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001159656465858016</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002633858242209968</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001811825200251231</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>1.143763567713877E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001543095705815498</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.003479666027214306</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.004432634717843256</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0009395399093397659</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001395557512515209</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003510076824929819</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.003567161224278155</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0007262105644048524</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0002205983739328323</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0002302732769436276</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001148778091248031</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0007332939358694659</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001908825591518007</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0007470140024145885</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001825472850366958</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0004296466841058796</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.008021107047119043</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.003431801238968866</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>1.313465571219045E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0004998447011780151</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.262076100226829E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.56406104028766E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.540350321213364E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.168032621531762E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.795714921850161E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.268813897174017E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.268813897174017E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.268813897174017E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.268813897174017E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.268813897174017E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.339917155324418E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.339917155324418E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.668436708229734E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.941386755260856E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8.612942712192633E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.54633428062808E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001095094635459732</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001108503905578014</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001108503905578014</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001108503905578014</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001116378125563207</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001116378125563207</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001116378125563207</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001116378125563207</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001116378125563207</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001164748593071777</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.000121852250685489</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001348721000860973</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001381887248584481</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001428143280565602</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001539496896952451</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001599976296356075</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001646232328337197</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001646232328337197</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001686306060000106</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001686306060000106</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001686306060000106</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001686306060000106</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001719250908600192</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.000173184933356067</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001771690875978678</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001831908762783987</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001996203800508935</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0002147599634759586</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0002388582676567252</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0002505284582825417</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0002725469227691095</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0002852354534993953</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0002927909314148217</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0003009664735726483</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0003009664735726483</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003009664735726483</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0003009664735726483</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0003009664735726483</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0003020844407309731</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003139311908860791</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.000328322092180938</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0003462931773971861</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0003624335893690924</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0003807462440211682</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003992306850522543</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0004185841446355851</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0004264141007065943</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0004307275708969213</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0004349383383034108</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004390236999420935</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0004417532004124047</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0004524379186264292</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0004643957100687847</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0004729513400845977</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0004802634874018293</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0004901296743852413</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0004993321993517219</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0005036219869115127</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0005049629139233409</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0005049629139233409</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0005049629139233409</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0005093797573399973</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0005107394286230445</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0005107394286230445</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0005153650318211567</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0005198859194069646</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0005254841435348907</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0005367604411913473</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0005988631202595509</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0150162973581609</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.07431445587409923</v>
+        <v>0.07982865984379631</v>
       </c>
       <c r="CP2">
-        <v>0.2466200392905058</v>
+        <v>0.4677389937376565</v>
       </c>
       <c r="CQ2">
-        <v>0.2871132665518104</v>
+        <v>0.4963015114989611</v>
       </c>
       <c r="CR2">
-        <v>0.2938179803942484</v>
+        <v>0.4963015114989611</v>
       </c>
       <c r="CS2">
-        <v>0.2975767821346983</v>
+        <v>0.4963015114989611</v>
       </c>
       <c r="CT2">
-        <v>0.3019690493623699</v>
+        <v>0.4963015114989611</v>
       </c>
       <c r="CU2">
-        <v>0.3051111676917683</v>
+        <v>0.4963015114989611</v>
       </c>
       <c r="CV2">
-        <v>0.3479670222871141</v>
+        <v>0.5313050412988014</v>
       </c>
       <c r="CW2">
-        <v>0.3609402803687519</v>
+        <v>0.5313050412988014</v>
       </c>
       <c r="CX2">
-        <v>0.44355550214645</v>
+        <v>0.6747008507342386</v>
       </c>
       <c r="CY2">
-        <v>0.4436437723360752</v>
+        <v>0.6747008507342386</v>
       </c>
       <c r="CZ2">
-        <v>0.4825805923686083</v>
+        <v>0.69902027964571</v>
       </c>
       <c r="DA2">
-        <v>0.4865028895160268</v>
+        <v>0.69902027964571</v>
       </c>
       <c r="DB2">
-        <v>0.5906177970863545</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DC2">
-        <v>0.5991658805527449</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DD2">
-        <v>0.6185204062710248</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DE2">
-        <v>0.6186025439431885</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DF2">
-        <v>0.6265681619823967</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DG2">
-        <v>0.6386558365789341</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DH2">
-        <v>0.639110249122513</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="DI2">
-        <v>0.7054301219699122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.7085333300185251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.7125039683711391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.7125283042791384</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7188632730898553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7209968778002648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.721816390469927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7224054921583415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7324417968507415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7325092811216604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7328366365075151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7446042588695776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7493279529389648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7568360386068078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7574847325160882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.7675659718653617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7747910756651717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.775037477371598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.7994913586645587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.8053661857817578</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.8159944931959543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.820237488704291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.8202853224588691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.8296478874830879</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.8307593304667575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.844331827546134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.8498140280297548</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.8532240954055238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.861917655886744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.8642717125954724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.8649148059083591</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.8656593961692315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.8691172006514908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8720951234118135</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8725096822919746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.873015635392321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8770377682312959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.886031838048678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8878265607969924</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8902540971022546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8909357219659648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8915862880708942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.9061315576801408</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.9321491750389054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.9321787225015307</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.9361915653090849</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.9361915653090849</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.9363320195802038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.9413321958278288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.9455829040265412</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.9475298261264278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9492644836316818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9496880785156053</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9496880785156053</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.949770477536259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9505533861872689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9540974207814021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9578719650118954</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.96033757374496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.96033757374496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9611299918722243</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9613402908208304</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9619110167312315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9621562615240948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9622064865539145</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9628711799828779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9646627976818597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9675671815064848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9675917113434772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9690564224841305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9737123675391682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9777455931994052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9792004962667301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9798861827511101</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9832647159142988</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.986204761075406</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9879409458886833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9879470816295723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9880469292903284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.988805611181677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9895877291108104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9900451015779388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.990555006046188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9907745084390673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9908995716120615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9952748560310795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9993173955384556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9994587303607383</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,598 +7418,598 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.38857280869746E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.38857280869746E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.147788439754305E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.147788439754305E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.755570871616845E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.212622296540175E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.212622296540175E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.220360570045943E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.220360570045943E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.220360570045943E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.62846693008537E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.269439782635379E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.542054457518183E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.149836889380723E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.149836889380723E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.149836889380723E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.83734332480019E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001262928856892438</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001502147092605328</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.000203832968868185</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000203832968868185</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000203832968868185</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002068411421233452</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002132297149320427</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003261844827536969</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003562555386454755</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003562555386454755</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004535014209550787</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004864850526691771</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004864850526691771</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0005016064714338568</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0005121989391319336</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0005121989391319336</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0005327543409982503</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0005432181326075282</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0005435949607297774</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0005435949607297774</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0005612635952667528</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0005612635952667528</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0005665846107046302</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0005665846107046302</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0005665846107046302</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0005721193385229062</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.00060653925561513</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0006325776619045345</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0006835325004526406</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0007085035460731439</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0007252852541608621</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0008149977833198912</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0008567813253329761</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0008567813253329761</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0008892107050954122</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0009260857694496068</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0009519110409515243</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0009875105979697447</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0009875105979697447</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0009875105979697447</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00101951077414538</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001022980592289042</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001022980592289042</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001032682908227009</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001032682908227009</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001032682908227009</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001032682908227009</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001070772735561779</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001085459761412701</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001085459761412701</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001085459761412701</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001103128395949676</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001107697761802935</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001107697761802935</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001107697761802935</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001107697761802935</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001132141928570857</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001151248188861883</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001168181341410628</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00119476023051738</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001199975146041392</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001199975146041392</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001201273731367424</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001201273731367424</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001201273731367424</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001201273731367424</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001205354794967818</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001221985564113435</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001221985564113435</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001221985564113435</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.001347430483346701</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.07049692180486893</v>
+        <v>0.1029766810262862</v>
       </c>
       <c r="CM3">
-        <v>0.07116598918436083</v>
+        <v>0.1029766810262862</v>
       </c>
       <c r="CN3">
-        <v>0.2603789923075785</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CO3">
-        <v>0.2620253919398479</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CP3">
-        <v>0.2685533453931032</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CQ3">
-        <v>0.2698248758139878</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CR3">
-        <v>0.2787397870312138</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CS3">
-        <v>0.2939934851508234</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="CT3">
-        <v>0.3246852537850091</v>
+        <v>0.5237181916715752</v>
       </c>
       <c r="CU3">
-        <v>0.3759462661945318</v>
+        <v>0.579612020998898</v>
       </c>
       <c r="CV3">
-        <v>0.4203922358146622</v>
+        <v>0.6175685147621667</v>
       </c>
       <c r="CW3">
-        <v>0.4207502289496881</v>
+        <v>0.6175685147621667</v>
       </c>
       <c r="CX3">
-        <v>0.4708037778717242</v>
+        <v>0.6702842748644363</v>
       </c>
       <c r="CY3">
-        <v>0.4768859362066114</v>
+        <v>0.6702842748644363</v>
       </c>
       <c r="CZ3">
-        <v>0.5817039460368213</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DA3">
-        <v>0.5818512641493624</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DB3">
-        <v>0.5969048933939278</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DC3">
-        <v>0.599527254171503</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DD3">
-        <v>0.6070919738878378</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DE3">
-        <v>0.6270884725952268</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DF3">
-        <v>0.6326687297176221</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="DG3">
-        <v>0.7072048645456591</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DH3">
-        <v>0.7072106150004258</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DI3">
-        <v>0.7126372787558951</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DJ3">
-        <v>0.7132240753226115</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DK3">
-        <v>0.7179039121440177</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DL3">
-        <v>0.7183348731421394</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DM3">
-        <v>0.7187283206118096</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DN3">
-        <v>0.7224969523614254</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DO3">
-        <v>0.7292604851419752</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DP3">
-        <v>0.7293067535678189</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DQ3">
-        <v>0.7316302501548134</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DR3">
-        <v>0.7499356609237167</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DS3">
-        <v>0.750779743059656</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DT3">
-        <v>0.7616145761183377</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DU3">
-        <v>0.7616807993251974</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DV3">
-        <v>0.7771351344030009</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DW3">
-        <v>0.7774418978696599</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DX3">
-        <v>0.7774536710934297</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="DY3">
-        <v>0.8134452330805618</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.813510381970612</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8274817807821404</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.830095702196526</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.832654978816844</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8395555047238125</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8426018701513669</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8522976869851633</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8553387934142416</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8568808441300826</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8628687807443278</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8631264545393731</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8635675517725601</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8660375863840184</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8733123703750361</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8745773175380636</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8745838389086921</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8754439039914733</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8837408658702863</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8894427753714897</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8895349871962299</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8941974571902107</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8948558461080298</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.89493676900444</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.9176314374416397</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.939122913776022</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9394690100586706</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.9432438654970381</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.9440576819345808</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.9440576819345808</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9508060505487845</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.95407954673099</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9548862805781</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9561376847389417</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9562031014479138</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9562182228666785</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9562849348652935</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.956920613300309</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9596727906374011</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9630006996755847</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9643110955927451</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9650392891665592</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9658433105492655</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9663411339130572</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9668634713310579</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9668828657511512</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9671194330098787</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9679898038317248</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9704079894190341</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9723941272999921</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9723941272999921</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9746146097407289</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9807583713126765</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9836952521519239</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9839952109134052</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9858258307517159</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9877250974575265</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9895164793172001</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9900476078394601</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.990805167858568</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9908164112654693</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.991456269401038</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9914768248029043</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.992429682599421</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9924495582695279</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9924534397282295</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9935060724458691</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9969709894256795</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9989568581303222</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9990258024004124</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9998217136879299</v>
+        <v>1</v>
       </c>
       <c r="GR3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.963634981604152E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.669268723722909E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.077372382938916E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.077372382938916E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.077372382938916E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.077372382938916E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9.118423537362657E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.118423537362657E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001078487599307866</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001078487599307866</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001078487599307866</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001391796916423712</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001391796916423712</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001391796916423712</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001391796916423712</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001459705059846382</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001787062429119106</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001787062429119106</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001787062429119106</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002019198545380356</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002019198545380356</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002286779378027423</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002286779378027423</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002338043812984227</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002388564495599608</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0002388564495599608</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0002640434582910194</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002683193787120834</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002683193787120834</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003585915932482385</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004383805876329271</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0004383805876329271</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0004383805876329271</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004383805876329271</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0004764936999617655</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0004764936999617655</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0004790783968485858</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0005107723897176748</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0005444920908506291</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0005467847174339456</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0005663784745855644</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0005663784745855644</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0005663784745855644</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0005937689341374307</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0005937689341374307</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0006098575171215691</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.000610295855947814</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0006328645854062092</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0006401145726946747</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0006401145726946747</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0006844226281105876</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.000713378518223892</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0007295659904119753</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0008053773465541073</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0008848983398981451</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0008883495753193219</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0008883495753193219</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0008883495753193219</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0008883495753193219</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0008883495753193219</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0009286393789293882</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0009374637700440706</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0009374637700440706</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0009386244451666993</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0009540021811189119</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0009641817124970193</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0009658069691638825</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0009700107418919214</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0009700107418919214</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0009700107418919214</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0009816839597801101</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001007541684747259</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001007541684747259</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001020670804078693</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001072507904400337</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001135233387960295</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001141125233213425</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001678418490093904</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.129475881758652</v>
+        <v>0.2715348899257501</v>
       </c>
       <c r="CO4">
-        <v>0.2058789134150165</v>
+        <v>0.4003168716538236</v>
       </c>
       <c r="CP4">
-        <v>0.3072824783628533</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="CQ4">
-        <v>0.3133408582847717</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="CR4">
-        <v>0.3191842628608669</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="CS4">
-        <v>0.3203122647719647</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="CT4">
-        <v>0.3211198245068567</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="CU4">
-        <v>0.3601017659403662</v>
+        <v>0.6233815602319305</v>
       </c>
       <c r="CV4">
-        <v>0.3628176802522315</v>
+        <v>0.6233815602319305</v>
       </c>
       <c r="CW4">
-        <v>0.4664165811206373</v>
+        <v>0.827702648030426</v>
       </c>
       <c r="CX4">
-        <v>0.4716486030831686</v>
+        <v>0.827702648030426</v>
       </c>
       <c r="CY4">
-        <v>0.4781279492141216</v>
+        <v>0.827702648030426</v>
       </c>
       <c r="CZ4">
-        <v>0.5123039566652021</v>
+        <v>0.8391950650966389</v>
       </c>
       <c r="DA4">
-        <v>0.5709150425053701</v>
+        <v>0.9185582298812257</v>
       </c>
       <c r="DB4">
-        <v>0.6147882916397164</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DC4">
-        <v>0.6311498535067702</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DD4">
-        <v>0.6364292971554493</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DE4">
-        <v>0.6496877760585034</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DF4">
-        <v>0.6502978279355985</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DG4">
-        <v>0.6597315115702278</v>
+        <v>0.9569856554368306</v>
       </c>
       <c r="DH4">
-        <v>0.7043039642268388</v>
+        <v>0.9973551850899864</v>
       </c>
       <c r="DI4">
-        <v>0.7347755587810797</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DJ4">
-        <v>0.7407875459525471</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DK4">
-        <v>0.7413222524031876</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DL4">
-        <v>0.7429868219947187</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DM4">
-        <v>0.7457703623114917</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DN4">
-        <v>0.7457703623114917</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DO4">
-        <v>0.7459712141542137</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DP4">
-        <v>0.7541080451851795</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DQ4">
-        <v>0.7562646386459474</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DR4">
-        <v>0.7564157112747653</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DS4">
-        <v>0.763146946533297</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DT4">
-        <v>0.7745941560655112</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DU4">
-        <v>0.776755631787599</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DV4">
-        <v>0.7817893822583863</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DW4">
-        <v>0.7847602005905988</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DX4">
-        <v>0.7960398086871883</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DY4">
-        <v>0.7970749202306778</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="DZ4">
-        <v>0.8054564081922152</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EA4">
-        <v>0.8252603463971812</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EB4">
-        <v>0.8325728289632487</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EC4">
-        <v>0.8410203238558557</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="ED4">
-        <v>0.8413583033200488</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EE4">
-        <v>0.8477071364748173</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EF4">
-        <v>0.8492672365914594</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EG4">
-        <v>0.8592953762314618</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EH4">
-        <v>0.8678766628124145</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EI4">
-        <v>0.8692158468392461</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EJ4">
-        <v>0.8723906259073811</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EK4">
-        <v>0.8773446037638232</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EL4">
-        <v>0.8774348759783593</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EM4">
-        <v>0.8787758241095838</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EN4">
-        <v>0.8820763899406525</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EO4">
-        <v>0.8856948485251155</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EP4">
-        <v>0.885879942327316</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EQ4">
-        <v>0.8859629788332626</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="ER4">
-        <v>0.8886272222039491</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="ES4">
-        <v>0.8982041755941862</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="ET4">
-        <v>0.9014477716605483</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EU4">
-        <v>0.9019778487118431</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EV4">
-        <v>0.904436555441394</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EW4">
-        <v>0.9052446755370902</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EX4">
-        <v>0.9072302266922901</v>
+        <v>0.9985582439981183</v>
       </c>
       <c r="EY4">
-        <v>0.9377877578597715</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.9416999916580303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.9463227549834783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.9468310737857335</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.9487649299615412</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.9507071748729028</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.9554898765519914</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.9564855948721626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.9574323788014428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.9582179097872821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.9582269769363084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.9582269769363084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9582574072803578</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9601526276368906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9641291820855424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9664624762470163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9668605727290973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9676662574532889</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9676717095044023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9683268867271578</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9683441336525563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9683441336525563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9687682645214435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9698674067543759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.973599701904571</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9746428087581871</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9748376530206724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.977562935324814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9810698376685723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9826033836722007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9827410736266111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9857258690782188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.987090938955729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9888232477320896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9888436102493374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9892986263363863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9895257934524392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9904282929829104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9904614553730874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9910658628272562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9910658628272562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9910658628272562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9934992254673652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9988429232607133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9997733563270635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9999717438923292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8970,766 +8970,766 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001204354611690334</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001839501028552693</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001839501028552693</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002092078458712663</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002664713765435164</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002664713765435164</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002664713765435164</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002664713765435164</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002664713765435164</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.00037064599789801</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00037064599789801</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0003779550438884154</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003845233724892351</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003845233724892351</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0003845233724892351</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004134711776451774</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0004134711776451774</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0004134711776451774</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004134711776451774</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0004352180332081116</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004621270285963883</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0004902828910024097</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0005030226567298773</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0005030226567298773</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0005223003612669202</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0005654333054445868</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0005738800383495802</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0005738800383495802</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0006147503379879761</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0006375129970893796</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.000746122056355913</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0007621981958850438</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0007621981958850438</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.000807679177213618</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.000825659099574599</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.000825659099574599</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0008349958811206286</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0008349958811206286</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0008612907875856613</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000884899350578989</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.000884899350578989</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000884899350578989</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000899736941507715</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0009142161360320476</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0009151817138612011</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0009151817138612011</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0009387902768545288</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0009595619213146741</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0009764965859552538</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001029660520780177</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001070530820418573</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001090211293257051</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001122257218052474</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001133025270708763</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001133025270708763</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001133025270708763</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001133025270708763</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001133025270708763</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0011339398977564</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001136822968345946</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001136822968345946</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001139284325295973</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001177793858493556</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001186435654432662</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001186435654432662</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001186497425360761</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001216594614048672</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001234315637802849</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001281374018407134</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001294471802292664</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001294471802292664</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001315126331481902</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001323187607359367</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001326718282399026</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001328433170613923</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001337060283991062</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001422168443379492</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001478315433908915</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001484354971136219</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001514752789608215</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001558076816227648</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001570703733462933</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001594751262331238</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001594751262331238</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001594751262331238</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001685176382371526</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1414997770956384</v>
+        <v>0.2965451283029447</v>
       </c>
       <c r="CO5">
-        <v>0.2102550306598641</v>
+        <v>0.4011726999775754</v>
       </c>
       <c r="CP5">
-        <v>0.3250417920811228</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CQ5">
-        <v>0.3320736908283643</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CR5">
-        <v>0.3420515117970555</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CS5">
-        <v>0.3431332169016872</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CT5">
-        <v>0.34328389604895</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CU5">
-        <v>0.3722916341840335</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CV5">
-        <v>0.3747150076454474</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="CW5">
-        <v>0.476374304851967</v>
+        <v>0.8236175049639639</v>
       </c>
       <c r="CX5">
-        <v>0.4816099472936289</v>
+        <v>0.8236175049639639</v>
       </c>
       <c r="CY5">
-        <v>0.487795995883941</v>
+        <v>0.8236175049639639</v>
       </c>
       <c r="CZ5">
-        <v>0.5215306954359643</v>
+        <v>0.8336613318190015</v>
       </c>
       <c r="DA5">
-        <v>0.5768972226394005</v>
+        <v>0.9021285424346084</v>
       </c>
       <c r="DB5">
-        <v>0.6255108510413251</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DC5">
-        <v>0.6388806140002662</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DD5">
-        <v>0.6434691044865012</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DE5">
-        <v>0.6554839090335586</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DF5">
-        <v>0.6564977687541234</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DG5">
-        <v>0.6625680239343857</v>
+        <v>0.9523574791265033</v>
       </c>
       <c r="DH5">
-        <v>0.706145486551117</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DI5">
-        <v>0.7297821668037106</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DJ5">
-        <v>0.7349153176981141</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DK5">
-        <v>0.7350663436712461</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DL5">
-        <v>0.737750884917258</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DM5">
-        <v>0.7409340013586063</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DN5">
-        <v>0.7410485557737649</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DO5">
-        <v>0.7412865823357233</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DP5">
-        <v>0.7512978806063892</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DQ5">
-        <v>0.7528689612150908</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DR5">
-        <v>0.7530542700448122</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DS5">
-        <v>0.7605330211030441</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DT5">
-        <v>0.772150921167458</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DU5">
-        <v>0.7734161379834441</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DV5">
-        <v>0.777639436139463</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DW5">
-        <v>0.779591961662819</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DX5">
-        <v>0.7906478937475695</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DY5">
-        <v>0.7911127338510463</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="DZ5">
-        <v>0.7996571293064308</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EA5">
-        <v>0.8192141396884196</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EB5">
-        <v>0.8257496168428508</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EC5">
-        <v>0.8321682969336064</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="ED5">
-        <v>0.8322105086478363</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EE5">
-        <v>0.8397978948543251</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EF5">
-        <v>0.8416529435962713</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EG5">
-        <v>0.8517818569633536</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EH5">
-        <v>0.8585678726801393</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EI5">
-        <v>0.8601993095956727</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EJ5">
-        <v>0.8643920977821815</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EK5">
-        <v>0.8687380834380016</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EL5">
-        <v>0.8691393240725488</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EM5">
-        <v>0.8704730242881071</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EN5">
-        <v>0.8726893335997243</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EO5">
-        <v>0.8774859347172735</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EP5">
-        <v>0.8780136599144457</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EQ5">
-        <v>0.8780832165609662</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="ER5">
-        <v>0.8807142851831206</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="ES5">
-        <v>0.8902888665434399</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="ET5">
-        <v>0.8937796706653042</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EU5">
-        <v>0.8943723984251659</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EV5">
-        <v>0.8971753922129776</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EW5">
-        <v>0.897616887132986</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EX5">
-        <v>0.9010439090168929</v>
+        <v>0.9889847058246062</v>
       </c>
       <c r="EY5">
-        <v>0.9351383038191785</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9395452251591478</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9429981975432264</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9433426328234871</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.9450413120303254</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9469594373506706</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9514986181241292</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9529929864742431</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.95425720964312</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9549900931789361</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9549923387459537</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9550096743426999</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9550729604695667</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9569474864960257</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9612201787197567</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9632488930608114</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9634141116068063</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9647103255095357</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9649092972972102</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9660837670144685</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9660837670144685</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9660887910068258</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9666242623386407</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9680938960804283</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9716045207103284</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9722650656058603</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9727781957280415</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9760517232492865</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9805911865067117</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9828552727328759</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9829443681339414</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9852215607956254</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9865839831163534</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9881471573760732</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9881749991889556</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9884959755016464</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9885883237551205</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9893091415331545</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9893463920874466</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9903110216070167</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9903110216070167</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9903110216070167</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9930158535672846</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9983979132626664</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9990708475167244</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.999660750937245</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.745327557153494E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.745327557153494E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.892893318128646E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.892893318128646E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.114494376427039E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.114494376427039E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.114494376427039E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.580530923193E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.008723595555255E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.508753581521592E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.508753581521592E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.808548376785904E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001268754628044007</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002460299665584178</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0002541855469638902</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002593523821518223</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002692575352862166</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002692575352862166</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003252478366596596</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0003356571500336156</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0003593294158765213</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000470782766078341</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005940564408161542</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0005943736852156542</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0005943736852156542</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0006169953054429082</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0006323336300252614</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0006323336300252614</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0006427765949747397</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0006445155584015661</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0006445155584015661</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0006445155584015661</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0006456089284097267</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0006456089284097267</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0006456089284097267</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0006456089284097267</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0006456089284097267</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0006649672303784471</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0006797181943777965</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0006975727202087259</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0007294050478303117</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0007460672271948693</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0007521398561274735</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0007521398561274735</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0007521398561274735</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0007564149205614969</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0007570815064393623</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0008025920757903204</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0008333423126353627</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0008343734462409965</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0008472716983843405</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0008472716983843405</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0008477037008603494</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0008663297083224789</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0008663297083224789</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0008663297083224789</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0008864859268710211</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0008973325696363084</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0009115519528155419</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001008532489852888</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001048127416422049</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001048127416422049</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001048127416422049</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001048734723293505</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.00105206624037734</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001052993154763395</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001092838461862654</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001142569715281963</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001310551864612097</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001381584075022698</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001381584075022698</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00140684148016894</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.001449210750493324</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001454148637892642</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00145799868082647</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.001478057409870153</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001478057409870153</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001497511743408986</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001524670664701836</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001524670664701836</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001584997401356883</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001584997401356883</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.00160519748602995</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.001644411556415265</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.001747004541842995</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.00176272345043469</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001842715665502944</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.001952616026013974</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.00199394572882537</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002414979230636846</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05869643913727024</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="CO6">
-        <v>0.07412132407581917</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="CP6">
-        <v>0.3014770913326749</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CQ6">
-        <v>0.3108632085485479</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CR6">
-        <v>0.3383166045007042</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CS6">
-        <v>0.3428133525244406</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CT6">
-        <v>0.3429160383694047</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CU6">
-        <v>0.3582065181348169</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CV6">
-        <v>0.3758877997496711</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="CW6">
-        <v>0.4352866523554692</v>
+        <v>0.7019630176210268</v>
       </c>
       <c r="CX6">
-        <v>0.4710358921422231</v>
+        <v>0.7178716781093072</v>
       </c>
       <c r="CY6">
-        <v>0.4712261311314035</v>
+        <v>0.7178716781093072</v>
       </c>
       <c r="CZ6">
-        <v>0.5211020281466582</v>
+        <v>0.7729772791926878</v>
       </c>
       <c r="DA6">
-        <v>0.5235167420857048</v>
+        <v>0.7729772791926878</v>
       </c>
       <c r="DB6">
-        <v>0.6249312327865293</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DC6">
-        <v>0.6249514328712024</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DD6">
-        <v>0.642905521394704</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DE6">
-        <v>0.6464692097923985</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DF6">
-        <v>0.6469023052776843</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DG6">
-        <v>0.6567194048155001</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DH6">
-        <v>0.6724260353937146</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="DI6">
-        <v>0.7089248757827674</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DJ6">
-        <v>0.7096513298032628</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DK6">
-        <v>0.7096513298032628</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DL6">
-        <v>0.7097536236018686</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DM6">
-        <v>0.7183254237228198</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DN6">
-        <v>0.7196293740018617</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DO6">
-        <v>0.7224981076331342</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DP6">
-        <v>0.7260571271373933</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DQ6">
-        <v>0.7351840051434744</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DR6">
-        <v>0.7352259207109096</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DS6">
-        <v>0.7387901463530555</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DT6">
-        <v>0.7469787507902039</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DU6">
-        <v>0.7493356569661215</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DV6">
-        <v>0.7546687866313421</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DW6">
-        <v>0.7546687866313421</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DX6">
-        <v>0.7670986883528917</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DY6">
-        <v>0.7733861748987717</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="DZ6">
-        <v>0.7735130742380844</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EA6">
-        <v>0.7988868378454133</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EB6">
-        <v>0.7995659402066531</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EC6">
-        <v>0.8086733877550031</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="ED6">
-        <v>0.8096453337213079</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EE6">
-        <v>0.8111915056994584</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EF6">
-        <v>0.8200802550306506</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EG6">
-        <v>0.8262742871587452</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EH6">
-        <v>0.8374610158267365</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EI6">
-        <v>0.8404244617822941</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EJ6">
-        <v>0.846662044332502</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EK6">
-        <v>0.8553228945474307</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EL6">
-        <v>0.8553241771602709</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EM6">
-        <v>0.8591188971826195</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EN6">
-        <v>0.8595477517588698</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EO6">
-        <v>0.8634000085706141</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EP6">
-        <v>0.8674570505792598</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EQ6">
-        <v>0.8679011463072906</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="ER6">
-        <v>0.8684843940118451</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="ES6">
-        <v>0.8724530218342221</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="ET6">
-        <v>0.8811726537367061</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EU6">
-        <v>0.881176037859918</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EV6">
-        <v>0.884944488940079</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EW6">
-        <v>0.8853800170850512</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EX6">
-        <v>0.8854776718543689</v>
+        <v>0.9890745007438468</v>
       </c>
       <c r="EY6">
-        <v>0.9194309701831455</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9322110824402517</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9335731411752102</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.935418556311464</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.935840374746531</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9362030761690511</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9400860753911225</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9409527215550388</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9427337196906873</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9435364252494366</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.943574132771907</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9435813162140314</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9436481431182331</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9447435945193674</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9495054061871997</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9516123061730251</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9526723962024105</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9530273520388907</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9534957511288882</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9546643461256361</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9550542324576111</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9552743959327109</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9555794895202847</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9567391459861427</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9593730042283527</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9611848294286039</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9611962670642811</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9627393627700965</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9662190287973108</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9706516635151541</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9715912034244939</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9729867609370091</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9764968377619389</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.980063998986217</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9807902095506218</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9810108079245546</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9812410812014982</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9823898592927462</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9831231532286158</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9850319788201338</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9857789928225484</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9876044656729154</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9880341123570212</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9960552194041402</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9994870206431091</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9995001552988213</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>0.0150162973581609</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5906177970863545</v>
+        <v>0.5313050412988014</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.07049692180486893</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5817039460368213</v>
+        <v>0.5219630433913239</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5123039566652021</v>
+        <v>0.5985402057210044</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5215306954359643</v>
+        <v>0.6301224737308386</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.05869643913727024</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="F6">
-        <v>0.5211020281466582</v>
+        <v>0.6204342706699011</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0150162973581609</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7054301219699122</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.07049692180486893</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7072048645456591</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7043039642268388</v>
+        <v>0.827702648030426</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.706145486551117</v>
+        <v>0.8236175049639639</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.05869643913727024</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="F6">
-        <v>0.7089248757827674</v>
+        <v>0.7019630176210268</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0150162973581609</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8053661857817578</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.07049692180486893</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8134452330805618</v>
+        <v>0.8671412447362847</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8054564081922152</v>
+        <v>0.827702648030426</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8192141396884196</v>
+        <v>0.8236175049639639</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.05869643913727024</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="F6">
-        <v>0.8086733877550031</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0150162973581609</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9061315576801408</v>
+        <v>0.9010286908316739</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>0.07049692180486893</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9176314374416397</v>
+        <v>0.9842956844540767</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.001146359808606139</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9014477716605483</v>
+        <v>0.9185582298812257</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.001604698923710603</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9010439090168929</v>
+        <v>0.9021285424346084</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.05869643913727024</v>
+        <v>0.07287898257557099</v>
       </c>
       <c r="F6">
-        <v>0.9194309701831455</v>
+        <v>0.9710859391294118</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>59</v>

--- a/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
@@ -186,7 +186,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ100</t>
+    <t>710R</t>
   </si>
   <si>
     <t>100%</t>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0121840640905508</v>
       </c>
       <c r="G2">
-        <v>0.08657431862689956</v>
+        <v>0.08922939557640905</v>
       </c>
       <c r="H2">
-        <v>0.3486486383836784</v>
+        <v>0.2832256969257736</v>
       </c>
       <c r="I2">
-        <v>0.04296400212803472</v>
+        <v>0.05694755999134838</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -710,46 +710,46 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04844314610422003</v>
+        <v>0.06100340822144994</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.009704892186060191</v>
       </c>
       <c r="P2">
-        <v>0.1406486725769483</v>
+        <v>0.1292570666351432</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03935455464169418</v>
+        <v>0.05427572452530702</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1905083657258764</v>
+        <v>0.166164902802697</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.002108333739221937</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.02065941416122502</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.001108433611980476</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.008184638797427743</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.1028583018126487</v>
+        <v>0.1012833523021285</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.00466311643327734</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1076348262369992</v>
+        <v>0.1055350176767106</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3811884932684989</v>
+        <v>0.3103978462646136</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -811,52 +811,52 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00275752704865023</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01357331775101693</v>
       </c>
       <c r="L3">
-        <v>0.02001244280899065</v>
+        <v>0.0399150992472909</v>
       </c>
       <c r="M3">
-        <v>0.06687757259214921</v>
+        <v>0.07501213579482692</v>
       </c>
       <c r="N3">
-        <v>0.05135012451038744</v>
+        <v>0.06338371578751906</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.06412647811013769</v>
+        <v>0.07295185634979738</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1889022645220639</v>
+        <v>0.1663957528291079</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.01323194279838652</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0004537126269567694</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.02166589749702399</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1199077979507728</v>
+        <v>0.1147261783280992</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2432563609405748</v>
+        <v>0.2001272947229348</v>
       </c>
       <c r="G4">
-        <v>0.124137223849318</v>
+        <v>0.1145502844178472</v>
       </c>
       <c r="H4">
-        <v>0.1820820606552348</v>
+        <v>0.1561787415873084</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -933,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03740471535509098</v>
+        <v>0.05224032352961187</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1871702873809795</v>
+        <v>0.1598342015039639</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -948,34 +948,34 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02626579055436112</v>
+        <v>0.0442379495556518</v>
       </c>
       <c r="S4">
-        <v>0.08290004763552561</v>
+        <v>0.08492486620232657</v>
       </c>
       <c r="T4">
-        <v>0.04874151458205745</v>
+        <v>0.06038485351835393</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01457506691445173</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.009408114883704057</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.003039437697610227</v>
       </c>
       <c r="Z4">
-        <v>0.05036208937217893</v>
+        <v>0.06154909923823473</v>
       </c>
       <c r="AA4">
-        <v>0.01767990967467876</v>
+        <v>0.03806972138962724</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0008800448383736487</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2713873775573737</v>
+        <v>0.2210727623811943</v>
       </c>
       <c r="G5">
-        <v>0.1066310925349601</v>
+        <v>0.1022687849909022</v>
       </c>
       <c r="H5">
-        <v>0.2133585046598986</v>
+        <v>0.1792287689774957</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.003998915462083324</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01447357570270862</v>
+        <v>0.03581499511214403</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1829215203283549</v>
+        <v>0.1572809883640796</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02543338090420933</v>
+        <v>0.04371799225233787</v>
       </c>
       <c r="S5">
-        <v>0.07558835284078989</v>
+        <v>0.07988420072901989</v>
       </c>
       <c r="T5">
-        <v>0.05993126388195395</v>
+        <v>0.06859404301266761</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.009669896348997901</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.007404544147090041</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04825454577497287</v>
+        <v>0.06017408772060775</v>
       </c>
       <c r="AA5">
-        <v>0.002020385814778053</v>
+        <v>0.02683513440648752</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.004054886094891918</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08193256542504503</v>
+        <v>0.08321948940234518</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01371716348530353</v>
       </c>
       <c r="H6">
-        <v>0.4918879400228997</v>
+        <v>0.3742390443889134</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003444437425260722</v>
       </c>
       <c r="J6">
-        <v>0.01285018864713196</v>
+        <v>0.03417921869716412</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01348852287713748</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01755558648863176</v>
       </c>
       <c r="O6">
-        <v>0.08940295599128231</v>
+        <v>0.08852257815998092</v>
       </c>
       <c r="P6">
-        <v>0.0327300047311183</v>
+        <v>0.0482915235685217</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.06658254019145234</v>
+        <v>0.07232279725165731</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1900874884672929</v>
+        <v>0.1599966205821402</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01801966637521168</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.004177594177326839</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01419644931112323</v>
       </c>
       <c r="AA6">
-        <v>0.03452631652377749</v>
+        <v>0.04956669128410442</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.002059178573404361</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.003003437951772948</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1377,91 +1377,91 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0121840640905508</v>
       </c>
       <c r="G2">
-        <v>0.08657431862689956</v>
+        <v>0.1014134596669599</v>
       </c>
       <c r="H2">
-        <v>0.435222957010578</v>
+        <v>0.3846391565927335</v>
       </c>
       <c r="I2">
-        <v>0.4781869591386128</v>
+        <v>0.4415867165840818</v>
       </c>
       <c r="J2">
-        <v>0.4781869591386128</v>
+        <v>0.4415867165840818</v>
       </c>
       <c r="K2">
-        <v>0.4781869591386128</v>
+        <v>0.4415867165840818</v>
       </c>
       <c r="L2">
-        <v>0.4781869591386128</v>
+        <v>0.4415867165840818</v>
       </c>
       <c r="M2">
-        <v>0.4781869591386128</v>
+        <v>0.4415867165840818</v>
       </c>
       <c r="N2">
-        <v>0.5266301052428328</v>
+        <v>0.5025901248055318</v>
       </c>
       <c r="O2">
-        <v>0.5266301052428328</v>
+        <v>0.512295016991592</v>
       </c>
       <c r="P2">
-        <v>0.6672787778197811</v>
+        <v>0.6415520836267352</v>
       </c>
       <c r="Q2">
-        <v>0.6672787778197811</v>
+        <v>0.6415520836267352</v>
       </c>
       <c r="R2">
-        <v>0.7066333324614752</v>
+        <v>0.6958278081520423</v>
       </c>
       <c r="S2">
-        <v>0.7066333324614752</v>
+        <v>0.6958278081520423</v>
       </c>
       <c r="T2">
-        <v>0.8971416981873516</v>
+        <v>0.8619927109547392</v>
       </c>
       <c r="U2">
-        <v>0.8971416981873516</v>
+        <v>0.8641010446939611</v>
       </c>
       <c r="V2">
-        <v>0.8971416981873516</v>
+        <v>0.8847604588551861</v>
       </c>
       <c r="W2">
-        <v>0.8971416981873516</v>
+        <v>0.8847604588551861</v>
       </c>
       <c r="X2">
-        <v>0.8971416981873516</v>
+        <v>0.8858688924671665</v>
       </c>
       <c r="Y2">
-        <v>0.8971416981873516</v>
+        <v>0.8940535312645942</v>
       </c>
       <c r="Z2">
-        <v>0.8971416981873516</v>
+        <v>0.8940535312645942</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1484,106 +1484,106 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1076348262369992</v>
+        <v>0.1055350176767106</v>
       </c>
       <c r="E3">
-        <v>0.1076348262369992</v>
+        <v>0.1055350176767106</v>
       </c>
       <c r="F3">
-        <v>0.4888233195054981</v>
+        <v>0.4159328639413242</v>
       </c>
       <c r="G3">
-        <v>0.4888233195054981</v>
+        <v>0.4159328639413242</v>
       </c>
       <c r="H3">
-        <v>0.4888233195054981</v>
+        <v>0.4159328639413242</v>
       </c>
       <c r="I3">
-        <v>0.4888233195054981</v>
+        <v>0.4159328639413242</v>
       </c>
       <c r="J3">
-        <v>0.4888233195054981</v>
+        <v>0.4186903909899745</v>
       </c>
       <c r="K3">
-        <v>0.4888233195054981</v>
+        <v>0.4322637087409914</v>
       </c>
       <c r="L3">
-        <v>0.5088357623144888</v>
+        <v>0.4721788079882823</v>
       </c>
       <c r="M3">
-        <v>0.575713334906638</v>
+        <v>0.5471909437831093</v>
       </c>
       <c r="N3">
-        <v>0.6270634594170255</v>
+        <v>0.6105746595706283</v>
       </c>
       <c r="O3">
-        <v>0.6270634594170255</v>
+        <v>0.6105746595706283</v>
       </c>
       <c r="P3">
-        <v>0.6911899375271632</v>
+        <v>0.6835265159204257</v>
       </c>
       <c r="Q3">
-        <v>0.6911899375271632</v>
+        <v>0.6835265159204257</v>
       </c>
       <c r="R3">
-        <v>0.880092202049227</v>
+        <v>0.8499222687495336</v>
       </c>
       <c r="S3">
-        <v>0.880092202049227</v>
+        <v>0.8499222687495336</v>
       </c>
       <c r="T3">
-        <v>0.880092202049227</v>
+        <v>0.86315421154792</v>
       </c>
       <c r="U3">
-        <v>0.880092202049227</v>
+        <v>0.86315421154792</v>
       </c>
       <c r="V3">
-        <v>0.880092202049227</v>
+        <v>0.8636079241748769</v>
       </c>
       <c r="W3">
-        <v>0.880092202049227</v>
+        <v>0.8852738216719008</v>
       </c>
       <c r="X3">
-        <v>0.880092202049227</v>
+        <v>0.8852738216719008</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1603,100 +1603,100 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2432563609405748</v>
+        <v>0.2001272947229348</v>
       </c>
       <c r="G4">
-        <v>0.3673935847898928</v>
+        <v>0.314677579140782</v>
       </c>
       <c r="H4">
-        <v>0.5494756454451275</v>
+        <v>0.4708563207280904</v>
       </c>
       <c r="I4">
-        <v>0.5494756454451275</v>
+        <v>0.4708563207280904</v>
       </c>
       <c r="J4">
-        <v>0.5494756454451275</v>
+        <v>0.4708563207280904</v>
       </c>
       <c r="K4">
-        <v>0.5494756454451275</v>
+        <v>0.4708563207280904</v>
       </c>
       <c r="L4">
-        <v>0.5494756454451275</v>
+        <v>0.4708563207280904</v>
       </c>
       <c r="M4">
-        <v>0.5868803608002184</v>
+        <v>0.5230966442577022</v>
       </c>
       <c r="N4">
-        <v>0.5868803608002184</v>
+        <v>0.5230966442577022</v>
       </c>
       <c r="O4">
-        <v>0.774050648181198</v>
+        <v>0.6829308457616661</v>
       </c>
       <c r="P4">
-        <v>0.774050648181198</v>
+        <v>0.6829308457616661</v>
       </c>
       <c r="Q4">
-        <v>0.774050648181198</v>
+        <v>0.6829308457616661</v>
       </c>
       <c r="R4">
-        <v>0.800316438735559</v>
+        <v>0.7271687953173178</v>
       </c>
       <c r="S4">
-        <v>0.8832164863710846</v>
+        <v>0.8120936615196443</v>
       </c>
       <c r="T4">
-        <v>0.9319580009531421</v>
+        <v>0.8724785150379983</v>
       </c>
       <c r="U4">
-        <v>0.9319580009531421</v>
+        <v>0.8870535819524501</v>
       </c>
       <c r="V4">
-        <v>0.9319580009531421</v>
+        <v>0.8870535819524501</v>
       </c>
       <c r="W4">
-        <v>0.9319580009531421</v>
+        <v>0.8964616968361542</v>
       </c>
       <c r="X4">
-        <v>0.9319580009531421</v>
+        <v>0.8964616968361542</v>
       </c>
       <c r="Y4">
-        <v>0.9319580009531421</v>
+        <v>0.8995011345337645</v>
       </c>
       <c r="Z4">
-        <v>0.982320090325321</v>
+        <v>0.9610502337719992</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>0.9991199551616264</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1716,100 +1716,100 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2713873775573737</v>
+        <v>0.2210727623811943</v>
       </c>
       <c r="G5">
-        <v>0.3780184700923338</v>
+        <v>0.3233415473720966</v>
       </c>
       <c r="H5">
-        <v>0.5913769747522324</v>
+        <v>0.5025703163495923</v>
       </c>
       <c r="I5">
-        <v>0.5913769747522324</v>
+        <v>0.5025703163495923</v>
       </c>
       <c r="J5">
-        <v>0.5913769747522324</v>
+        <v>0.5065692318116756</v>
       </c>
       <c r="K5">
-        <v>0.5913769747522324</v>
+        <v>0.5065692318116756</v>
       </c>
       <c r="L5">
-        <v>0.5913769747522324</v>
+        <v>0.5065692318116756</v>
       </c>
       <c r="M5">
-        <v>0.605850550454941</v>
+        <v>0.5423842269238196</v>
       </c>
       <c r="N5">
-        <v>0.605850550454941</v>
+        <v>0.5423842269238196</v>
       </c>
       <c r="O5">
-        <v>0.7887720707832959</v>
+        <v>0.6996652152878993</v>
       </c>
       <c r="P5">
-        <v>0.7887720707832959</v>
+        <v>0.6996652152878993</v>
       </c>
       <c r="Q5">
-        <v>0.7887720707832959</v>
+        <v>0.6996652152878993</v>
       </c>
       <c r="R5">
-        <v>0.8142054516875052</v>
+        <v>0.7433832075402371</v>
       </c>
       <c r="S5">
-        <v>0.8897938045282952</v>
+        <v>0.823267408269257</v>
       </c>
       <c r="T5">
-        <v>0.9497250684102491</v>
+        <v>0.8918614512819246</v>
       </c>
       <c r="U5">
-        <v>0.9497250684102491</v>
+        <v>0.9015313476309226</v>
       </c>
       <c r="V5">
-        <v>0.9497250684102491</v>
+        <v>0.9015313476309226</v>
       </c>
       <c r="W5">
-        <v>0.9497250684102491</v>
+        <v>0.9089358917780126</v>
       </c>
       <c r="X5">
-        <v>0.9497250684102491</v>
+        <v>0.9089358917780126</v>
       </c>
       <c r="Y5">
-        <v>0.9497250684102491</v>
+        <v>0.9089358917780126</v>
       </c>
       <c r="Z5">
-        <v>0.997979614185222</v>
+        <v>0.9691099794986203</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9959451139051079</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1829,100 +1829,100 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08193256542504503</v>
+        <v>0.08321948940234518</v>
       </c>
       <c r="G6">
-        <v>0.08193256542504503</v>
+        <v>0.09693665288764872</v>
       </c>
       <c r="H6">
-        <v>0.5738205054479447</v>
+        <v>0.4711756972765622</v>
       </c>
       <c r="I6">
-        <v>0.5738205054479447</v>
+        <v>0.4746201347018229</v>
       </c>
       <c r="J6">
-        <v>0.5866706940950767</v>
+        <v>0.508799353398987</v>
       </c>
       <c r="K6">
-        <v>0.5866706940950767</v>
+        <v>0.508799353398987</v>
       </c>
       <c r="L6">
-        <v>0.5866706940950767</v>
+        <v>0.508799353398987</v>
       </c>
       <c r="M6">
-        <v>0.5866706940950767</v>
+        <v>0.5222878762761245</v>
       </c>
       <c r="N6">
-        <v>0.5866706940950767</v>
+        <v>0.5398434627647563</v>
       </c>
       <c r="O6">
-        <v>0.676073650086359</v>
+        <v>0.6283660409247371</v>
       </c>
       <c r="P6">
-        <v>0.7088036548174773</v>
+        <v>0.6766575644932589</v>
       </c>
       <c r="Q6">
-        <v>0.7088036548174773</v>
+        <v>0.6766575644932589</v>
       </c>
       <c r="R6">
-        <v>0.7753861950089297</v>
+        <v>0.7489803617449162</v>
       </c>
       <c r="S6">
-        <v>0.7753861950089297</v>
+        <v>0.7489803617449162</v>
       </c>
       <c r="T6">
-        <v>0.9654736834762226</v>
+        <v>0.9089769823270565</v>
       </c>
       <c r="U6">
-        <v>0.9654736834762226</v>
+        <v>0.9089769823270565</v>
       </c>
       <c r="V6">
-        <v>0.9654736834762226</v>
+        <v>0.9269966487022682</v>
       </c>
       <c r="W6">
-        <v>0.9654736834762226</v>
+        <v>0.9269966487022682</v>
       </c>
       <c r="X6">
-        <v>0.9654736834762226</v>
+        <v>0.9269966487022682</v>
       </c>
       <c r="Y6">
-        <v>0.9654736834762226</v>
+        <v>0.931174242879595</v>
       </c>
       <c r="Z6">
-        <v>0.9654736834762226</v>
+        <v>0.9453706921907182</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9949373834748226</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9949373834748226</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9949373834748226</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9949373834748226</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.996996562048227</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.996996562048227</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.996996562048227</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.996996562048227</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5266301052428328</v>
+        <v>0.5025901248055318</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5471909437831093</v>
+      </c>
+      <c r="G3">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5088357623144888</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -2072,16 +2072,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5494756454451275</v>
+        <v>0.5230966442577022</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5913769747522324</v>
+        <v>0.5025703163495923</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2154,16 +2154,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5738205054479447</v>
+        <v>0.508799353398987</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -2249,16 +2249,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7066333324614752</v>
+        <v>0.8619927109547392</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.880092202049227</v>
+        <v>0.8499222687495336</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2331,16 +2331,16 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7271687953173178</v>
+      </c>
+      <c r="G4">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.774050648181198</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2372,16 +2372,16 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7433832075402371</v>
+      </c>
+      <c r="G5">
         <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7887720707832959</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2413,16 +2413,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7088036548174773</v>
+        <v>0.7489803617449162</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8971416981873516</v>
+        <v>0.8619927109547392</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.880092202049227</v>
+        <v>0.8499222687495336</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2590,16 +2590,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.800316438735559</v>
+        <v>0.8120936615196443</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8142054516875052</v>
+        <v>0.823267408269257</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9654736834762226</v>
+        <v>0.9089769823270565</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9953368835667227</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -2849,16 +2849,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9319580009531421</v>
+        <v>0.9610502337719992</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2890,16 +2890,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9497250684102491</v>
+        <v>0.9015313476309226</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9654736834762226</v>
+        <v>0.9089769823270565</v>
       </c>
       <c r="G6">
         <v>16</v>
